--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$A$2:$A$10</f>
+              <f>'Sheet1'!$A$2:$A$11</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$B$2:$B$10</f>
+              <f>'Sheet1'!$B$2:$B$11</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$A$2:$A$10</f>
+              <f>'Sheet1'!$A$2:$A$11</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$C$2:$C$10</f>
+              <f>'Sheet1'!$C$2:$C$11</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$A$2:$A$10</f>
+              <f>'Sheet1'!$A$2:$A$11</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$D$2:$D$10</f>
+              <f>'Sheet1'!$D$2:$D$11</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$A$2:$A$10</f>
+              <f>'Sheet1'!$A$2:$A$11</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$E$2:$E$10</f>
+              <f>'Sheet1'!$E$2:$E$11</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$A$2:$A$10</f>
+              <f>'Sheet1'!$A$2:$A$11</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$F$2:$F$10</f>
+              <f>'Sheet1'!$F$2:$F$11</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$A$2:$A$10</f>
+              <f>'Sheet1'!$A$2:$A$11</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$G$2:$G$10</f>
+              <f>'Sheet1'!$G$2:$G$11</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$A$2:$A$10</f>
+              <f>'Sheet1'!$A$2:$A$11</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$H$2:$H$10</f>
+              <f>'Sheet1'!$H$2:$H$11</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$A$2:$A$10</f>
+              <f>'Sheet1'!$A$2:$A$11</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$I$2:$I$10</f>
+              <f>'Sheet1'!$I$2:$I$11</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$A$2:$A$10</f>
+              <f>'Sheet1'!$A$2:$A$11</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$J$2:$J$10</f>
+              <f>'Sheet1'!$J$2:$J$11</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$A$2:$A$10</f>
+              <f>'Sheet1'!$A$2:$A$11</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$K$2:$K$10</f>
+              <f>'Sheet1'!$K$2:$K$11</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$A$2:$A$10</f>
+              <f>'Sheet1'!$A$2:$A$11</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$L$2:$L$10</f>
+              <f>'Sheet1'!$L$2:$L$11</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$A$2:$A$10</f>
+              <f>'Sheet1'!$A$2:$A$11</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$M$2:$M$10</f>
+              <f>'Sheet1'!$M$2:$M$11</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1055,7 +1055,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1490,6 +1490,46 @@
         <v>1213230</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-01-01 15:11</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>963000</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1213230</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$A$2:$A$11</f>
+              <f>'Sheet1'!$A$2:$A$14</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$B$2:$B$11</f>
+              <f>'Sheet1'!$B$2:$B$14</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$A$2:$A$11</f>
+              <f>'Sheet1'!$A$2:$A$14</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$C$2:$C$11</f>
+              <f>'Sheet1'!$C$2:$C$14</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$A$2:$A$11</f>
+              <f>'Sheet1'!$A$2:$A$14</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$D$2:$D$11</f>
+              <f>'Sheet1'!$D$2:$D$14</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$A$2:$A$11</f>
+              <f>'Sheet1'!$A$2:$A$14</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$E$2:$E$11</f>
+              <f>'Sheet1'!$E$2:$E$14</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$A$2:$A$11</f>
+              <f>'Sheet1'!$A$2:$A$14</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$F$2:$F$11</f>
+              <f>'Sheet1'!$F$2:$F$14</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$A$2:$A$11</f>
+              <f>'Sheet1'!$A$2:$A$14</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$G$2:$G$11</f>
+              <f>'Sheet1'!$G$2:$G$14</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$A$2:$A$11</f>
+              <f>'Sheet1'!$A$2:$A$14</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$H$2:$H$11</f>
+              <f>'Sheet1'!$H$2:$H$14</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$A$2:$A$11</f>
+              <f>'Sheet1'!$A$2:$A$14</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$I$2:$I$11</f>
+              <f>'Sheet1'!$I$2:$I$14</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$A$2:$A$11</f>
+              <f>'Sheet1'!$A$2:$A$14</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$J$2:$J$11</f>
+              <f>'Sheet1'!$J$2:$J$14</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$A$2:$A$11</f>
+              <f>'Sheet1'!$A$2:$A$14</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$K$2:$K$11</f>
+              <f>'Sheet1'!$K$2:$K$14</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$A$2:$A$11</f>
+              <f>'Sheet1'!$A$2:$A$14</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$L$2:$L$11</f>
+              <f>'Sheet1'!$L$2:$L$14</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,55 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$A$2:$A$11</f>
+              <f>'Sheet1'!$A$2:$A$14</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$M$2:$M$11</f>
+              <f>'Sheet1'!$M$2:$M$14</f>
+            </numRef>
+          </val>
+          <smooth val="1"/>
+        </ser>
+        <ser>
+          <idx val="12"/>
+          <order val="12"/>
+          <tx>
+            <strRef>
+              <f>'Sheet1'!N1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln w="25000">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="circle"/>
+            <size val="5"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="0000FF"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Sheet1'!$A$2:$A$14</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Sheet1'!$N$2:$N$14</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1055,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1129,6 +1172,11 @@
           <t>준컴</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>파란컴</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1528,6 +1576,126 @@
       </c>
       <c r="L11" t="n">
         <v>1213230</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-01-01 15:28</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1213230</v>
+      </c>
+      <c r="N12" t="n">
+        <v>963000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-01-01 15:31</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1213230</v>
+      </c>
+      <c r="N13" t="n">
+        <v>963000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-01-01 15:32</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1213230</v>
+      </c>
+      <c r="N14" t="n">
+        <v>963000</v>
       </c>
     </row>
   </sheetData>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$A$2:$A$15</f>
+              <f>'Sheet1'!$A$2:$A$16</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$B$2:$B$15</f>
+              <f>'Sheet1'!$B$2:$B$16</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$A$2:$A$15</f>
+              <f>'Sheet1'!$A$2:$A$16</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$C$2:$C$15</f>
+              <f>'Sheet1'!$C$2:$C$16</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$A$2:$A$15</f>
+              <f>'Sheet1'!$A$2:$A$16</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$D$2:$D$15</f>
+              <f>'Sheet1'!$D$2:$D$16</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$A$2:$A$15</f>
+              <f>'Sheet1'!$A$2:$A$16</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$E$2:$E$15</f>
+              <f>'Sheet1'!$E$2:$E$16</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$A$2:$A$15</f>
+              <f>'Sheet1'!$A$2:$A$16</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$F$2:$F$15</f>
+              <f>'Sheet1'!$F$2:$F$16</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$A$2:$A$15</f>
+              <f>'Sheet1'!$A$2:$A$16</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$G$2:$G$15</f>
+              <f>'Sheet1'!$G$2:$G$16</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$A$2:$A$15</f>
+              <f>'Sheet1'!$A$2:$A$16</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$H$2:$H$15</f>
+              <f>'Sheet1'!$H$2:$H$16</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$A$2:$A$15</f>
+              <f>'Sheet1'!$A$2:$A$16</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$I$2:$I$15</f>
+              <f>'Sheet1'!$I$2:$I$16</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$A$2:$A$15</f>
+              <f>'Sheet1'!$A$2:$A$16</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$J$2:$J$15</f>
+              <f>'Sheet1'!$J$2:$J$16</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$A$2:$A$15</f>
+              <f>'Sheet1'!$A$2:$A$16</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$K$2:$K$15</f>
+              <f>'Sheet1'!$K$2:$K$16</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$A$2:$A$15</f>
+              <f>'Sheet1'!$A$2:$A$16</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$L$2:$L$15</f>
+              <f>'Sheet1'!$L$2:$L$16</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$A$2:$A$15</f>
+              <f>'Sheet1'!$A$2:$A$16</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$M$2:$M$15</f>
+              <f>'Sheet1'!$M$2:$M$16</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$A$2:$A$15</f>
+              <f>'Sheet1'!$A$2:$A$16</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$N$2:$N$15</f>
+              <f>'Sheet1'!$N$2:$N$16</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1738,6 +1738,46 @@
         <v>963000</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-01-01 16:58</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>963000</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1213230</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="70531547" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -163,7 +163,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Sheet1'!B1</f>
+              <f>'70531547'!B1</f>
             </strRef>
           </tx>
           <spPr>
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$A$2:$A$16</f>
+              <f>'70531547'!$A$2:$A$17</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$B$2:$B$16</f>
+              <f>'70531547'!$B$2:$B$17</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -206,7 +206,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'Sheet1'!C1</f>
+              <f>'70531547'!C1</f>
             </strRef>
           </tx>
           <spPr>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$A$2:$A$16</f>
+              <f>'70531547'!$A$2:$A$17</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$C$2:$C$16</f>
+              <f>'70531547'!$C$2:$C$17</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -249,7 +249,7 @@
           <order val="2"/>
           <tx>
             <strRef>
-              <f>'Sheet1'!D1</f>
+              <f>'70531547'!D1</f>
             </strRef>
           </tx>
           <spPr>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$A$2:$A$16</f>
+              <f>'70531547'!$A$2:$A$17</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$D$2:$D$16</f>
+              <f>'70531547'!$D$2:$D$17</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -292,7 +292,7 @@
           <order val="3"/>
           <tx>
             <strRef>
-              <f>'Sheet1'!E1</f>
+              <f>'70531547'!E1</f>
             </strRef>
           </tx>
           <spPr>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$A$2:$A$16</f>
+              <f>'70531547'!$A$2:$A$17</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$E$2:$E$16</f>
+              <f>'70531547'!$E$2:$E$17</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -335,7 +335,7 @@
           <order val="4"/>
           <tx>
             <strRef>
-              <f>'Sheet1'!F1</f>
+              <f>'70531547'!F1</f>
             </strRef>
           </tx>
           <spPr>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$A$2:$A$16</f>
+              <f>'70531547'!$A$2:$A$17</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$F$2:$F$16</f>
+              <f>'70531547'!$F$2:$F$17</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -378,7 +378,7 @@
           <order val="5"/>
           <tx>
             <strRef>
-              <f>'Sheet1'!G1</f>
+              <f>'70531547'!G1</f>
             </strRef>
           </tx>
           <spPr>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$A$2:$A$16</f>
+              <f>'70531547'!$A$2:$A$17</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$G$2:$G$16</f>
+              <f>'70531547'!$G$2:$G$17</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -421,7 +421,7 @@
           <order val="6"/>
           <tx>
             <strRef>
-              <f>'Sheet1'!H1</f>
+              <f>'70531547'!H1</f>
             </strRef>
           </tx>
           <spPr>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$A$2:$A$16</f>
+              <f>'70531547'!$A$2:$A$17</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$H$2:$H$16</f>
+              <f>'70531547'!$H$2:$H$17</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -464,7 +464,7 @@
           <order val="7"/>
           <tx>
             <strRef>
-              <f>'Sheet1'!I1</f>
+              <f>'70531547'!I1</f>
             </strRef>
           </tx>
           <spPr>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$A$2:$A$16</f>
+              <f>'70531547'!$A$2:$A$17</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$I$2:$I$16</f>
+              <f>'70531547'!$I$2:$I$17</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -507,7 +507,7 @@
           <order val="8"/>
           <tx>
             <strRef>
-              <f>'Sheet1'!J1</f>
+              <f>'70531547'!J1</f>
             </strRef>
           </tx>
           <spPr>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$A$2:$A$16</f>
+              <f>'70531547'!$A$2:$A$17</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$J$2:$J$16</f>
+              <f>'70531547'!$J$2:$J$17</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -550,7 +550,7 @@
           <order val="9"/>
           <tx>
             <strRef>
-              <f>'Sheet1'!K1</f>
+              <f>'70531547'!K1</f>
             </strRef>
           </tx>
           <spPr>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$A$2:$A$16</f>
+              <f>'70531547'!$A$2:$A$17</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$K$2:$K$16</f>
+              <f>'70531547'!$K$2:$K$17</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -593,7 +593,7 @@
           <order val="10"/>
           <tx>
             <strRef>
-              <f>'Sheet1'!L1</f>
+              <f>'70531547'!L1</f>
             </strRef>
           </tx>
           <spPr>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$A$2:$A$16</f>
+              <f>'70531547'!$A$2:$A$17</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$L$2:$L$16</f>
+              <f>'70531547'!$L$2:$L$17</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -636,7 +636,7 @@
           <order val="11"/>
           <tx>
             <strRef>
-              <f>'Sheet1'!M1</f>
+              <f>'70531547'!M1</f>
             </strRef>
           </tx>
           <spPr>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$A$2:$A$16</f>
+              <f>'70531547'!$A$2:$A$17</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$M$2:$M$16</f>
+              <f>'70531547'!$M$2:$M$17</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -679,7 +679,7 @@
           <order val="12"/>
           <tx>
             <strRef>
-              <f>'Sheet1'!N1</f>
+              <f>'70531547'!N1</f>
             </strRef>
           </tx>
           <spPr>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet1'!$A$2:$A$16</f>
+              <f>'70531547'!$A$2:$A$17</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$N$2:$N$16</f>
+              <f>'70531547'!$N$2:$N$17</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -786,7 +786,7 @@
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>7</col>
+      <col>14</col>
       <colOff>0</colOff>
       <row>4</row>
       <rowOff>0</rowOff>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1778,6 +1778,46 @@
         <v>1213230</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-01-01 17:01</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1213230</v>
+      </c>
+      <c r="N17" t="n">
+        <v>963000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$17</f>
+              <f>'70531547'!$A$2:$A$18</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$17</f>
+              <f>'70531547'!$B$2:$B$18</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$17</f>
+              <f>'70531547'!$A$2:$A$18</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$17</f>
+              <f>'70531547'!$C$2:$C$18</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$17</f>
+              <f>'70531547'!$A$2:$A$18</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$17</f>
+              <f>'70531547'!$D$2:$D$18</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$17</f>
+              <f>'70531547'!$A$2:$A$18</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$17</f>
+              <f>'70531547'!$E$2:$E$18</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$17</f>
+              <f>'70531547'!$A$2:$A$18</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$17</f>
+              <f>'70531547'!$F$2:$F$18</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$17</f>
+              <f>'70531547'!$A$2:$A$18</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$17</f>
+              <f>'70531547'!$G$2:$G$18</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$17</f>
+              <f>'70531547'!$A$2:$A$18</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$17</f>
+              <f>'70531547'!$H$2:$H$18</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$17</f>
+              <f>'70531547'!$A$2:$A$18</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$17</f>
+              <f>'70531547'!$I$2:$I$18</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$17</f>
+              <f>'70531547'!$A$2:$A$18</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$17</f>
+              <f>'70531547'!$J$2:$J$18</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$17</f>
+              <f>'70531547'!$A$2:$A$18</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$17</f>
+              <f>'70531547'!$K$2:$K$18</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$17</f>
+              <f>'70531547'!$A$2:$A$18</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$17</f>
+              <f>'70531547'!$L$2:$L$18</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$17</f>
+              <f>'70531547'!$A$2:$A$18</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$17</f>
+              <f>'70531547'!$M$2:$M$18</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$17</f>
+              <f>'70531547'!$A$2:$A$18</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$17</f>
+              <f>'70531547'!$N$2:$N$18</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1818,6 +1818,46 @@
         <v>963000</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-01-01 17:10</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1213230</v>
+      </c>
+      <c r="N18" t="n">
+        <v>963000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$18</f>
+              <f>'70531547'!$A$2:$A$19</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$18</f>
+              <f>'70531547'!$B$2:$B$19</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$18</f>
+              <f>'70531547'!$A$2:$A$19</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$18</f>
+              <f>'70531547'!$C$2:$C$19</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$18</f>
+              <f>'70531547'!$A$2:$A$19</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$18</f>
+              <f>'70531547'!$D$2:$D$19</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$18</f>
+              <f>'70531547'!$A$2:$A$19</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$18</f>
+              <f>'70531547'!$E$2:$E$19</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$18</f>
+              <f>'70531547'!$A$2:$A$19</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$18</f>
+              <f>'70531547'!$F$2:$F$19</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$18</f>
+              <f>'70531547'!$A$2:$A$19</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$18</f>
+              <f>'70531547'!$G$2:$G$19</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$18</f>
+              <f>'70531547'!$A$2:$A$19</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$18</f>
+              <f>'70531547'!$H$2:$H$19</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$18</f>
+              <f>'70531547'!$A$2:$A$19</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$18</f>
+              <f>'70531547'!$I$2:$I$19</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$18</f>
+              <f>'70531547'!$A$2:$A$19</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$18</f>
+              <f>'70531547'!$J$2:$J$19</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$18</f>
+              <f>'70531547'!$A$2:$A$19</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$18</f>
+              <f>'70531547'!$K$2:$K$19</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$18</f>
+              <f>'70531547'!$A$2:$A$19</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$18</f>
+              <f>'70531547'!$L$2:$L$19</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$18</f>
+              <f>'70531547'!$A$2:$A$19</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$18</f>
+              <f>'70531547'!$M$2:$M$19</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$18</f>
+              <f>'70531547'!$A$2:$A$19</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$18</f>
+              <f>'70531547'!$N$2:$N$19</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1858,6 +1858,46 @@
         <v>963000</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-01-01 17:30</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>963000</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1213230</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$19</f>
+              <f>'70531547'!$A$2:$A$20</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$19</f>
+              <f>'70531547'!$B$2:$B$20</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$19</f>
+              <f>'70531547'!$A$2:$A$20</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$19</f>
+              <f>'70531547'!$C$2:$C$20</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$19</f>
+              <f>'70531547'!$A$2:$A$20</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$19</f>
+              <f>'70531547'!$D$2:$D$20</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$19</f>
+              <f>'70531547'!$A$2:$A$20</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$19</f>
+              <f>'70531547'!$E$2:$E$20</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$19</f>
+              <f>'70531547'!$A$2:$A$20</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$19</f>
+              <f>'70531547'!$F$2:$F$20</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$19</f>
+              <f>'70531547'!$A$2:$A$20</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$19</f>
+              <f>'70531547'!$G$2:$G$20</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$19</f>
+              <f>'70531547'!$A$2:$A$20</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$19</f>
+              <f>'70531547'!$H$2:$H$20</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$19</f>
+              <f>'70531547'!$A$2:$A$20</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$19</f>
+              <f>'70531547'!$I$2:$I$20</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$19</f>
+              <f>'70531547'!$A$2:$A$20</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$19</f>
+              <f>'70531547'!$J$2:$J$20</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$19</f>
+              <f>'70531547'!$A$2:$A$20</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$19</f>
+              <f>'70531547'!$K$2:$K$20</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$19</f>
+              <f>'70531547'!$A$2:$A$20</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$19</f>
+              <f>'70531547'!$L$2:$L$20</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$19</f>
+              <f>'70531547'!$A$2:$A$20</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$19</f>
+              <f>'70531547'!$M$2:$M$20</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$19</f>
+              <f>'70531547'!$A$2:$A$20</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$19</f>
+              <f>'70531547'!$N$2:$N$20</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1898,6 +1898,46 @@
         <v>1213230</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-01-01 17:36</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>963000</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1213230</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$20</f>
+              <f>'70531547'!$A$2:$A$21</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$20</f>
+              <f>'70531547'!$B$2:$B$21</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$20</f>
+              <f>'70531547'!$A$2:$A$21</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$20</f>
+              <f>'70531547'!$C$2:$C$21</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$20</f>
+              <f>'70531547'!$A$2:$A$21</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$20</f>
+              <f>'70531547'!$D$2:$D$21</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$20</f>
+              <f>'70531547'!$A$2:$A$21</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$20</f>
+              <f>'70531547'!$E$2:$E$21</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$20</f>
+              <f>'70531547'!$A$2:$A$21</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$20</f>
+              <f>'70531547'!$F$2:$F$21</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$20</f>
+              <f>'70531547'!$A$2:$A$21</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$20</f>
+              <f>'70531547'!$G$2:$G$21</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$20</f>
+              <f>'70531547'!$A$2:$A$21</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$20</f>
+              <f>'70531547'!$H$2:$H$21</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$20</f>
+              <f>'70531547'!$A$2:$A$21</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$20</f>
+              <f>'70531547'!$I$2:$I$21</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$20</f>
+              <f>'70531547'!$A$2:$A$21</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$20</f>
+              <f>'70531547'!$J$2:$J$21</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$20</f>
+              <f>'70531547'!$A$2:$A$21</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$20</f>
+              <f>'70531547'!$K$2:$K$21</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$20</f>
+              <f>'70531547'!$A$2:$A$21</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$20</f>
+              <f>'70531547'!$L$2:$L$21</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$20</f>
+              <f>'70531547'!$A$2:$A$21</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$20</f>
+              <f>'70531547'!$M$2:$M$21</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$20</f>
+              <f>'70531547'!$A$2:$A$21</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$20</f>
+              <f>'70531547'!$N$2:$N$21</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1938,6 +1938,46 @@
         <v>1213230</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-01-01 17:43</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1213230</v>
+      </c>
+      <c r="N21" t="n">
+        <v>963000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$21</f>
+              <f>'70531547'!$A$2:$A$22</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$21</f>
+              <f>'70531547'!$B$2:$B$22</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$21</f>
+              <f>'70531547'!$A$2:$A$22</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$21</f>
+              <f>'70531547'!$C$2:$C$22</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$21</f>
+              <f>'70531547'!$A$2:$A$22</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$21</f>
+              <f>'70531547'!$D$2:$D$22</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$21</f>
+              <f>'70531547'!$A$2:$A$22</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$21</f>
+              <f>'70531547'!$E$2:$E$22</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$21</f>
+              <f>'70531547'!$A$2:$A$22</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$21</f>
+              <f>'70531547'!$F$2:$F$22</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$21</f>
+              <f>'70531547'!$A$2:$A$22</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$21</f>
+              <f>'70531547'!$G$2:$G$22</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$21</f>
+              <f>'70531547'!$A$2:$A$22</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$21</f>
+              <f>'70531547'!$H$2:$H$22</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$21</f>
+              <f>'70531547'!$A$2:$A$22</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$21</f>
+              <f>'70531547'!$I$2:$I$22</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$21</f>
+              <f>'70531547'!$A$2:$A$22</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$21</f>
+              <f>'70531547'!$J$2:$J$22</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$21</f>
+              <f>'70531547'!$A$2:$A$22</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$21</f>
+              <f>'70531547'!$K$2:$K$22</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$21</f>
+              <f>'70531547'!$A$2:$A$22</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$21</f>
+              <f>'70531547'!$L$2:$L$22</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$21</f>
+              <f>'70531547'!$A$2:$A$22</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$21</f>
+              <f>'70531547'!$M$2:$M$22</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$21</f>
+              <f>'70531547'!$A$2:$A$22</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$21</f>
+              <f>'70531547'!$N$2:$N$22</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1978,6 +1978,46 @@
         <v>963000</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-01-01 17:46</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>963000</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1213230</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$22</f>
+              <f>'70531547'!$A$2:$A$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$22</f>
+              <f>'70531547'!$B$2:$B$23</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$22</f>
+              <f>'70531547'!$A$2:$A$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$22</f>
+              <f>'70531547'!$C$2:$C$23</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$22</f>
+              <f>'70531547'!$A$2:$A$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$22</f>
+              <f>'70531547'!$D$2:$D$23</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$22</f>
+              <f>'70531547'!$A$2:$A$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$22</f>
+              <f>'70531547'!$E$2:$E$23</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$22</f>
+              <f>'70531547'!$A$2:$A$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$22</f>
+              <f>'70531547'!$F$2:$F$23</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$22</f>
+              <f>'70531547'!$A$2:$A$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$22</f>
+              <f>'70531547'!$G$2:$G$23</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$22</f>
+              <f>'70531547'!$A$2:$A$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$22</f>
+              <f>'70531547'!$H$2:$H$23</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$22</f>
+              <f>'70531547'!$A$2:$A$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$22</f>
+              <f>'70531547'!$I$2:$I$23</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$22</f>
+              <f>'70531547'!$A$2:$A$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$22</f>
+              <f>'70531547'!$J$2:$J$23</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$22</f>
+              <f>'70531547'!$A$2:$A$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$22</f>
+              <f>'70531547'!$K$2:$K$23</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$22</f>
+              <f>'70531547'!$A$2:$A$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$22</f>
+              <f>'70531547'!$L$2:$L$23</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$22</f>
+              <f>'70531547'!$A$2:$A$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$22</f>
+              <f>'70531547'!$M$2:$M$23</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$22</f>
+              <f>'70531547'!$A$2:$A$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$22</f>
+              <f>'70531547'!$N$2:$N$23</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2018,6 +2018,46 @@
         <v>1213230</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-01-01 17:57</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>963000</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1213230</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$23</f>
+              <f>'70531547'!$A$2:$A$24</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$23</f>
+              <f>'70531547'!$B$2:$B$24</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$23</f>
+              <f>'70531547'!$A$2:$A$24</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$23</f>
+              <f>'70531547'!$C$2:$C$24</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$23</f>
+              <f>'70531547'!$A$2:$A$24</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$23</f>
+              <f>'70531547'!$D$2:$D$24</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$23</f>
+              <f>'70531547'!$A$2:$A$24</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$23</f>
+              <f>'70531547'!$E$2:$E$24</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$23</f>
+              <f>'70531547'!$A$2:$A$24</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$23</f>
+              <f>'70531547'!$F$2:$F$24</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$23</f>
+              <f>'70531547'!$A$2:$A$24</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$23</f>
+              <f>'70531547'!$G$2:$G$24</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$23</f>
+              <f>'70531547'!$A$2:$A$24</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$23</f>
+              <f>'70531547'!$H$2:$H$24</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$23</f>
+              <f>'70531547'!$A$2:$A$24</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$23</f>
+              <f>'70531547'!$I$2:$I$24</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$23</f>
+              <f>'70531547'!$A$2:$A$24</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$23</f>
+              <f>'70531547'!$J$2:$J$24</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$23</f>
+              <f>'70531547'!$A$2:$A$24</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$23</f>
+              <f>'70531547'!$K$2:$K$24</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$23</f>
+              <f>'70531547'!$A$2:$A$24</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$23</f>
+              <f>'70531547'!$L$2:$L$24</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$23</f>
+              <f>'70531547'!$A$2:$A$24</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$23</f>
+              <f>'70531547'!$M$2:$M$24</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$23</f>
+              <f>'70531547'!$A$2:$A$24</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$23</f>
+              <f>'70531547'!$N$2:$N$24</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2058,6 +2058,46 @@
         <v>1213230</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-01-01 18:04</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>963000</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1213230</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$24</f>
+              <f>'70531547'!$A$2:$A$25</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$24</f>
+              <f>'70531547'!$B$2:$B$25</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$24</f>
+              <f>'70531547'!$A$2:$A$25</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$24</f>
+              <f>'70531547'!$C$2:$C$25</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$24</f>
+              <f>'70531547'!$A$2:$A$25</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$24</f>
+              <f>'70531547'!$D$2:$D$25</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$24</f>
+              <f>'70531547'!$A$2:$A$25</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$24</f>
+              <f>'70531547'!$E$2:$E$25</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$24</f>
+              <f>'70531547'!$A$2:$A$25</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$24</f>
+              <f>'70531547'!$F$2:$F$25</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$24</f>
+              <f>'70531547'!$A$2:$A$25</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$24</f>
+              <f>'70531547'!$G$2:$G$25</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$24</f>
+              <f>'70531547'!$A$2:$A$25</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$24</f>
+              <f>'70531547'!$H$2:$H$25</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$24</f>
+              <f>'70531547'!$A$2:$A$25</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$24</f>
+              <f>'70531547'!$I$2:$I$25</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$24</f>
+              <f>'70531547'!$A$2:$A$25</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$24</f>
+              <f>'70531547'!$J$2:$J$25</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$24</f>
+              <f>'70531547'!$A$2:$A$25</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$24</f>
+              <f>'70531547'!$K$2:$K$25</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$24</f>
+              <f>'70531547'!$A$2:$A$25</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$24</f>
+              <f>'70531547'!$L$2:$L$25</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$24</f>
+              <f>'70531547'!$A$2:$A$25</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$24</f>
+              <f>'70531547'!$M$2:$M$25</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$24</f>
+              <f>'70531547'!$A$2:$A$25</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$24</f>
+              <f>'70531547'!$N$2:$N$25</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2098,6 +2098,46 @@
         <v>1213230</v>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-01-01 18:17</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>963000</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1213230</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$25</f>
+              <f>'70531547'!$A$2:$A$26</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$25</f>
+              <f>'70531547'!$B$2:$B$26</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$25</f>
+              <f>'70531547'!$A$2:$A$26</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$25</f>
+              <f>'70531547'!$C$2:$C$26</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$25</f>
+              <f>'70531547'!$A$2:$A$26</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$25</f>
+              <f>'70531547'!$D$2:$D$26</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$25</f>
+              <f>'70531547'!$A$2:$A$26</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$25</f>
+              <f>'70531547'!$E$2:$E$26</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$25</f>
+              <f>'70531547'!$A$2:$A$26</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$25</f>
+              <f>'70531547'!$F$2:$F$26</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$25</f>
+              <f>'70531547'!$A$2:$A$26</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$25</f>
+              <f>'70531547'!$G$2:$G$26</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$25</f>
+              <f>'70531547'!$A$2:$A$26</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$25</f>
+              <f>'70531547'!$H$2:$H$26</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$25</f>
+              <f>'70531547'!$A$2:$A$26</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$25</f>
+              <f>'70531547'!$I$2:$I$26</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$25</f>
+              <f>'70531547'!$A$2:$A$26</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$25</f>
+              <f>'70531547'!$J$2:$J$26</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$25</f>
+              <f>'70531547'!$A$2:$A$26</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$25</f>
+              <f>'70531547'!$K$2:$K$26</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$25</f>
+              <f>'70531547'!$A$2:$A$26</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$25</f>
+              <f>'70531547'!$L$2:$L$26</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$25</f>
+              <f>'70531547'!$A$2:$A$26</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$25</f>
+              <f>'70531547'!$M$2:$M$26</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$25</f>
+              <f>'70531547'!$A$2:$A$26</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$25</f>
+              <f>'70531547'!$N$2:$N$26</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2138,6 +2138,46 @@
         <v>1213230</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-01-01 18:28</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>963000</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1213230</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$26</f>
+              <f>'70531547'!$A$2:$A$27</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$26</f>
+              <f>'70531547'!$B$2:$B$27</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$26</f>
+              <f>'70531547'!$A$2:$A$27</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$26</f>
+              <f>'70531547'!$C$2:$C$27</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$26</f>
+              <f>'70531547'!$A$2:$A$27</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$26</f>
+              <f>'70531547'!$D$2:$D$27</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$26</f>
+              <f>'70531547'!$A$2:$A$27</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$26</f>
+              <f>'70531547'!$E$2:$E$27</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$26</f>
+              <f>'70531547'!$A$2:$A$27</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$26</f>
+              <f>'70531547'!$F$2:$F$27</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$26</f>
+              <f>'70531547'!$A$2:$A$27</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$26</f>
+              <f>'70531547'!$G$2:$G$27</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$26</f>
+              <f>'70531547'!$A$2:$A$27</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$26</f>
+              <f>'70531547'!$H$2:$H$27</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$26</f>
+              <f>'70531547'!$A$2:$A$27</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$26</f>
+              <f>'70531547'!$I$2:$I$27</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$26</f>
+              <f>'70531547'!$A$2:$A$27</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$26</f>
+              <f>'70531547'!$J$2:$J$27</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$26</f>
+              <f>'70531547'!$A$2:$A$27</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$26</f>
+              <f>'70531547'!$K$2:$K$27</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$26</f>
+              <f>'70531547'!$A$2:$A$27</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$26</f>
+              <f>'70531547'!$L$2:$L$27</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$26</f>
+              <f>'70531547'!$A$2:$A$27</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$26</f>
+              <f>'70531547'!$M$2:$M$27</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$26</f>
+              <f>'70531547'!$A$2:$A$27</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$26</f>
+              <f>'70531547'!$N$2:$N$27</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2178,6 +2178,46 @@
         <v>1213230</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-01-01 18:37</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1213230</v>
+      </c>
+      <c r="N27" t="n">
+        <v>963000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$27</f>
+              <f>'70531547'!$A$2:$A$28</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$27</f>
+              <f>'70531547'!$B$2:$B$28</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$27</f>
+              <f>'70531547'!$A$2:$A$28</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$27</f>
+              <f>'70531547'!$C$2:$C$28</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$27</f>
+              <f>'70531547'!$A$2:$A$28</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$27</f>
+              <f>'70531547'!$D$2:$D$28</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$27</f>
+              <f>'70531547'!$A$2:$A$28</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$27</f>
+              <f>'70531547'!$E$2:$E$28</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$27</f>
+              <f>'70531547'!$A$2:$A$28</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$27</f>
+              <f>'70531547'!$F$2:$F$28</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$27</f>
+              <f>'70531547'!$A$2:$A$28</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$27</f>
+              <f>'70531547'!$G$2:$G$28</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$27</f>
+              <f>'70531547'!$A$2:$A$28</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$27</f>
+              <f>'70531547'!$H$2:$H$28</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$27</f>
+              <f>'70531547'!$A$2:$A$28</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$27</f>
+              <f>'70531547'!$I$2:$I$28</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$27</f>
+              <f>'70531547'!$A$2:$A$28</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$27</f>
+              <f>'70531547'!$J$2:$J$28</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$27</f>
+              <f>'70531547'!$A$2:$A$28</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$27</f>
+              <f>'70531547'!$K$2:$K$28</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$27</f>
+              <f>'70531547'!$A$2:$A$28</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$27</f>
+              <f>'70531547'!$L$2:$L$28</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$27</f>
+              <f>'70531547'!$A$2:$A$28</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$27</f>
+              <f>'70531547'!$M$2:$M$28</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$27</f>
+              <f>'70531547'!$A$2:$A$28</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$27</f>
+              <f>'70531547'!$N$2:$N$28</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2218,6 +2218,46 @@
         <v>963000</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-01-01 18:44</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>963000</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1213230</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$28</f>
+              <f>'70531547'!$A$2:$A$29</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$28</f>
+              <f>'70531547'!$B$2:$B$29</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$28</f>
+              <f>'70531547'!$A$2:$A$29</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$28</f>
+              <f>'70531547'!$C$2:$C$29</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$28</f>
+              <f>'70531547'!$A$2:$A$29</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$28</f>
+              <f>'70531547'!$D$2:$D$29</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$28</f>
+              <f>'70531547'!$A$2:$A$29</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$28</f>
+              <f>'70531547'!$E$2:$E$29</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$28</f>
+              <f>'70531547'!$A$2:$A$29</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$28</f>
+              <f>'70531547'!$F$2:$F$29</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$28</f>
+              <f>'70531547'!$A$2:$A$29</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$28</f>
+              <f>'70531547'!$G$2:$G$29</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$28</f>
+              <f>'70531547'!$A$2:$A$29</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$28</f>
+              <f>'70531547'!$H$2:$H$29</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$28</f>
+              <f>'70531547'!$A$2:$A$29</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$28</f>
+              <f>'70531547'!$I$2:$I$29</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$28</f>
+              <f>'70531547'!$A$2:$A$29</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$28</f>
+              <f>'70531547'!$J$2:$J$29</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$28</f>
+              <f>'70531547'!$A$2:$A$29</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$28</f>
+              <f>'70531547'!$K$2:$K$29</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$28</f>
+              <f>'70531547'!$A$2:$A$29</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$28</f>
+              <f>'70531547'!$L$2:$L$29</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$28</f>
+              <f>'70531547'!$A$2:$A$29</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$28</f>
+              <f>'70531547'!$M$2:$M$29</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$28</f>
+              <f>'70531547'!$A$2:$A$29</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$28</f>
+              <f>'70531547'!$N$2:$N$29</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2258,6 +2258,46 @@
         <v>1213230</v>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-01-01 18:53</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1213230</v>
+      </c>
+      <c r="N29" t="n">
+        <v>963000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$29</f>
+              <f>'70531547'!$A$2:$A$30</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$29</f>
+              <f>'70531547'!$B$2:$B$30</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$29</f>
+              <f>'70531547'!$A$2:$A$30</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$29</f>
+              <f>'70531547'!$C$2:$C$30</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$29</f>
+              <f>'70531547'!$A$2:$A$30</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$29</f>
+              <f>'70531547'!$D$2:$D$30</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$29</f>
+              <f>'70531547'!$A$2:$A$30</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$29</f>
+              <f>'70531547'!$E$2:$E$30</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$29</f>
+              <f>'70531547'!$A$2:$A$30</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$29</f>
+              <f>'70531547'!$F$2:$F$30</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$29</f>
+              <f>'70531547'!$A$2:$A$30</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$29</f>
+              <f>'70531547'!$G$2:$G$30</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$29</f>
+              <f>'70531547'!$A$2:$A$30</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$29</f>
+              <f>'70531547'!$H$2:$H$30</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$29</f>
+              <f>'70531547'!$A$2:$A$30</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$29</f>
+              <f>'70531547'!$I$2:$I$30</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$29</f>
+              <f>'70531547'!$A$2:$A$30</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$29</f>
+              <f>'70531547'!$J$2:$J$30</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$29</f>
+              <f>'70531547'!$A$2:$A$30</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$29</f>
+              <f>'70531547'!$K$2:$K$30</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$29</f>
+              <f>'70531547'!$A$2:$A$30</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$29</f>
+              <f>'70531547'!$L$2:$L$30</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$29</f>
+              <f>'70531547'!$A$2:$A$30</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$29</f>
+              <f>'70531547'!$M$2:$M$30</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$29</f>
+              <f>'70531547'!$A$2:$A$30</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$29</f>
+              <f>'70531547'!$N$2:$N$30</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2298,6 +2298,46 @@
         <v>963000</v>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-01-01 19:02</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K30" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1213230</v>
+      </c>
+      <c r="N30" t="n">
+        <v>963000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$30</f>
+              <f>'70531547'!$A$2:$A$31</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$30</f>
+              <f>'70531547'!$B$2:$B$31</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$30</f>
+              <f>'70531547'!$A$2:$A$31</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$30</f>
+              <f>'70531547'!$C$2:$C$31</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$30</f>
+              <f>'70531547'!$A$2:$A$31</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$30</f>
+              <f>'70531547'!$D$2:$D$31</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$30</f>
+              <f>'70531547'!$A$2:$A$31</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$30</f>
+              <f>'70531547'!$E$2:$E$31</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$30</f>
+              <f>'70531547'!$A$2:$A$31</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$30</f>
+              <f>'70531547'!$F$2:$F$31</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$30</f>
+              <f>'70531547'!$A$2:$A$31</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$30</f>
+              <f>'70531547'!$G$2:$G$31</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$30</f>
+              <f>'70531547'!$A$2:$A$31</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$30</f>
+              <f>'70531547'!$H$2:$H$31</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$30</f>
+              <f>'70531547'!$A$2:$A$31</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$30</f>
+              <f>'70531547'!$I$2:$I$31</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$30</f>
+              <f>'70531547'!$A$2:$A$31</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$30</f>
+              <f>'70531547'!$J$2:$J$31</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$30</f>
+              <f>'70531547'!$A$2:$A$31</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$30</f>
+              <f>'70531547'!$K$2:$K$31</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$30</f>
+              <f>'70531547'!$A$2:$A$31</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$30</f>
+              <f>'70531547'!$L$2:$L$31</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$30</f>
+              <f>'70531547'!$A$2:$A$31</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$30</f>
+              <f>'70531547'!$M$2:$M$31</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$30</f>
+              <f>'70531547'!$A$2:$A$31</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$30</f>
+              <f>'70531547'!$N$2:$N$31</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2338,6 +2338,46 @@
         <v>963000</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-01-01 19:12</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1213230</v>
+      </c>
+      <c r="N31" t="n">
+        <v>963000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$31</f>
+              <f>'70531547'!$A$2:$A$32</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$31</f>
+              <f>'70531547'!$B$2:$B$32</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$31</f>
+              <f>'70531547'!$A$2:$A$32</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$31</f>
+              <f>'70531547'!$C$2:$C$32</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$31</f>
+              <f>'70531547'!$A$2:$A$32</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$31</f>
+              <f>'70531547'!$D$2:$D$32</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$31</f>
+              <f>'70531547'!$A$2:$A$32</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$31</f>
+              <f>'70531547'!$E$2:$E$32</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$31</f>
+              <f>'70531547'!$A$2:$A$32</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$31</f>
+              <f>'70531547'!$F$2:$F$32</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$31</f>
+              <f>'70531547'!$A$2:$A$32</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$31</f>
+              <f>'70531547'!$G$2:$G$32</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$31</f>
+              <f>'70531547'!$A$2:$A$32</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$31</f>
+              <f>'70531547'!$H$2:$H$32</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$31</f>
+              <f>'70531547'!$A$2:$A$32</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$31</f>
+              <f>'70531547'!$I$2:$I$32</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$31</f>
+              <f>'70531547'!$A$2:$A$32</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$31</f>
+              <f>'70531547'!$J$2:$J$32</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$31</f>
+              <f>'70531547'!$A$2:$A$32</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$31</f>
+              <f>'70531547'!$K$2:$K$32</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$31</f>
+              <f>'70531547'!$A$2:$A$32</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$31</f>
+              <f>'70531547'!$L$2:$L$32</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$31</f>
+              <f>'70531547'!$A$2:$A$32</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$31</f>
+              <f>'70531547'!$M$2:$M$32</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$31</f>
+              <f>'70531547'!$A$2:$A$32</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$31</f>
+              <f>'70531547'!$N$2:$N$32</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2378,6 +2378,46 @@
         <v>963000</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-01-01 19:15</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1213230</v>
+      </c>
+      <c r="N32" t="n">
+        <v>963000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$32</f>
+              <f>'70531547'!$A$2:$A$33</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$32</f>
+              <f>'70531547'!$B$2:$B$33</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$32</f>
+              <f>'70531547'!$A$2:$A$33</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$32</f>
+              <f>'70531547'!$C$2:$C$33</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$32</f>
+              <f>'70531547'!$A$2:$A$33</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$32</f>
+              <f>'70531547'!$D$2:$D$33</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$32</f>
+              <f>'70531547'!$A$2:$A$33</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$32</f>
+              <f>'70531547'!$E$2:$E$33</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$32</f>
+              <f>'70531547'!$A$2:$A$33</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$32</f>
+              <f>'70531547'!$F$2:$F$33</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$32</f>
+              <f>'70531547'!$A$2:$A$33</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$32</f>
+              <f>'70531547'!$G$2:$G$33</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$32</f>
+              <f>'70531547'!$A$2:$A$33</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$32</f>
+              <f>'70531547'!$H$2:$H$33</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$32</f>
+              <f>'70531547'!$A$2:$A$33</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$32</f>
+              <f>'70531547'!$I$2:$I$33</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$32</f>
+              <f>'70531547'!$A$2:$A$33</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$32</f>
+              <f>'70531547'!$J$2:$J$33</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$32</f>
+              <f>'70531547'!$A$2:$A$33</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$32</f>
+              <f>'70531547'!$K$2:$K$33</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$32</f>
+              <f>'70531547'!$A$2:$A$33</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$32</f>
+              <f>'70531547'!$L$2:$L$33</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$32</f>
+              <f>'70531547'!$A$2:$A$33</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$32</f>
+              <f>'70531547'!$M$2:$M$33</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$32</f>
+              <f>'70531547'!$A$2:$A$33</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$32</f>
+              <f>'70531547'!$N$2:$N$33</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2418,6 +2418,46 @@
         <v>963000</v>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-01-01 19:28</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1213230</v>
+      </c>
+      <c r="N33" t="n">
+        <v>963000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$33</f>
+              <f>'70531547'!$A$2:$A$34</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$33</f>
+              <f>'70531547'!$B$2:$B$34</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$33</f>
+              <f>'70531547'!$A$2:$A$34</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$33</f>
+              <f>'70531547'!$C$2:$C$34</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$33</f>
+              <f>'70531547'!$A$2:$A$34</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$33</f>
+              <f>'70531547'!$D$2:$D$34</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$33</f>
+              <f>'70531547'!$A$2:$A$34</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$33</f>
+              <f>'70531547'!$E$2:$E$34</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$33</f>
+              <f>'70531547'!$A$2:$A$34</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$33</f>
+              <f>'70531547'!$F$2:$F$34</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$33</f>
+              <f>'70531547'!$A$2:$A$34</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$33</f>
+              <f>'70531547'!$G$2:$G$34</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$33</f>
+              <f>'70531547'!$A$2:$A$34</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$33</f>
+              <f>'70531547'!$H$2:$H$34</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$33</f>
+              <f>'70531547'!$A$2:$A$34</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$33</f>
+              <f>'70531547'!$I$2:$I$34</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$33</f>
+              <f>'70531547'!$A$2:$A$34</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$33</f>
+              <f>'70531547'!$J$2:$J$34</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$33</f>
+              <f>'70531547'!$A$2:$A$34</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$33</f>
+              <f>'70531547'!$K$2:$K$34</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$33</f>
+              <f>'70531547'!$A$2:$A$34</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$33</f>
+              <f>'70531547'!$L$2:$L$34</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$33</f>
+              <f>'70531547'!$A$2:$A$34</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$33</f>
+              <f>'70531547'!$M$2:$M$34</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$33</f>
+              <f>'70531547'!$A$2:$A$34</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$33</f>
+              <f>'70531547'!$N$2:$N$34</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2458,6 +2458,46 @@
         <v>963000</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-01-01 19:37</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>963000</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1213230</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$34</f>
+              <f>'70531547'!$A$2:$A$35</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$34</f>
+              <f>'70531547'!$B$2:$B$35</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$34</f>
+              <f>'70531547'!$A$2:$A$35</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$34</f>
+              <f>'70531547'!$C$2:$C$35</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$34</f>
+              <f>'70531547'!$A$2:$A$35</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$34</f>
+              <f>'70531547'!$D$2:$D$35</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$34</f>
+              <f>'70531547'!$A$2:$A$35</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$34</f>
+              <f>'70531547'!$E$2:$E$35</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$34</f>
+              <f>'70531547'!$A$2:$A$35</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$34</f>
+              <f>'70531547'!$F$2:$F$35</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$34</f>
+              <f>'70531547'!$A$2:$A$35</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$34</f>
+              <f>'70531547'!$G$2:$G$35</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$34</f>
+              <f>'70531547'!$A$2:$A$35</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$34</f>
+              <f>'70531547'!$H$2:$H$35</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$34</f>
+              <f>'70531547'!$A$2:$A$35</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$34</f>
+              <f>'70531547'!$I$2:$I$35</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$34</f>
+              <f>'70531547'!$A$2:$A$35</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$34</f>
+              <f>'70531547'!$J$2:$J$35</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$34</f>
+              <f>'70531547'!$A$2:$A$35</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$34</f>
+              <f>'70531547'!$K$2:$K$35</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$34</f>
+              <f>'70531547'!$A$2:$A$35</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$34</f>
+              <f>'70531547'!$L$2:$L$35</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$34</f>
+              <f>'70531547'!$A$2:$A$35</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$34</f>
+              <f>'70531547'!$M$2:$M$35</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$34</f>
+              <f>'70531547'!$A$2:$A$35</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$34</f>
+              <f>'70531547'!$N$2:$N$35</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2498,6 +2498,46 @@
         <v>1213230</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-01-01 19:45</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1213230</v>
+      </c>
+      <c r="N35" t="n">
+        <v>963000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$35</f>
+              <f>'70531547'!$A$2:$A$36</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$35</f>
+              <f>'70531547'!$B$2:$B$36</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$35</f>
+              <f>'70531547'!$A$2:$A$36</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$35</f>
+              <f>'70531547'!$C$2:$C$36</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$35</f>
+              <f>'70531547'!$A$2:$A$36</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$35</f>
+              <f>'70531547'!$D$2:$D$36</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$35</f>
+              <f>'70531547'!$A$2:$A$36</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$35</f>
+              <f>'70531547'!$E$2:$E$36</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$35</f>
+              <f>'70531547'!$A$2:$A$36</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$35</f>
+              <f>'70531547'!$F$2:$F$36</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$35</f>
+              <f>'70531547'!$A$2:$A$36</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$35</f>
+              <f>'70531547'!$G$2:$G$36</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$35</f>
+              <f>'70531547'!$A$2:$A$36</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$35</f>
+              <f>'70531547'!$H$2:$H$36</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$35</f>
+              <f>'70531547'!$A$2:$A$36</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$35</f>
+              <f>'70531547'!$I$2:$I$36</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$35</f>
+              <f>'70531547'!$A$2:$A$36</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$35</f>
+              <f>'70531547'!$J$2:$J$36</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$35</f>
+              <f>'70531547'!$A$2:$A$36</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$35</f>
+              <f>'70531547'!$K$2:$K$36</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$35</f>
+              <f>'70531547'!$A$2:$A$36</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$35</f>
+              <f>'70531547'!$L$2:$L$36</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$35</f>
+              <f>'70531547'!$A$2:$A$36</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$35</f>
+              <f>'70531547'!$M$2:$M$36</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$35</f>
+              <f>'70531547'!$A$2:$A$36</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$35</f>
+              <f>'70531547'!$N$2:$N$36</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2538,6 +2538,46 @@
         <v>963000</v>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-01-01 19:54</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>963000</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1213230</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$36</f>
+              <f>'70531547'!$A$2:$A$37</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$36</f>
+              <f>'70531547'!$B$2:$B$37</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$36</f>
+              <f>'70531547'!$A$2:$A$37</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$36</f>
+              <f>'70531547'!$C$2:$C$37</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$36</f>
+              <f>'70531547'!$A$2:$A$37</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$36</f>
+              <f>'70531547'!$D$2:$D$37</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$36</f>
+              <f>'70531547'!$A$2:$A$37</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$36</f>
+              <f>'70531547'!$E$2:$E$37</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$36</f>
+              <f>'70531547'!$A$2:$A$37</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$36</f>
+              <f>'70531547'!$F$2:$F$37</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$36</f>
+              <f>'70531547'!$A$2:$A$37</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$36</f>
+              <f>'70531547'!$G$2:$G$37</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$36</f>
+              <f>'70531547'!$A$2:$A$37</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$36</f>
+              <f>'70531547'!$H$2:$H$37</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$36</f>
+              <f>'70531547'!$A$2:$A$37</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$36</f>
+              <f>'70531547'!$I$2:$I$37</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$36</f>
+              <f>'70531547'!$A$2:$A$37</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$36</f>
+              <f>'70531547'!$J$2:$J$37</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$36</f>
+              <f>'70531547'!$A$2:$A$37</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$36</f>
+              <f>'70531547'!$K$2:$K$37</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$36</f>
+              <f>'70531547'!$A$2:$A$37</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$36</f>
+              <f>'70531547'!$L$2:$L$37</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$36</f>
+              <f>'70531547'!$A$2:$A$37</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$36</f>
+              <f>'70531547'!$M$2:$M$37</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$36</f>
+              <f>'70531547'!$A$2:$A$37</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$36</f>
+              <f>'70531547'!$N$2:$N$37</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2578,6 +2578,46 @@
         <v>1213230</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-01-01 20:04</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>963000</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K37" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1213230</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$37</f>
+              <f>'70531547'!$A$2:$A$38</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$37</f>
+              <f>'70531547'!$B$2:$B$38</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$37</f>
+              <f>'70531547'!$A$2:$A$38</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$37</f>
+              <f>'70531547'!$C$2:$C$38</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$37</f>
+              <f>'70531547'!$A$2:$A$38</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$37</f>
+              <f>'70531547'!$D$2:$D$38</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$37</f>
+              <f>'70531547'!$A$2:$A$38</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$37</f>
+              <f>'70531547'!$E$2:$E$38</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$37</f>
+              <f>'70531547'!$A$2:$A$38</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$37</f>
+              <f>'70531547'!$F$2:$F$38</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$37</f>
+              <f>'70531547'!$A$2:$A$38</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$37</f>
+              <f>'70531547'!$G$2:$G$38</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$37</f>
+              <f>'70531547'!$A$2:$A$38</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$37</f>
+              <f>'70531547'!$H$2:$H$38</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$37</f>
+              <f>'70531547'!$A$2:$A$38</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$37</f>
+              <f>'70531547'!$I$2:$I$38</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$37</f>
+              <f>'70531547'!$A$2:$A$38</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$37</f>
+              <f>'70531547'!$J$2:$J$38</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$37</f>
+              <f>'70531547'!$A$2:$A$38</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$37</f>
+              <f>'70531547'!$K$2:$K$38</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$37</f>
+              <f>'70531547'!$A$2:$A$38</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$37</f>
+              <f>'70531547'!$L$2:$L$38</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$37</f>
+              <f>'70531547'!$A$2:$A$38</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$37</f>
+              <f>'70531547'!$M$2:$M$38</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$37</f>
+              <f>'70531547'!$A$2:$A$38</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$37</f>
+              <f>'70531547'!$N$2:$N$38</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2618,6 +2618,46 @@
         <v>1213230</v>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-01-01 20:14</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>963000</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1213230</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$38</f>
+              <f>'70531547'!$A$2:$A$39</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$38</f>
+              <f>'70531547'!$B$2:$B$39</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$38</f>
+              <f>'70531547'!$A$2:$A$39</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$38</f>
+              <f>'70531547'!$C$2:$C$39</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$38</f>
+              <f>'70531547'!$A$2:$A$39</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$38</f>
+              <f>'70531547'!$D$2:$D$39</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$38</f>
+              <f>'70531547'!$A$2:$A$39</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$38</f>
+              <f>'70531547'!$E$2:$E$39</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$38</f>
+              <f>'70531547'!$A$2:$A$39</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$38</f>
+              <f>'70531547'!$F$2:$F$39</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$38</f>
+              <f>'70531547'!$A$2:$A$39</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$38</f>
+              <f>'70531547'!$G$2:$G$39</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$38</f>
+              <f>'70531547'!$A$2:$A$39</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$38</f>
+              <f>'70531547'!$H$2:$H$39</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$38</f>
+              <f>'70531547'!$A$2:$A$39</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$38</f>
+              <f>'70531547'!$I$2:$I$39</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$38</f>
+              <f>'70531547'!$A$2:$A$39</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$38</f>
+              <f>'70531547'!$J$2:$J$39</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$38</f>
+              <f>'70531547'!$A$2:$A$39</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$38</f>
+              <f>'70531547'!$K$2:$K$39</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$38</f>
+              <f>'70531547'!$A$2:$A$39</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$38</f>
+              <f>'70531547'!$L$2:$L$39</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$38</f>
+              <f>'70531547'!$A$2:$A$39</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$38</f>
+              <f>'70531547'!$M$2:$M$39</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$38</f>
+              <f>'70531547'!$A$2:$A$39</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$38</f>
+              <f>'70531547'!$N$2:$N$39</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2658,6 +2658,46 @@
         <v>1213230</v>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-01-01 20:24</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>963000</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1213230</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$39</f>
+              <f>'70531547'!$A$2:$A$40</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$39</f>
+              <f>'70531547'!$B$2:$B$40</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$39</f>
+              <f>'70531547'!$A$2:$A$40</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$39</f>
+              <f>'70531547'!$C$2:$C$40</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$39</f>
+              <f>'70531547'!$A$2:$A$40</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$39</f>
+              <f>'70531547'!$D$2:$D$40</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$39</f>
+              <f>'70531547'!$A$2:$A$40</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$39</f>
+              <f>'70531547'!$E$2:$E$40</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$39</f>
+              <f>'70531547'!$A$2:$A$40</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$39</f>
+              <f>'70531547'!$F$2:$F$40</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$39</f>
+              <f>'70531547'!$A$2:$A$40</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$39</f>
+              <f>'70531547'!$G$2:$G$40</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$39</f>
+              <f>'70531547'!$A$2:$A$40</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$39</f>
+              <f>'70531547'!$H$2:$H$40</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$39</f>
+              <f>'70531547'!$A$2:$A$40</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$39</f>
+              <f>'70531547'!$I$2:$I$40</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$39</f>
+              <f>'70531547'!$A$2:$A$40</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$39</f>
+              <f>'70531547'!$J$2:$J$40</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$39</f>
+              <f>'70531547'!$A$2:$A$40</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$39</f>
+              <f>'70531547'!$K$2:$K$40</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$39</f>
+              <f>'70531547'!$A$2:$A$40</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$39</f>
+              <f>'70531547'!$L$2:$L$40</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$39</f>
+              <f>'70531547'!$A$2:$A$40</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$39</f>
+              <f>'70531547'!$M$2:$M$40</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$39</f>
+              <f>'70531547'!$A$2:$A$40</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$39</f>
+              <f>'70531547'!$N$2:$N$40</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2698,6 +2698,46 @@
         <v>1213230</v>
       </c>
     </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-01-01 20:32</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>963000</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1213230</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$40</f>
+              <f>'70531547'!$A$2:$A$41</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$40</f>
+              <f>'70531547'!$B$2:$B$41</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$40</f>
+              <f>'70531547'!$A$2:$A$41</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$40</f>
+              <f>'70531547'!$C$2:$C$41</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$40</f>
+              <f>'70531547'!$A$2:$A$41</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$40</f>
+              <f>'70531547'!$D$2:$D$41</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$40</f>
+              <f>'70531547'!$A$2:$A$41</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$40</f>
+              <f>'70531547'!$E$2:$E$41</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$40</f>
+              <f>'70531547'!$A$2:$A$41</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$40</f>
+              <f>'70531547'!$F$2:$F$41</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$40</f>
+              <f>'70531547'!$A$2:$A$41</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$40</f>
+              <f>'70531547'!$G$2:$G$41</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$40</f>
+              <f>'70531547'!$A$2:$A$41</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$40</f>
+              <f>'70531547'!$H$2:$H$41</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$40</f>
+              <f>'70531547'!$A$2:$A$41</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$40</f>
+              <f>'70531547'!$I$2:$I$41</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$40</f>
+              <f>'70531547'!$A$2:$A$41</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$40</f>
+              <f>'70531547'!$J$2:$J$41</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$40</f>
+              <f>'70531547'!$A$2:$A$41</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$40</f>
+              <f>'70531547'!$K$2:$K$41</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$40</f>
+              <f>'70531547'!$A$2:$A$41</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$40</f>
+              <f>'70531547'!$L$2:$L$41</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$40</f>
+              <f>'70531547'!$A$2:$A$41</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$40</f>
+              <f>'70531547'!$M$2:$M$41</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$40</f>
+              <f>'70531547'!$A$2:$A$41</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$40</f>
+              <f>'70531547'!$N$2:$N$41</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N40"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2738,6 +2738,46 @@
         <v>1213230</v>
       </c>
     </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-01-01 20:41</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1213230</v>
+      </c>
+      <c r="N41" t="n">
+        <v>963000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$41</f>
+              <f>'70531547'!$A$2:$A$42</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$41</f>
+              <f>'70531547'!$B$2:$B$42</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$41</f>
+              <f>'70531547'!$A$2:$A$42</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$41</f>
+              <f>'70531547'!$C$2:$C$42</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$41</f>
+              <f>'70531547'!$A$2:$A$42</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$41</f>
+              <f>'70531547'!$D$2:$D$42</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$41</f>
+              <f>'70531547'!$A$2:$A$42</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$41</f>
+              <f>'70531547'!$E$2:$E$42</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$41</f>
+              <f>'70531547'!$A$2:$A$42</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$41</f>
+              <f>'70531547'!$F$2:$F$42</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$41</f>
+              <f>'70531547'!$A$2:$A$42</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$41</f>
+              <f>'70531547'!$G$2:$G$42</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$41</f>
+              <f>'70531547'!$A$2:$A$42</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$41</f>
+              <f>'70531547'!$H$2:$H$42</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$41</f>
+              <f>'70531547'!$A$2:$A$42</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$41</f>
+              <f>'70531547'!$I$2:$I$42</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$41</f>
+              <f>'70531547'!$A$2:$A$42</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$41</f>
+              <f>'70531547'!$J$2:$J$42</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$41</f>
+              <f>'70531547'!$A$2:$A$42</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$41</f>
+              <f>'70531547'!$K$2:$K$42</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$41</f>
+              <f>'70531547'!$A$2:$A$42</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$41</f>
+              <f>'70531547'!$L$2:$L$42</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$41</f>
+              <f>'70531547'!$A$2:$A$42</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$41</f>
+              <f>'70531547'!$M$2:$M$42</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$41</f>
+              <f>'70531547'!$A$2:$A$42</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$41</f>
+              <f>'70531547'!$N$2:$N$42</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2778,6 +2778,46 @@
         <v>963000</v>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-01-01 20:49</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>963000</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K42" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1213230</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$42</f>
+              <f>'70531547'!$A$2:$A$43</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$42</f>
+              <f>'70531547'!$B$2:$B$43</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$42</f>
+              <f>'70531547'!$A$2:$A$43</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$42</f>
+              <f>'70531547'!$C$2:$C$43</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$42</f>
+              <f>'70531547'!$A$2:$A$43</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$42</f>
+              <f>'70531547'!$D$2:$D$43</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$42</f>
+              <f>'70531547'!$A$2:$A$43</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$42</f>
+              <f>'70531547'!$E$2:$E$43</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$42</f>
+              <f>'70531547'!$A$2:$A$43</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$42</f>
+              <f>'70531547'!$F$2:$F$43</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$42</f>
+              <f>'70531547'!$A$2:$A$43</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$42</f>
+              <f>'70531547'!$G$2:$G$43</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$42</f>
+              <f>'70531547'!$A$2:$A$43</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$42</f>
+              <f>'70531547'!$H$2:$H$43</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$42</f>
+              <f>'70531547'!$A$2:$A$43</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$42</f>
+              <f>'70531547'!$I$2:$I$43</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$42</f>
+              <f>'70531547'!$A$2:$A$43</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$42</f>
+              <f>'70531547'!$J$2:$J$43</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$42</f>
+              <f>'70531547'!$A$2:$A$43</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$42</f>
+              <f>'70531547'!$K$2:$K$43</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$42</f>
+              <f>'70531547'!$A$2:$A$43</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$42</f>
+              <f>'70531547'!$L$2:$L$43</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$42</f>
+              <f>'70531547'!$A$2:$A$43</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$42</f>
+              <f>'70531547'!$M$2:$M$43</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$42</f>
+              <f>'70531547'!$A$2:$A$43</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$42</f>
+              <f>'70531547'!$N$2:$N$43</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N42"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2818,6 +2818,46 @@
         <v>1213230</v>
       </c>
     </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-01-01 20:57</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K43" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1213230</v>
+      </c>
+      <c r="N43" t="n">
+        <v>963000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$43</f>
+              <f>'70531547'!$A$2:$A$44</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$43</f>
+              <f>'70531547'!$B$2:$B$44</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$43</f>
+              <f>'70531547'!$A$2:$A$44</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$43</f>
+              <f>'70531547'!$C$2:$C$44</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$43</f>
+              <f>'70531547'!$A$2:$A$44</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$43</f>
+              <f>'70531547'!$D$2:$D$44</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$43</f>
+              <f>'70531547'!$A$2:$A$44</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$43</f>
+              <f>'70531547'!$E$2:$E$44</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$43</f>
+              <f>'70531547'!$A$2:$A$44</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$43</f>
+              <f>'70531547'!$F$2:$F$44</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$43</f>
+              <f>'70531547'!$A$2:$A$44</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$43</f>
+              <f>'70531547'!$G$2:$G$44</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$43</f>
+              <f>'70531547'!$A$2:$A$44</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$43</f>
+              <f>'70531547'!$H$2:$H$44</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$43</f>
+              <f>'70531547'!$A$2:$A$44</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$43</f>
+              <f>'70531547'!$I$2:$I$44</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$43</f>
+              <f>'70531547'!$A$2:$A$44</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$43</f>
+              <f>'70531547'!$J$2:$J$44</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$43</f>
+              <f>'70531547'!$A$2:$A$44</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$43</f>
+              <f>'70531547'!$K$2:$K$44</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$43</f>
+              <f>'70531547'!$A$2:$A$44</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$43</f>
+              <f>'70531547'!$L$2:$L$44</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$43</f>
+              <f>'70531547'!$A$2:$A$44</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$43</f>
+              <f>'70531547'!$M$2:$M$44</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$43</f>
+              <f>'70531547'!$A$2:$A$44</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$43</f>
+              <f>'70531547'!$N$2:$N$44</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N43"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2858,6 +2858,46 @@
         <v>963000</v>
       </c>
     </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-01-01 21:12</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K44" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1213230</v>
+      </c>
+      <c r="N44" t="n">
+        <v>963000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$44</f>
+              <f>'70531547'!$A$2:$A$45</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$44</f>
+              <f>'70531547'!$B$2:$B$45</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$44</f>
+              <f>'70531547'!$A$2:$A$45</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$44</f>
+              <f>'70531547'!$C$2:$C$45</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$44</f>
+              <f>'70531547'!$A$2:$A$45</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$44</f>
+              <f>'70531547'!$D$2:$D$45</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$44</f>
+              <f>'70531547'!$A$2:$A$45</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$44</f>
+              <f>'70531547'!$E$2:$E$45</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$44</f>
+              <f>'70531547'!$A$2:$A$45</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$44</f>
+              <f>'70531547'!$F$2:$F$45</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$44</f>
+              <f>'70531547'!$A$2:$A$45</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$44</f>
+              <f>'70531547'!$G$2:$G$45</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$44</f>
+              <f>'70531547'!$A$2:$A$45</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$44</f>
+              <f>'70531547'!$H$2:$H$45</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$44</f>
+              <f>'70531547'!$A$2:$A$45</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$44</f>
+              <f>'70531547'!$I$2:$I$45</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$44</f>
+              <f>'70531547'!$A$2:$A$45</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$44</f>
+              <f>'70531547'!$J$2:$J$45</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$44</f>
+              <f>'70531547'!$A$2:$A$45</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$44</f>
+              <f>'70531547'!$K$2:$K$45</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$44</f>
+              <f>'70531547'!$A$2:$A$45</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$44</f>
+              <f>'70531547'!$L$2:$L$45</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$44</f>
+              <f>'70531547'!$A$2:$A$45</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$44</f>
+              <f>'70531547'!$M$2:$M$45</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$44</f>
+              <f>'70531547'!$A$2:$A$45</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$44</f>
+              <f>'70531547'!$N$2:$N$45</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N44"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2898,6 +2898,46 @@
         <v>963000</v>
       </c>
     </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-01-01 21:28</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>963000</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K45" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1213230</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$45</f>
+              <f>'70531547'!$A$2:$A$46</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$45</f>
+              <f>'70531547'!$B$2:$B$46</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$45</f>
+              <f>'70531547'!$A$2:$A$46</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$45</f>
+              <f>'70531547'!$C$2:$C$46</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$45</f>
+              <f>'70531547'!$A$2:$A$46</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$45</f>
+              <f>'70531547'!$D$2:$D$46</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$45</f>
+              <f>'70531547'!$A$2:$A$46</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$45</f>
+              <f>'70531547'!$E$2:$E$46</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$45</f>
+              <f>'70531547'!$A$2:$A$46</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$45</f>
+              <f>'70531547'!$F$2:$F$46</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$45</f>
+              <f>'70531547'!$A$2:$A$46</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$45</f>
+              <f>'70531547'!$G$2:$G$46</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$45</f>
+              <f>'70531547'!$A$2:$A$46</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$45</f>
+              <f>'70531547'!$H$2:$H$46</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$45</f>
+              <f>'70531547'!$A$2:$A$46</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$45</f>
+              <f>'70531547'!$I$2:$I$46</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$45</f>
+              <f>'70531547'!$A$2:$A$46</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$45</f>
+              <f>'70531547'!$J$2:$J$46</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$45</f>
+              <f>'70531547'!$A$2:$A$46</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$45</f>
+              <f>'70531547'!$K$2:$K$46</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$45</f>
+              <f>'70531547'!$A$2:$A$46</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$45</f>
+              <f>'70531547'!$L$2:$L$46</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$45</f>
+              <f>'70531547'!$A$2:$A$46</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$45</f>
+              <f>'70531547'!$M$2:$M$46</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$45</f>
+              <f>'70531547'!$A$2:$A$46</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$45</f>
+              <f>'70531547'!$N$2:$N$46</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N45"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2938,6 +2938,46 @@
         <v>1213230</v>
       </c>
     </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-01-01 21:48</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1213230</v>
+      </c>
+      <c r="N46" t="n">
+        <v>963000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$46</f>
+              <f>'70531547'!$A$2:$A$47</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$46</f>
+              <f>'70531547'!$B$2:$B$47</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$46</f>
+              <f>'70531547'!$A$2:$A$47</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$46</f>
+              <f>'70531547'!$C$2:$C$47</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$46</f>
+              <f>'70531547'!$A$2:$A$47</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$46</f>
+              <f>'70531547'!$D$2:$D$47</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$46</f>
+              <f>'70531547'!$A$2:$A$47</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$46</f>
+              <f>'70531547'!$E$2:$E$47</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$46</f>
+              <f>'70531547'!$A$2:$A$47</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$46</f>
+              <f>'70531547'!$F$2:$F$47</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$46</f>
+              <f>'70531547'!$A$2:$A$47</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$46</f>
+              <f>'70531547'!$G$2:$G$47</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$46</f>
+              <f>'70531547'!$A$2:$A$47</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$46</f>
+              <f>'70531547'!$H$2:$H$47</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$46</f>
+              <f>'70531547'!$A$2:$A$47</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$46</f>
+              <f>'70531547'!$I$2:$I$47</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$46</f>
+              <f>'70531547'!$A$2:$A$47</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$46</f>
+              <f>'70531547'!$J$2:$J$47</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$46</f>
+              <f>'70531547'!$A$2:$A$47</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$46</f>
+              <f>'70531547'!$K$2:$K$47</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$46</f>
+              <f>'70531547'!$A$2:$A$47</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$46</f>
+              <f>'70531547'!$L$2:$L$47</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$46</f>
+              <f>'70531547'!$A$2:$A$47</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$46</f>
+              <f>'70531547'!$M$2:$M$47</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$46</f>
+              <f>'70531547'!$A$2:$A$47</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$46</f>
+              <f>'70531547'!$N$2:$N$47</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N46"/>
+  <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2978,6 +2978,46 @@
         <v>963000</v>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-01-01 22:01</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1213230</v>
+      </c>
+      <c r="N47" t="n">
+        <v>963000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$47</f>
+              <f>'70531547'!$A$2:$A$48</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$47</f>
+              <f>'70531547'!$B$2:$B$48</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$47</f>
+              <f>'70531547'!$A$2:$A$48</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$47</f>
+              <f>'70531547'!$C$2:$C$48</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$47</f>
+              <f>'70531547'!$A$2:$A$48</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$47</f>
+              <f>'70531547'!$D$2:$D$48</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$47</f>
+              <f>'70531547'!$A$2:$A$48</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$47</f>
+              <f>'70531547'!$E$2:$E$48</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$47</f>
+              <f>'70531547'!$A$2:$A$48</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$47</f>
+              <f>'70531547'!$F$2:$F$48</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$47</f>
+              <f>'70531547'!$A$2:$A$48</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$47</f>
+              <f>'70531547'!$G$2:$G$48</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$47</f>
+              <f>'70531547'!$A$2:$A$48</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$47</f>
+              <f>'70531547'!$H$2:$H$48</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$47</f>
+              <f>'70531547'!$A$2:$A$48</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$47</f>
+              <f>'70531547'!$I$2:$I$48</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$47</f>
+              <f>'70531547'!$A$2:$A$48</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$47</f>
+              <f>'70531547'!$J$2:$J$48</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$47</f>
+              <f>'70531547'!$A$2:$A$48</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$47</f>
+              <f>'70531547'!$K$2:$K$48</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$47</f>
+              <f>'70531547'!$A$2:$A$48</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$47</f>
+              <f>'70531547'!$L$2:$L$48</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$47</f>
+              <f>'70531547'!$A$2:$A$48</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$47</f>
+              <f>'70531547'!$M$2:$M$48</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$47</f>
+              <f>'70531547'!$A$2:$A$48</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$47</f>
+              <f>'70531547'!$N$2:$N$48</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N47"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3018,6 +3018,46 @@
         <v>963000</v>
       </c>
     </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2025-01-01 22:14</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>963000</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K48" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1213230</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$48</f>
+              <f>'70531547'!$A$2:$A$49</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$48</f>
+              <f>'70531547'!$B$2:$B$49</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$48</f>
+              <f>'70531547'!$A$2:$A$49</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$48</f>
+              <f>'70531547'!$C$2:$C$49</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$48</f>
+              <f>'70531547'!$A$2:$A$49</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$48</f>
+              <f>'70531547'!$D$2:$D$49</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$48</f>
+              <f>'70531547'!$A$2:$A$49</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$48</f>
+              <f>'70531547'!$E$2:$E$49</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$48</f>
+              <f>'70531547'!$A$2:$A$49</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$48</f>
+              <f>'70531547'!$F$2:$F$49</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$48</f>
+              <f>'70531547'!$A$2:$A$49</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$48</f>
+              <f>'70531547'!$G$2:$G$49</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$48</f>
+              <f>'70531547'!$A$2:$A$49</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$48</f>
+              <f>'70531547'!$H$2:$H$49</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$48</f>
+              <f>'70531547'!$A$2:$A$49</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$48</f>
+              <f>'70531547'!$I$2:$I$49</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$48</f>
+              <f>'70531547'!$A$2:$A$49</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$48</f>
+              <f>'70531547'!$J$2:$J$49</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$48</f>
+              <f>'70531547'!$A$2:$A$49</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$48</f>
+              <f>'70531547'!$K$2:$K$49</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$48</f>
+              <f>'70531547'!$A$2:$A$49</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$48</f>
+              <f>'70531547'!$L$2:$L$49</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$48</f>
+              <f>'70531547'!$A$2:$A$49</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$48</f>
+              <f>'70531547'!$M$2:$M$49</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$48</f>
+              <f>'70531547'!$A$2:$A$49</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$48</f>
+              <f>'70531547'!$N$2:$N$49</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N48"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3058,6 +3058,46 @@
         <v>1213230</v>
       </c>
     </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2025-01-01 22:27</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K49" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1213230</v>
+      </c>
+      <c r="N49" t="n">
+        <v>963000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$49</f>
+              <f>'70531547'!$A$2:$A$50</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$49</f>
+              <f>'70531547'!$B$2:$B$50</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$49</f>
+              <f>'70531547'!$A$2:$A$50</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$49</f>
+              <f>'70531547'!$C$2:$C$50</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$49</f>
+              <f>'70531547'!$A$2:$A$50</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$49</f>
+              <f>'70531547'!$D$2:$D$50</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$49</f>
+              <f>'70531547'!$A$2:$A$50</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$49</f>
+              <f>'70531547'!$E$2:$E$50</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$49</f>
+              <f>'70531547'!$A$2:$A$50</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$49</f>
+              <f>'70531547'!$F$2:$F$50</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$49</f>
+              <f>'70531547'!$A$2:$A$50</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$49</f>
+              <f>'70531547'!$G$2:$G$50</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$49</f>
+              <f>'70531547'!$A$2:$A$50</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$49</f>
+              <f>'70531547'!$H$2:$H$50</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$49</f>
+              <f>'70531547'!$A$2:$A$50</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$49</f>
+              <f>'70531547'!$I$2:$I$50</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$49</f>
+              <f>'70531547'!$A$2:$A$50</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$49</f>
+              <f>'70531547'!$J$2:$J$50</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$49</f>
+              <f>'70531547'!$A$2:$A$50</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$49</f>
+              <f>'70531547'!$K$2:$K$50</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$49</f>
+              <f>'70531547'!$A$2:$A$50</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$49</f>
+              <f>'70531547'!$L$2:$L$50</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$49</f>
+              <f>'70531547'!$A$2:$A$50</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$49</f>
+              <f>'70531547'!$M$2:$M$50</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$49</f>
+              <f>'70531547'!$A$2:$A$50</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$49</f>
+              <f>'70531547'!$N$2:$N$50</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3098,6 +3098,46 @@
         <v>963000</v>
       </c>
     </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-01-01 22:36</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>963000</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K50" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1213230</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$50</f>
+              <f>'70531547'!$A$2:$A$51</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$50</f>
+              <f>'70531547'!$B$2:$B$51</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$50</f>
+              <f>'70531547'!$A$2:$A$51</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$50</f>
+              <f>'70531547'!$C$2:$C$51</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$50</f>
+              <f>'70531547'!$A$2:$A$51</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$50</f>
+              <f>'70531547'!$D$2:$D$51</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$50</f>
+              <f>'70531547'!$A$2:$A$51</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$50</f>
+              <f>'70531547'!$E$2:$E$51</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$50</f>
+              <f>'70531547'!$A$2:$A$51</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$50</f>
+              <f>'70531547'!$F$2:$F$51</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$50</f>
+              <f>'70531547'!$A$2:$A$51</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$50</f>
+              <f>'70531547'!$G$2:$G$51</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$50</f>
+              <f>'70531547'!$A$2:$A$51</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$50</f>
+              <f>'70531547'!$H$2:$H$51</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$50</f>
+              <f>'70531547'!$A$2:$A$51</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$50</f>
+              <f>'70531547'!$I$2:$I$51</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$50</f>
+              <f>'70531547'!$A$2:$A$51</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$50</f>
+              <f>'70531547'!$J$2:$J$51</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$50</f>
+              <f>'70531547'!$A$2:$A$51</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$50</f>
+              <f>'70531547'!$K$2:$K$51</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$50</f>
+              <f>'70531547'!$A$2:$A$51</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$50</f>
+              <f>'70531547'!$L$2:$L$51</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$50</f>
+              <f>'70531547'!$A$2:$A$51</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$50</f>
+              <f>'70531547'!$M$2:$M$51</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$50</f>
+              <f>'70531547'!$A$2:$A$51</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$50</f>
+              <f>'70531547'!$N$2:$N$51</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3138,6 +3138,46 @@
         <v>1213230</v>
       </c>
     </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-01-01 22:44</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>963000</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K51" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1213230</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$51</f>
+              <f>'70531547'!$A$2:$A$52</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$51</f>
+              <f>'70531547'!$B$2:$B$52</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$51</f>
+              <f>'70531547'!$A$2:$A$52</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$51</f>
+              <f>'70531547'!$C$2:$C$52</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$51</f>
+              <f>'70531547'!$A$2:$A$52</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$51</f>
+              <f>'70531547'!$D$2:$D$52</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$51</f>
+              <f>'70531547'!$A$2:$A$52</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$51</f>
+              <f>'70531547'!$E$2:$E$52</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$51</f>
+              <f>'70531547'!$A$2:$A$52</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$51</f>
+              <f>'70531547'!$F$2:$F$52</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$51</f>
+              <f>'70531547'!$A$2:$A$52</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$51</f>
+              <f>'70531547'!$G$2:$G$52</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$51</f>
+              <f>'70531547'!$A$2:$A$52</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$51</f>
+              <f>'70531547'!$H$2:$H$52</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$51</f>
+              <f>'70531547'!$A$2:$A$52</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$51</f>
+              <f>'70531547'!$I$2:$I$52</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$51</f>
+              <f>'70531547'!$A$2:$A$52</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$51</f>
+              <f>'70531547'!$J$2:$J$52</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$51</f>
+              <f>'70531547'!$A$2:$A$52</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$51</f>
+              <f>'70531547'!$K$2:$K$52</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$51</f>
+              <f>'70531547'!$A$2:$A$52</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$51</f>
+              <f>'70531547'!$L$2:$L$52</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$51</f>
+              <f>'70531547'!$A$2:$A$52</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$51</f>
+              <f>'70531547'!$M$2:$M$52</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$51</f>
+              <f>'70531547'!$A$2:$A$52</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$51</f>
+              <f>'70531547'!$N$2:$N$52</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N51"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3178,6 +3178,46 @@
         <v>1213230</v>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025-01-01 22:52</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>963000</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K52" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1213230</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$52</f>
+              <f>'70531547'!$A$2:$A$53</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$52</f>
+              <f>'70531547'!$B$2:$B$53</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$52</f>
+              <f>'70531547'!$A$2:$A$53</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$52</f>
+              <f>'70531547'!$C$2:$C$53</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$52</f>
+              <f>'70531547'!$A$2:$A$53</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$52</f>
+              <f>'70531547'!$D$2:$D$53</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$52</f>
+              <f>'70531547'!$A$2:$A$53</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$52</f>
+              <f>'70531547'!$E$2:$E$53</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$52</f>
+              <f>'70531547'!$A$2:$A$53</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$52</f>
+              <f>'70531547'!$F$2:$F$53</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$52</f>
+              <f>'70531547'!$A$2:$A$53</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$52</f>
+              <f>'70531547'!$G$2:$G$53</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$52</f>
+              <f>'70531547'!$A$2:$A$53</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$52</f>
+              <f>'70531547'!$H$2:$H$53</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$52</f>
+              <f>'70531547'!$A$2:$A$53</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$52</f>
+              <f>'70531547'!$I$2:$I$53</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$52</f>
+              <f>'70531547'!$A$2:$A$53</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$52</f>
+              <f>'70531547'!$J$2:$J$53</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$52</f>
+              <f>'70531547'!$A$2:$A$53</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$52</f>
+              <f>'70531547'!$K$2:$K$53</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$52</f>
+              <f>'70531547'!$A$2:$A$53</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$52</f>
+              <f>'70531547'!$L$2:$L$53</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$52</f>
+              <f>'70531547'!$A$2:$A$53</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$52</f>
+              <f>'70531547'!$M$2:$M$53</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$52</f>
+              <f>'70531547'!$A$2:$A$53</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$52</f>
+              <f>'70531547'!$N$2:$N$53</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N52"/>
+  <dimension ref="A1:N53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3218,6 +3218,46 @@
         <v>1213230</v>
       </c>
     </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2025-01-01 23:00</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>963000</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1213230</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$53</f>
+              <f>'70531547'!$A$2:$A$54</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$53</f>
+              <f>'70531547'!$B$2:$B$54</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$53</f>
+              <f>'70531547'!$A$2:$A$54</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$53</f>
+              <f>'70531547'!$C$2:$C$54</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$53</f>
+              <f>'70531547'!$A$2:$A$54</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$53</f>
+              <f>'70531547'!$D$2:$D$54</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$53</f>
+              <f>'70531547'!$A$2:$A$54</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$53</f>
+              <f>'70531547'!$E$2:$E$54</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$53</f>
+              <f>'70531547'!$A$2:$A$54</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$53</f>
+              <f>'70531547'!$F$2:$F$54</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$53</f>
+              <f>'70531547'!$A$2:$A$54</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$53</f>
+              <f>'70531547'!$G$2:$G$54</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$53</f>
+              <f>'70531547'!$A$2:$A$54</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$53</f>
+              <f>'70531547'!$H$2:$H$54</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$53</f>
+              <f>'70531547'!$A$2:$A$54</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$53</f>
+              <f>'70531547'!$I$2:$I$54</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$53</f>
+              <f>'70531547'!$A$2:$A$54</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$53</f>
+              <f>'70531547'!$J$2:$J$54</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$53</f>
+              <f>'70531547'!$A$2:$A$54</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$53</f>
+              <f>'70531547'!$K$2:$K$54</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$53</f>
+              <f>'70531547'!$A$2:$A$54</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$53</f>
+              <f>'70531547'!$L$2:$L$54</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$53</f>
+              <f>'70531547'!$A$2:$A$54</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$53</f>
+              <f>'70531547'!$M$2:$M$54</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$53</f>
+              <f>'70531547'!$A$2:$A$54</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$53</f>
+              <f>'70531547'!$N$2:$N$54</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N53"/>
+  <dimension ref="A1:N54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3258,6 +3258,46 @@
         <v>1213230</v>
       </c>
     </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025-01-01 23:12</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K54" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1213230</v>
+      </c>
+      <c r="N54" t="n">
+        <v>963000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$54</f>
+              <f>'70531547'!$A$2:$A$55</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$54</f>
+              <f>'70531547'!$B$2:$B$55</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$54</f>
+              <f>'70531547'!$A$2:$A$55</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$54</f>
+              <f>'70531547'!$C$2:$C$55</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$54</f>
+              <f>'70531547'!$A$2:$A$55</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$54</f>
+              <f>'70531547'!$D$2:$D$55</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$54</f>
+              <f>'70531547'!$A$2:$A$55</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$54</f>
+              <f>'70531547'!$E$2:$E$55</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$54</f>
+              <f>'70531547'!$A$2:$A$55</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$54</f>
+              <f>'70531547'!$F$2:$F$55</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$54</f>
+              <f>'70531547'!$A$2:$A$55</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$54</f>
+              <f>'70531547'!$G$2:$G$55</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$54</f>
+              <f>'70531547'!$A$2:$A$55</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$54</f>
+              <f>'70531547'!$H$2:$H$55</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$54</f>
+              <f>'70531547'!$A$2:$A$55</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$54</f>
+              <f>'70531547'!$I$2:$I$55</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$54</f>
+              <f>'70531547'!$A$2:$A$55</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$54</f>
+              <f>'70531547'!$J$2:$J$55</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$54</f>
+              <f>'70531547'!$A$2:$A$55</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$54</f>
+              <f>'70531547'!$K$2:$K$55</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$54</f>
+              <f>'70531547'!$A$2:$A$55</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$54</f>
+              <f>'70531547'!$L$2:$L$55</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$54</f>
+              <f>'70531547'!$A$2:$A$55</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$54</f>
+              <f>'70531547'!$M$2:$M$55</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$54</f>
+              <f>'70531547'!$A$2:$A$55</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$54</f>
+              <f>'70531547'!$N$2:$N$55</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N54"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3298,6 +3298,46 @@
         <v>963000</v>
       </c>
     </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-01-01 23:24</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>963000</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I55" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K55" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1213230</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$55</f>
+              <f>'70531547'!$A$2:$A$56</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$55</f>
+              <f>'70531547'!$B$2:$B$56</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$55</f>
+              <f>'70531547'!$A$2:$A$56</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$55</f>
+              <f>'70531547'!$C$2:$C$56</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$55</f>
+              <f>'70531547'!$A$2:$A$56</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$55</f>
+              <f>'70531547'!$D$2:$D$56</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$55</f>
+              <f>'70531547'!$A$2:$A$56</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$55</f>
+              <f>'70531547'!$E$2:$E$56</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$55</f>
+              <f>'70531547'!$A$2:$A$56</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$55</f>
+              <f>'70531547'!$F$2:$F$56</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$55</f>
+              <f>'70531547'!$A$2:$A$56</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$55</f>
+              <f>'70531547'!$G$2:$G$56</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$55</f>
+              <f>'70531547'!$A$2:$A$56</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$55</f>
+              <f>'70531547'!$H$2:$H$56</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$55</f>
+              <f>'70531547'!$A$2:$A$56</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$55</f>
+              <f>'70531547'!$I$2:$I$56</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$55</f>
+              <f>'70531547'!$A$2:$A$56</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$55</f>
+              <f>'70531547'!$J$2:$J$56</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$55</f>
+              <f>'70531547'!$A$2:$A$56</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$55</f>
+              <f>'70531547'!$K$2:$K$56</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$55</f>
+              <f>'70531547'!$A$2:$A$56</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$55</f>
+              <f>'70531547'!$L$2:$L$56</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$55</f>
+              <f>'70531547'!$A$2:$A$56</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$55</f>
+              <f>'70531547'!$M$2:$M$56</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$55</f>
+              <f>'70531547'!$A$2:$A$56</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$55</f>
+              <f>'70531547'!$N$2:$N$56</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N55"/>
+  <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3338,6 +3338,46 @@
         <v>1213230</v>
       </c>
     </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025-01-01 23:34</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>963000</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I56" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K56" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L56" t="n">
+        <v>1213230</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$56</f>
+              <f>'70531547'!$A$2:$A$57</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$56</f>
+              <f>'70531547'!$B$2:$B$57</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$56</f>
+              <f>'70531547'!$A$2:$A$57</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$56</f>
+              <f>'70531547'!$C$2:$C$57</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$56</f>
+              <f>'70531547'!$A$2:$A$57</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$56</f>
+              <f>'70531547'!$D$2:$D$57</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$56</f>
+              <f>'70531547'!$A$2:$A$57</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$56</f>
+              <f>'70531547'!$E$2:$E$57</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$56</f>
+              <f>'70531547'!$A$2:$A$57</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$56</f>
+              <f>'70531547'!$F$2:$F$57</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$56</f>
+              <f>'70531547'!$A$2:$A$57</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$56</f>
+              <f>'70531547'!$G$2:$G$57</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$56</f>
+              <f>'70531547'!$A$2:$A$57</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$56</f>
+              <f>'70531547'!$H$2:$H$57</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$56</f>
+              <f>'70531547'!$A$2:$A$57</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$56</f>
+              <f>'70531547'!$I$2:$I$57</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$56</f>
+              <f>'70531547'!$A$2:$A$57</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$56</f>
+              <f>'70531547'!$J$2:$J$57</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$56</f>
+              <f>'70531547'!$A$2:$A$57</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$56</f>
+              <f>'70531547'!$K$2:$K$57</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$56</f>
+              <f>'70531547'!$A$2:$A$57</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$56</f>
+              <f>'70531547'!$L$2:$L$57</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$56</f>
+              <f>'70531547'!$A$2:$A$57</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$56</f>
+              <f>'70531547'!$M$2:$M$57</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$56</f>
+              <f>'70531547'!$A$2:$A$57</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$56</f>
+              <f>'70531547'!$N$2:$N$57</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3378,6 +3378,46 @@
         <v>1213230</v>
       </c>
     </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025-01-01 23:42</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>963000</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K57" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L57" t="n">
+        <v>1213230</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$57</f>
+              <f>'70531547'!$A$2:$A$58</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$57</f>
+              <f>'70531547'!$B$2:$B$58</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$57</f>
+              <f>'70531547'!$A$2:$A$58</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$57</f>
+              <f>'70531547'!$C$2:$C$58</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$57</f>
+              <f>'70531547'!$A$2:$A$58</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$57</f>
+              <f>'70531547'!$D$2:$D$58</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$57</f>
+              <f>'70531547'!$A$2:$A$58</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$57</f>
+              <f>'70531547'!$E$2:$E$58</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$57</f>
+              <f>'70531547'!$A$2:$A$58</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$57</f>
+              <f>'70531547'!$F$2:$F$58</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$57</f>
+              <f>'70531547'!$A$2:$A$58</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$57</f>
+              <f>'70531547'!$G$2:$G$58</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$57</f>
+              <f>'70531547'!$A$2:$A$58</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$57</f>
+              <f>'70531547'!$H$2:$H$58</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$57</f>
+              <f>'70531547'!$A$2:$A$58</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$57</f>
+              <f>'70531547'!$I$2:$I$58</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$57</f>
+              <f>'70531547'!$A$2:$A$58</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$57</f>
+              <f>'70531547'!$J$2:$J$58</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$57</f>
+              <f>'70531547'!$A$2:$A$58</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$57</f>
+              <f>'70531547'!$K$2:$K$58</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$57</f>
+              <f>'70531547'!$A$2:$A$58</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$57</f>
+              <f>'70531547'!$L$2:$L$58</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$57</f>
+              <f>'70531547'!$A$2:$A$58</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$57</f>
+              <f>'70531547'!$M$2:$M$58</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$57</f>
+              <f>'70531547'!$A$2:$A$58</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$57</f>
+              <f>'70531547'!$N$2:$N$58</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N57"/>
+  <dimension ref="A1:N58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3418,6 +3418,46 @@
         <v>1213230</v>
       </c>
     </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-01-01 23:50</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>963000</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H58" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K58" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1213230</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$58</f>
+              <f>'70531547'!$A$2:$A$59</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$58</f>
+              <f>'70531547'!$B$2:$B$59</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$58</f>
+              <f>'70531547'!$A$2:$A$59</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$58</f>
+              <f>'70531547'!$C$2:$C$59</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$58</f>
+              <f>'70531547'!$A$2:$A$59</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$58</f>
+              <f>'70531547'!$D$2:$D$59</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$58</f>
+              <f>'70531547'!$A$2:$A$59</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$58</f>
+              <f>'70531547'!$E$2:$E$59</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$58</f>
+              <f>'70531547'!$A$2:$A$59</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$58</f>
+              <f>'70531547'!$F$2:$F$59</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$58</f>
+              <f>'70531547'!$A$2:$A$59</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$58</f>
+              <f>'70531547'!$G$2:$G$59</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$58</f>
+              <f>'70531547'!$A$2:$A$59</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$58</f>
+              <f>'70531547'!$H$2:$H$59</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$58</f>
+              <f>'70531547'!$A$2:$A$59</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$58</f>
+              <f>'70531547'!$I$2:$I$59</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$58</f>
+              <f>'70531547'!$A$2:$A$59</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$58</f>
+              <f>'70531547'!$J$2:$J$59</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$58</f>
+              <f>'70531547'!$A$2:$A$59</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$58</f>
+              <f>'70531547'!$K$2:$K$59</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$58</f>
+              <f>'70531547'!$A$2:$A$59</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$58</f>
+              <f>'70531547'!$L$2:$L$59</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$58</f>
+              <f>'70531547'!$A$2:$A$59</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$58</f>
+              <f>'70531547'!$M$2:$M$59</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$58</f>
+              <f>'70531547'!$A$2:$A$59</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$58</f>
+              <f>'70531547'!$N$2:$N$59</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N58"/>
+  <dimension ref="A1:N59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3458,6 +3458,46 @@
         <v>1213230</v>
       </c>
     </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-01-01 23:58</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K59" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1213230</v>
+      </c>
+      <c r="N59" t="n">
+        <v>963000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$59</f>
+              <f>'70531547'!$A$2:$A$60</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$59</f>
+              <f>'70531547'!$B$2:$B$60</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$59</f>
+              <f>'70531547'!$A$2:$A$60</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$59</f>
+              <f>'70531547'!$C$2:$C$60</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$59</f>
+              <f>'70531547'!$A$2:$A$60</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$59</f>
+              <f>'70531547'!$D$2:$D$60</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$59</f>
+              <f>'70531547'!$A$2:$A$60</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$59</f>
+              <f>'70531547'!$E$2:$E$60</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$59</f>
+              <f>'70531547'!$A$2:$A$60</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$59</f>
+              <f>'70531547'!$F$2:$F$60</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$59</f>
+              <f>'70531547'!$A$2:$A$60</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$59</f>
+              <f>'70531547'!$G$2:$G$60</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$59</f>
+              <f>'70531547'!$A$2:$A$60</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$59</f>
+              <f>'70531547'!$H$2:$H$60</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$59</f>
+              <f>'70531547'!$A$2:$A$60</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$59</f>
+              <f>'70531547'!$I$2:$I$60</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$59</f>
+              <f>'70531547'!$A$2:$A$60</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$59</f>
+              <f>'70531547'!$J$2:$J$60</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$59</f>
+              <f>'70531547'!$A$2:$A$60</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$59</f>
+              <f>'70531547'!$K$2:$K$60</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$59</f>
+              <f>'70531547'!$A$2:$A$60</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$59</f>
+              <f>'70531547'!$L$2:$L$60</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$59</f>
+              <f>'70531547'!$A$2:$A$60</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$59</f>
+              <f>'70531547'!$M$2:$M$60</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$59</f>
+              <f>'70531547'!$A$2:$A$60</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$59</f>
+              <f>'70531547'!$N$2:$N$60</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N59"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3498,6 +3498,46 @@
         <v>963000</v>
       </c>
     </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2025-01-02 00:09</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>963000</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H60" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K60" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L60" t="n">
+        <v>1213230</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$60</f>
+              <f>'70531547'!$A$2:$A$61</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$60</f>
+              <f>'70531547'!$B$2:$B$61</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$60</f>
+              <f>'70531547'!$A$2:$A$61</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$60</f>
+              <f>'70531547'!$C$2:$C$61</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$60</f>
+              <f>'70531547'!$A$2:$A$61</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$60</f>
+              <f>'70531547'!$D$2:$D$61</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$60</f>
+              <f>'70531547'!$A$2:$A$61</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$60</f>
+              <f>'70531547'!$E$2:$E$61</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$60</f>
+              <f>'70531547'!$A$2:$A$61</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$60</f>
+              <f>'70531547'!$F$2:$F$61</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$60</f>
+              <f>'70531547'!$A$2:$A$61</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$60</f>
+              <f>'70531547'!$G$2:$G$61</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$60</f>
+              <f>'70531547'!$A$2:$A$61</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$60</f>
+              <f>'70531547'!$H$2:$H$61</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$60</f>
+              <f>'70531547'!$A$2:$A$61</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$60</f>
+              <f>'70531547'!$I$2:$I$61</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$60</f>
+              <f>'70531547'!$A$2:$A$61</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$60</f>
+              <f>'70531547'!$J$2:$J$61</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$60</f>
+              <f>'70531547'!$A$2:$A$61</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$60</f>
+              <f>'70531547'!$K$2:$K$61</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$60</f>
+              <f>'70531547'!$A$2:$A$61</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$60</f>
+              <f>'70531547'!$L$2:$L$61</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$60</f>
+              <f>'70531547'!$A$2:$A$61</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$60</f>
+              <f>'70531547'!$M$2:$M$61</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$60</f>
+              <f>'70531547'!$A$2:$A$61</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$60</f>
+              <f>'70531547'!$N$2:$N$61</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N60"/>
+  <dimension ref="A1:N61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3538,6 +3538,46 @@
         <v>1213230</v>
       </c>
     </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2025-01-02 00:22</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>963000</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I61" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K61" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L61" t="n">
+        <v>1213230</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$61</f>
+              <f>'70531547'!$A$2:$A$62</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$61</f>
+              <f>'70531547'!$B$2:$B$62</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$61</f>
+              <f>'70531547'!$A$2:$A$62</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$61</f>
+              <f>'70531547'!$C$2:$C$62</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$61</f>
+              <f>'70531547'!$A$2:$A$62</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$61</f>
+              <f>'70531547'!$D$2:$D$62</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$61</f>
+              <f>'70531547'!$A$2:$A$62</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$61</f>
+              <f>'70531547'!$E$2:$E$62</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$61</f>
+              <f>'70531547'!$A$2:$A$62</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$61</f>
+              <f>'70531547'!$F$2:$F$62</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$61</f>
+              <f>'70531547'!$A$2:$A$62</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$61</f>
+              <f>'70531547'!$G$2:$G$62</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$61</f>
+              <f>'70531547'!$A$2:$A$62</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$61</f>
+              <f>'70531547'!$H$2:$H$62</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$61</f>
+              <f>'70531547'!$A$2:$A$62</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$61</f>
+              <f>'70531547'!$I$2:$I$62</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$61</f>
+              <f>'70531547'!$A$2:$A$62</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$61</f>
+              <f>'70531547'!$J$2:$J$62</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$61</f>
+              <f>'70531547'!$A$2:$A$62</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$61</f>
+              <f>'70531547'!$K$2:$K$62</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$61</f>
+              <f>'70531547'!$A$2:$A$62</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$61</f>
+              <f>'70531547'!$L$2:$L$62</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$61</f>
+              <f>'70531547'!$A$2:$A$62</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$61</f>
+              <f>'70531547'!$M$2:$M$62</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$61</f>
+              <f>'70531547'!$A$2:$A$62</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$61</f>
+              <f>'70531547'!$N$2:$N$62</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N61"/>
+  <dimension ref="A1:N62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3578,6 +3578,46 @@
         <v>1213230</v>
       </c>
     </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025-01-02 00:31</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>963000</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I62" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K62" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L62" t="n">
+        <v>1213230</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$62</f>
+              <f>'70531547'!$A$2:$A$63</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$62</f>
+              <f>'70531547'!$B$2:$B$63</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$62</f>
+              <f>'70531547'!$A$2:$A$63</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$62</f>
+              <f>'70531547'!$C$2:$C$63</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$62</f>
+              <f>'70531547'!$A$2:$A$63</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$62</f>
+              <f>'70531547'!$D$2:$D$63</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$62</f>
+              <f>'70531547'!$A$2:$A$63</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$62</f>
+              <f>'70531547'!$E$2:$E$63</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$62</f>
+              <f>'70531547'!$A$2:$A$63</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$62</f>
+              <f>'70531547'!$F$2:$F$63</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$62</f>
+              <f>'70531547'!$A$2:$A$63</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$62</f>
+              <f>'70531547'!$G$2:$G$63</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$62</f>
+              <f>'70531547'!$A$2:$A$63</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$62</f>
+              <f>'70531547'!$H$2:$H$63</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$62</f>
+              <f>'70531547'!$A$2:$A$63</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$62</f>
+              <f>'70531547'!$I$2:$I$63</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$62</f>
+              <f>'70531547'!$A$2:$A$63</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$62</f>
+              <f>'70531547'!$J$2:$J$63</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$62</f>
+              <f>'70531547'!$A$2:$A$63</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$62</f>
+              <f>'70531547'!$K$2:$K$63</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$62</f>
+              <f>'70531547'!$A$2:$A$63</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$62</f>
+              <f>'70531547'!$L$2:$L$63</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$62</f>
+              <f>'70531547'!$A$2:$A$63</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$62</f>
+              <f>'70531547'!$M$2:$M$63</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$62</f>
+              <f>'70531547'!$A$2:$A$63</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$62</f>
+              <f>'70531547'!$N$2:$N$63</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N62"/>
+  <dimension ref="A1:N63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3618,6 +3618,46 @@
         <v>1213230</v>
       </c>
     </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025-01-02 00:40</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H63" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K63" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L63" t="n">
+        <v>1213230</v>
+      </c>
+      <c r="N63" t="n">
+        <v>963000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$63</f>
+              <f>'70531547'!$A$2:$A$64</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$63</f>
+              <f>'70531547'!$B$2:$B$64</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$63</f>
+              <f>'70531547'!$A$2:$A$64</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$63</f>
+              <f>'70531547'!$C$2:$C$64</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$63</f>
+              <f>'70531547'!$A$2:$A$64</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$63</f>
+              <f>'70531547'!$D$2:$D$64</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$63</f>
+              <f>'70531547'!$A$2:$A$64</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$63</f>
+              <f>'70531547'!$E$2:$E$64</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$63</f>
+              <f>'70531547'!$A$2:$A$64</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$63</f>
+              <f>'70531547'!$F$2:$F$64</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$63</f>
+              <f>'70531547'!$A$2:$A$64</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$63</f>
+              <f>'70531547'!$G$2:$G$64</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$63</f>
+              <f>'70531547'!$A$2:$A$64</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$63</f>
+              <f>'70531547'!$H$2:$H$64</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$63</f>
+              <f>'70531547'!$A$2:$A$64</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$63</f>
+              <f>'70531547'!$I$2:$I$64</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$63</f>
+              <f>'70531547'!$A$2:$A$64</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$63</f>
+              <f>'70531547'!$J$2:$J$64</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$63</f>
+              <f>'70531547'!$A$2:$A$64</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$63</f>
+              <f>'70531547'!$K$2:$K$64</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$63</f>
+              <f>'70531547'!$A$2:$A$64</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$63</f>
+              <f>'70531547'!$L$2:$L$64</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$63</f>
+              <f>'70531547'!$A$2:$A$64</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$63</f>
+              <f>'70531547'!$M$2:$M$64</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$63</f>
+              <f>'70531547'!$A$2:$A$64</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$63</f>
+              <f>'70531547'!$N$2:$N$64</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N63"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3658,6 +3658,46 @@
         <v>963000</v>
       </c>
     </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-01-02 00:49</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>963000</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H64" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K64" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L64" t="n">
+        <v>1213230</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$64</f>
+              <f>'70531547'!$A$2:$A$65</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$64</f>
+              <f>'70531547'!$B$2:$B$65</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$64</f>
+              <f>'70531547'!$A$2:$A$65</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$64</f>
+              <f>'70531547'!$C$2:$C$65</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$64</f>
+              <f>'70531547'!$A$2:$A$65</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$64</f>
+              <f>'70531547'!$D$2:$D$65</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$64</f>
+              <f>'70531547'!$A$2:$A$65</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$64</f>
+              <f>'70531547'!$E$2:$E$65</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$64</f>
+              <f>'70531547'!$A$2:$A$65</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$64</f>
+              <f>'70531547'!$F$2:$F$65</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$64</f>
+              <f>'70531547'!$A$2:$A$65</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$64</f>
+              <f>'70531547'!$G$2:$G$65</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$64</f>
+              <f>'70531547'!$A$2:$A$65</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$64</f>
+              <f>'70531547'!$H$2:$H$65</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$64</f>
+              <f>'70531547'!$A$2:$A$65</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$64</f>
+              <f>'70531547'!$I$2:$I$65</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$64</f>
+              <f>'70531547'!$A$2:$A$65</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$64</f>
+              <f>'70531547'!$J$2:$J$65</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$64</f>
+              <f>'70531547'!$A$2:$A$65</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$64</f>
+              <f>'70531547'!$K$2:$K$65</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$64</f>
+              <f>'70531547'!$A$2:$A$65</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$64</f>
+              <f>'70531547'!$L$2:$L$65</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$64</f>
+              <f>'70531547'!$A$2:$A$65</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$64</f>
+              <f>'70531547'!$M$2:$M$65</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$64</f>
+              <f>'70531547'!$A$2:$A$65</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$64</f>
+              <f>'70531547'!$N$2:$N$65</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N64"/>
+  <dimension ref="A1:N65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3698,6 +3698,46 @@
         <v>1213230</v>
       </c>
     </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025-01-02 00:57</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>963000</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H65" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I65" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K65" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L65" t="n">
+        <v>1213230</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$65</f>
+              <f>'70531547'!$A$2:$A$66</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$65</f>
+              <f>'70531547'!$B$2:$B$66</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$65</f>
+              <f>'70531547'!$A$2:$A$66</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$65</f>
+              <f>'70531547'!$C$2:$C$66</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$65</f>
+              <f>'70531547'!$A$2:$A$66</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$65</f>
+              <f>'70531547'!$D$2:$D$66</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$65</f>
+              <f>'70531547'!$A$2:$A$66</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$65</f>
+              <f>'70531547'!$E$2:$E$66</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$65</f>
+              <f>'70531547'!$A$2:$A$66</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$65</f>
+              <f>'70531547'!$F$2:$F$66</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$65</f>
+              <f>'70531547'!$A$2:$A$66</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$65</f>
+              <f>'70531547'!$G$2:$G$66</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$65</f>
+              <f>'70531547'!$A$2:$A$66</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$65</f>
+              <f>'70531547'!$H$2:$H$66</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$65</f>
+              <f>'70531547'!$A$2:$A$66</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$65</f>
+              <f>'70531547'!$I$2:$I$66</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$65</f>
+              <f>'70531547'!$A$2:$A$66</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$65</f>
+              <f>'70531547'!$J$2:$J$66</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$65</f>
+              <f>'70531547'!$A$2:$A$66</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$65</f>
+              <f>'70531547'!$K$2:$K$66</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$65</f>
+              <f>'70531547'!$A$2:$A$66</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$65</f>
+              <f>'70531547'!$L$2:$L$66</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$65</f>
+              <f>'70531547'!$A$2:$A$66</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$65</f>
+              <f>'70531547'!$M$2:$M$66</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$65</f>
+              <f>'70531547'!$A$2:$A$66</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$65</f>
+              <f>'70531547'!$N$2:$N$66</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N65"/>
+  <dimension ref="A1:N66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3738,6 +3738,46 @@
         <v>1213230</v>
       </c>
     </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2025-01-02 01:08</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>963000</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H66" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I66" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K66" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L66" t="n">
+        <v>1213230</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$66</f>
+              <f>'70531547'!$A$2:$A$67</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$66</f>
+              <f>'70531547'!$B$2:$B$67</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$66</f>
+              <f>'70531547'!$A$2:$A$67</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$66</f>
+              <f>'70531547'!$C$2:$C$67</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$66</f>
+              <f>'70531547'!$A$2:$A$67</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$66</f>
+              <f>'70531547'!$D$2:$D$67</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$66</f>
+              <f>'70531547'!$A$2:$A$67</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$66</f>
+              <f>'70531547'!$E$2:$E$67</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$66</f>
+              <f>'70531547'!$A$2:$A$67</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$66</f>
+              <f>'70531547'!$F$2:$F$67</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$66</f>
+              <f>'70531547'!$A$2:$A$67</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$66</f>
+              <f>'70531547'!$G$2:$G$67</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$66</f>
+              <f>'70531547'!$A$2:$A$67</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$66</f>
+              <f>'70531547'!$H$2:$H$67</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$66</f>
+              <f>'70531547'!$A$2:$A$67</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$66</f>
+              <f>'70531547'!$I$2:$I$67</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$66</f>
+              <f>'70531547'!$A$2:$A$67</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$66</f>
+              <f>'70531547'!$J$2:$J$67</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$66</f>
+              <f>'70531547'!$A$2:$A$67</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$66</f>
+              <f>'70531547'!$K$2:$K$67</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$66</f>
+              <f>'70531547'!$A$2:$A$67</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$66</f>
+              <f>'70531547'!$L$2:$L$67</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$66</f>
+              <f>'70531547'!$A$2:$A$67</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$66</f>
+              <f>'70531547'!$M$2:$M$67</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$66</f>
+              <f>'70531547'!$A$2:$A$67</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$66</f>
+              <f>'70531547'!$N$2:$N$67</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N66"/>
+  <dimension ref="A1:N67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3778,6 +3778,46 @@
         <v>1213230</v>
       </c>
     </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025-01-02 01:22</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H67" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I67" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K67" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L67" t="n">
+        <v>1213230</v>
+      </c>
+      <c r="N67" t="n">
+        <v>963000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$67</f>
+              <f>'70531547'!$A$2:$A$68</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$67</f>
+              <f>'70531547'!$B$2:$B$68</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$67</f>
+              <f>'70531547'!$A$2:$A$68</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$67</f>
+              <f>'70531547'!$C$2:$C$68</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$67</f>
+              <f>'70531547'!$A$2:$A$68</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$67</f>
+              <f>'70531547'!$D$2:$D$68</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$67</f>
+              <f>'70531547'!$A$2:$A$68</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$67</f>
+              <f>'70531547'!$E$2:$E$68</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$67</f>
+              <f>'70531547'!$A$2:$A$68</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$67</f>
+              <f>'70531547'!$F$2:$F$68</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$67</f>
+              <f>'70531547'!$A$2:$A$68</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$67</f>
+              <f>'70531547'!$G$2:$G$68</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$67</f>
+              <f>'70531547'!$A$2:$A$68</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$67</f>
+              <f>'70531547'!$H$2:$H$68</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$67</f>
+              <f>'70531547'!$A$2:$A$68</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$67</f>
+              <f>'70531547'!$I$2:$I$68</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$67</f>
+              <f>'70531547'!$A$2:$A$68</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$67</f>
+              <f>'70531547'!$J$2:$J$68</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$67</f>
+              <f>'70531547'!$A$2:$A$68</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$67</f>
+              <f>'70531547'!$K$2:$K$68</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$67</f>
+              <f>'70531547'!$A$2:$A$68</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$67</f>
+              <f>'70531547'!$L$2:$L$68</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$67</f>
+              <f>'70531547'!$A$2:$A$68</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$67</f>
+              <f>'70531547'!$M$2:$M$68</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$67</f>
+              <f>'70531547'!$A$2:$A$68</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$67</f>
+              <f>'70531547'!$N$2:$N$68</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N67"/>
+  <dimension ref="A1:N68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3818,6 +3818,46 @@
         <v>963000</v>
       </c>
     </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-01-02 01:34</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I68" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K68" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L68" t="n">
+        <v>1213230</v>
+      </c>
+      <c r="N68" t="n">
+        <v>963000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$68</f>
+              <f>'70531547'!$A$2:$A$69</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$68</f>
+              <f>'70531547'!$B$2:$B$69</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$68</f>
+              <f>'70531547'!$A$2:$A$69</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$68</f>
+              <f>'70531547'!$C$2:$C$69</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$68</f>
+              <f>'70531547'!$A$2:$A$69</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$68</f>
+              <f>'70531547'!$D$2:$D$69</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$68</f>
+              <f>'70531547'!$A$2:$A$69</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$68</f>
+              <f>'70531547'!$E$2:$E$69</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$68</f>
+              <f>'70531547'!$A$2:$A$69</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$68</f>
+              <f>'70531547'!$F$2:$F$69</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$68</f>
+              <f>'70531547'!$A$2:$A$69</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$68</f>
+              <f>'70531547'!$G$2:$G$69</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$68</f>
+              <f>'70531547'!$A$2:$A$69</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$68</f>
+              <f>'70531547'!$H$2:$H$69</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$68</f>
+              <f>'70531547'!$A$2:$A$69</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$68</f>
+              <f>'70531547'!$I$2:$I$69</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$68</f>
+              <f>'70531547'!$A$2:$A$69</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$68</f>
+              <f>'70531547'!$J$2:$J$69</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$68</f>
+              <f>'70531547'!$A$2:$A$69</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$68</f>
+              <f>'70531547'!$K$2:$K$69</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$68</f>
+              <f>'70531547'!$A$2:$A$69</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$68</f>
+              <f>'70531547'!$L$2:$L$69</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$68</f>
+              <f>'70531547'!$A$2:$A$69</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$68</f>
+              <f>'70531547'!$M$2:$M$69</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$68</f>
+              <f>'70531547'!$A$2:$A$69</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$68</f>
+              <f>'70531547'!$N$2:$N$69</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N68"/>
+  <dimension ref="A1:N69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3858,6 +3858,46 @@
         <v>963000</v>
       </c>
     </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-01-02 01:44</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>963000</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I69" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K69" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L69" t="n">
+        <v>1213230</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$69</f>
+              <f>'70531547'!$A$2:$A$70</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$69</f>
+              <f>'70531547'!$B$2:$B$70</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$69</f>
+              <f>'70531547'!$A$2:$A$70</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$69</f>
+              <f>'70531547'!$C$2:$C$70</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$69</f>
+              <f>'70531547'!$A$2:$A$70</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$69</f>
+              <f>'70531547'!$D$2:$D$70</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$69</f>
+              <f>'70531547'!$A$2:$A$70</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$69</f>
+              <f>'70531547'!$E$2:$E$70</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$69</f>
+              <f>'70531547'!$A$2:$A$70</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$69</f>
+              <f>'70531547'!$F$2:$F$70</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$69</f>
+              <f>'70531547'!$A$2:$A$70</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$69</f>
+              <f>'70531547'!$G$2:$G$70</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$69</f>
+              <f>'70531547'!$A$2:$A$70</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$69</f>
+              <f>'70531547'!$H$2:$H$70</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$69</f>
+              <f>'70531547'!$A$2:$A$70</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$69</f>
+              <f>'70531547'!$I$2:$I$70</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$69</f>
+              <f>'70531547'!$A$2:$A$70</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$69</f>
+              <f>'70531547'!$J$2:$J$70</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$69</f>
+              <f>'70531547'!$A$2:$A$70</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$69</f>
+              <f>'70531547'!$K$2:$K$70</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$69</f>
+              <f>'70531547'!$A$2:$A$70</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$69</f>
+              <f>'70531547'!$L$2:$L$70</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$69</f>
+              <f>'70531547'!$A$2:$A$70</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$69</f>
+              <f>'70531547'!$M$2:$M$70</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$69</f>
+              <f>'70531547'!$A$2:$A$70</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$69</f>
+              <f>'70531547'!$N$2:$N$70</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N69"/>
+  <dimension ref="A1:N70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3898,6 +3898,46 @@
         <v>1213230</v>
       </c>
     </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-01-02 01:54</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>963000</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H70" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I70" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K70" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L70" t="n">
+        <v>1213230</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$70</f>
+              <f>'70531547'!$A$2:$A$71</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$70</f>
+              <f>'70531547'!$B$2:$B$71</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$70</f>
+              <f>'70531547'!$A$2:$A$71</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$70</f>
+              <f>'70531547'!$C$2:$C$71</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$70</f>
+              <f>'70531547'!$A$2:$A$71</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$70</f>
+              <f>'70531547'!$D$2:$D$71</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$70</f>
+              <f>'70531547'!$A$2:$A$71</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$70</f>
+              <f>'70531547'!$E$2:$E$71</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$70</f>
+              <f>'70531547'!$A$2:$A$71</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$70</f>
+              <f>'70531547'!$F$2:$F$71</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$70</f>
+              <f>'70531547'!$A$2:$A$71</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$70</f>
+              <f>'70531547'!$G$2:$G$71</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$70</f>
+              <f>'70531547'!$A$2:$A$71</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$70</f>
+              <f>'70531547'!$H$2:$H$71</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$70</f>
+              <f>'70531547'!$A$2:$A$71</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$70</f>
+              <f>'70531547'!$I$2:$I$71</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$70</f>
+              <f>'70531547'!$A$2:$A$71</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$70</f>
+              <f>'70531547'!$J$2:$J$71</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$70</f>
+              <f>'70531547'!$A$2:$A$71</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$70</f>
+              <f>'70531547'!$K$2:$K$71</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$70</f>
+              <f>'70531547'!$A$2:$A$71</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$70</f>
+              <f>'70531547'!$L$2:$L$71</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$70</f>
+              <f>'70531547'!$A$2:$A$71</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$70</f>
+              <f>'70531547'!$M$2:$M$71</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$70</f>
+              <f>'70531547'!$A$2:$A$71</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$70</f>
+              <f>'70531547'!$N$2:$N$71</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N70"/>
+  <dimension ref="A1:N71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3938,6 +3938,46 @@
         <v>1213230</v>
       </c>
     </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-01-02 02:01</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H71" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I71" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K71" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L71" t="n">
+        <v>1213230</v>
+      </c>
+      <c r="N71" t="n">
+        <v>963000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$71</f>
+              <f>'70531547'!$A$2:$A$72</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$71</f>
+              <f>'70531547'!$B$2:$B$72</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$71</f>
+              <f>'70531547'!$A$2:$A$72</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$71</f>
+              <f>'70531547'!$C$2:$C$72</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$71</f>
+              <f>'70531547'!$A$2:$A$72</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$71</f>
+              <f>'70531547'!$D$2:$D$72</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$71</f>
+              <f>'70531547'!$A$2:$A$72</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$71</f>
+              <f>'70531547'!$E$2:$E$72</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$71</f>
+              <f>'70531547'!$A$2:$A$72</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$71</f>
+              <f>'70531547'!$F$2:$F$72</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$71</f>
+              <f>'70531547'!$A$2:$A$72</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$71</f>
+              <f>'70531547'!$G$2:$G$72</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$71</f>
+              <f>'70531547'!$A$2:$A$72</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$71</f>
+              <f>'70531547'!$H$2:$H$72</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$71</f>
+              <f>'70531547'!$A$2:$A$72</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$71</f>
+              <f>'70531547'!$I$2:$I$72</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$71</f>
+              <f>'70531547'!$A$2:$A$72</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$71</f>
+              <f>'70531547'!$J$2:$J$72</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$71</f>
+              <f>'70531547'!$A$2:$A$72</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$71</f>
+              <f>'70531547'!$K$2:$K$72</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$71</f>
+              <f>'70531547'!$A$2:$A$72</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$71</f>
+              <f>'70531547'!$L$2:$L$72</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$71</f>
+              <f>'70531547'!$A$2:$A$72</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$71</f>
+              <f>'70531547'!$M$2:$M$72</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$71</f>
+              <f>'70531547'!$A$2:$A$72</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$71</f>
+              <f>'70531547'!$N$2:$N$72</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N71"/>
+  <dimension ref="A1:N72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3978,6 +3978,46 @@
         <v>963000</v>
       </c>
     </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-01-02 02:12</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H72" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I72" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K72" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L72" t="n">
+        <v>1213230</v>
+      </c>
+      <c r="N72" t="n">
+        <v>963000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$72</f>
+              <f>'70531547'!$A$2:$A$73</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$72</f>
+              <f>'70531547'!$B$2:$B$73</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$72</f>
+              <f>'70531547'!$A$2:$A$73</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$72</f>
+              <f>'70531547'!$C$2:$C$73</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$72</f>
+              <f>'70531547'!$A$2:$A$73</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$72</f>
+              <f>'70531547'!$D$2:$D$73</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$72</f>
+              <f>'70531547'!$A$2:$A$73</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$72</f>
+              <f>'70531547'!$E$2:$E$73</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$72</f>
+              <f>'70531547'!$A$2:$A$73</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$72</f>
+              <f>'70531547'!$F$2:$F$73</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$72</f>
+              <f>'70531547'!$A$2:$A$73</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$72</f>
+              <f>'70531547'!$G$2:$G$73</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$72</f>
+              <f>'70531547'!$A$2:$A$73</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$72</f>
+              <f>'70531547'!$H$2:$H$73</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$72</f>
+              <f>'70531547'!$A$2:$A$73</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$72</f>
+              <f>'70531547'!$I$2:$I$73</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$72</f>
+              <f>'70531547'!$A$2:$A$73</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$72</f>
+              <f>'70531547'!$J$2:$J$73</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$72</f>
+              <f>'70531547'!$A$2:$A$73</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$72</f>
+              <f>'70531547'!$K$2:$K$73</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$72</f>
+              <f>'70531547'!$A$2:$A$73</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$72</f>
+              <f>'70531547'!$L$2:$L$73</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$72</f>
+              <f>'70531547'!$A$2:$A$73</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$72</f>
+              <f>'70531547'!$M$2:$M$73</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$72</f>
+              <f>'70531547'!$A$2:$A$73</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$72</f>
+              <f>'70531547'!$N$2:$N$73</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N72"/>
+  <dimension ref="A1:N73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4018,6 +4018,46 @@
         <v>963000</v>
       </c>
     </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025-01-02 02:25</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G73" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H73" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I73" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K73" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L73" t="n">
+        <v>1213230</v>
+      </c>
+      <c r="N73" t="n">
+        <v>963000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$73</f>
+              <f>'70531547'!$A$2:$A$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$73</f>
+              <f>'70531547'!$B$2:$B$74</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$73</f>
+              <f>'70531547'!$A$2:$A$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$73</f>
+              <f>'70531547'!$C$2:$C$74</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$73</f>
+              <f>'70531547'!$A$2:$A$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$73</f>
+              <f>'70531547'!$D$2:$D$74</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$73</f>
+              <f>'70531547'!$A$2:$A$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$73</f>
+              <f>'70531547'!$E$2:$E$74</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$73</f>
+              <f>'70531547'!$A$2:$A$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$73</f>
+              <f>'70531547'!$F$2:$F$74</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$73</f>
+              <f>'70531547'!$A$2:$A$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$73</f>
+              <f>'70531547'!$G$2:$G$74</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$73</f>
+              <f>'70531547'!$A$2:$A$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$73</f>
+              <f>'70531547'!$H$2:$H$74</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$73</f>
+              <f>'70531547'!$A$2:$A$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$73</f>
+              <f>'70531547'!$I$2:$I$74</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$73</f>
+              <f>'70531547'!$A$2:$A$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$73</f>
+              <f>'70531547'!$J$2:$J$74</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$73</f>
+              <f>'70531547'!$A$2:$A$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$73</f>
+              <f>'70531547'!$K$2:$K$74</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$73</f>
+              <f>'70531547'!$A$2:$A$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$73</f>
+              <f>'70531547'!$L$2:$L$74</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$73</f>
+              <f>'70531547'!$A$2:$A$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$73</f>
+              <f>'70531547'!$M$2:$M$74</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$73</f>
+              <f>'70531547'!$A$2:$A$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$73</f>
+              <f>'70531547'!$N$2:$N$74</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N73"/>
+  <dimension ref="A1:N74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4058,6 +4058,46 @@
         <v>963000</v>
       </c>
     </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-01-02 02:33</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F74" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H74" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I74" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K74" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L74" t="n">
+        <v>1213230</v>
+      </c>
+      <c r="N74" t="n">
+        <v>963000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$74</f>
+              <f>'70531547'!$A$2:$A$75</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$74</f>
+              <f>'70531547'!$B$2:$B$75</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$74</f>
+              <f>'70531547'!$A$2:$A$75</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$74</f>
+              <f>'70531547'!$C$2:$C$75</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$74</f>
+              <f>'70531547'!$A$2:$A$75</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$74</f>
+              <f>'70531547'!$D$2:$D$75</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$74</f>
+              <f>'70531547'!$A$2:$A$75</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$74</f>
+              <f>'70531547'!$E$2:$E$75</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$74</f>
+              <f>'70531547'!$A$2:$A$75</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$74</f>
+              <f>'70531547'!$F$2:$F$75</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$74</f>
+              <f>'70531547'!$A$2:$A$75</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$74</f>
+              <f>'70531547'!$G$2:$G$75</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$74</f>
+              <f>'70531547'!$A$2:$A$75</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$74</f>
+              <f>'70531547'!$H$2:$H$75</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$74</f>
+              <f>'70531547'!$A$2:$A$75</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$74</f>
+              <f>'70531547'!$I$2:$I$75</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$74</f>
+              <f>'70531547'!$A$2:$A$75</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$74</f>
+              <f>'70531547'!$J$2:$J$75</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$74</f>
+              <f>'70531547'!$A$2:$A$75</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$74</f>
+              <f>'70531547'!$K$2:$K$75</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$74</f>
+              <f>'70531547'!$A$2:$A$75</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$74</f>
+              <f>'70531547'!$L$2:$L$75</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$74</f>
+              <f>'70531547'!$A$2:$A$75</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$74</f>
+              <f>'70531547'!$M$2:$M$75</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$74</f>
+              <f>'70531547'!$A$2:$A$75</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$74</f>
+              <f>'70531547'!$N$2:$N$75</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N74"/>
+  <dimension ref="A1:N75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4098,6 +4098,46 @@
         <v>963000</v>
       </c>
     </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025-01-02 02:41</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>963000</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G75" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H75" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I75" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K75" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L75" t="n">
+        <v>1213230</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$75</f>
+              <f>'70531547'!$A$2:$A$76</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$75</f>
+              <f>'70531547'!$B$2:$B$76</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$75</f>
+              <f>'70531547'!$A$2:$A$76</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$75</f>
+              <f>'70531547'!$C$2:$C$76</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$75</f>
+              <f>'70531547'!$A$2:$A$76</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$75</f>
+              <f>'70531547'!$D$2:$D$76</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$75</f>
+              <f>'70531547'!$A$2:$A$76</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$75</f>
+              <f>'70531547'!$E$2:$E$76</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$75</f>
+              <f>'70531547'!$A$2:$A$76</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$75</f>
+              <f>'70531547'!$F$2:$F$76</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$75</f>
+              <f>'70531547'!$A$2:$A$76</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$75</f>
+              <f>'70531547'!$G$2:$G$76</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$75</f>
+              <f>'70531547'!$A$2:$A$76</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$75</f>
+              <f>'70531547'!$H$2:$H$76</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$75</f>
+              <f>'70531547'!$A$2:$A$76</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$75</f>
+              <f>'70531547'!$I$2:$I$76</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$75</f>
+              <f>'70531547'!$A$2:$A$76</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$75</f>
+              <f>'70531547'!$J$2:$J$76</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$75</f>
+              <f>'70531547'!$A$2:$A$76</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$75</f>
+              <f>'70531547'!$K$2:$K$76</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$75</f>
+              <f>'70531547'!$A$2:$A$76</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$75</f>
+              <f>'70531547'!$L$2:$L$76</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$75</f>
+              <f>'70531547'!$A$2:$A$76</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$75</f>
+              <f>'70531547'!$M$2:$M$76</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$75</f>
+              <f>'70531547'!$A$2:$A$76</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$75</f>
+              <f>'70531547'!$N$2:$N$76</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N75"/>
+  <dimension ref="A1:N76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4138,6 +4138,46 @@
         <v>1213230</v>
       </c>
     </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025-01-02 02:50</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>963000</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G76" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H76" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I76" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K76" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L76" t="n">
+        <v>1213230</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$76</f>
+              <f>'70531547'!$A$2:$A$77</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$76</f>
+              <f>'70531547'!$B$2:$B$77</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$76</f>
+              <f>'70531547'!$A$2:$A$77</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$76</f>
+              <f>'70531547'!$C$2:$C$77</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$76</f>
+              <f>'70531547'!$A$2:$A$77</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$76</f>
+              <f>'70531547'!$D$2:$D$77</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$76</f>
+              <f>'70531547'!$A$2:$A$77</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$76</f>
+              <f>'70531547'!$E$2:$E$77</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$76</f>
+              <f>'70531547'!$A$2:$A$77</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$76</f>
+              <f>'70531547'!$F$2:$F$77</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$76</f>
+              <f>'70531547'!$A$2:$A$77</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$76</f>
+              <f>'70531547'!$G$2:$G$77</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$76</f>
+              <f>'70531547'!$A$2:$A$77</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$76</f>
+              <f>'70531547'!$H$2:$H$77</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$76</f>
+              <f>'70531547'!$A$2:$A$77</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$76</f>
+              <f>'70531547'!$I$2:$I$77</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$76</f>
+              <f>'70531547'!$A$2:$A$77</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$76</f>
+              <f>'70531547'!$J$2:$J$77</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$76</f>
+              <f>'70531547'!$A$2:$A$77</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$76</f>
+              <f>'70531547'!$K$2:$K$77</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$76</f>
+              <f>'70531547'!$A$2:$A$77</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$76</f>
+              <f>'70531547'!$L$2:$L$77</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$76</f>
+              <f>'70531547'!$A$2:$A$77</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$76</f>
+              <f>'70531547'!$M$2:$M$77</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$76</f>
+              <f>'70531547'!$A$2:$A$77</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$76</f>
+              <f>'70531547'!$N$2:$N$77</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N76"/>
+  <dimension ref="A1:N77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4178,6 +4178,46 @@
         <v>1213230</v>
       </c>
     </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-01-02 02:58</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G77" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H77" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I77" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K77" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L77" t="n">
+        <v>1213230</v>
+      </c>
+      <c r="N77" t="n">
+        <v>963000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$77</f>
+              <f>'70531547'!$A$2:$A$78</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$77</f>
+              <f>'70531547'!$B$2:$B$78</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$77</f>
+              <f>'70531547'!$A$2:$A$78</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$77</f>
+              <f>'70531547'!$C$2:$C$78</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$77</f>
+              <f>'70531547'!$A$2:$A$78</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$77</f>
+              <f>'70531547'!$D$2:$D$78</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$77</f>
+              <f>'70531547'!$A$2:$A$78</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$77</f>
+              <f>'70531547'!$E$2:$E$78</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$77</f>
+              <f>'70531547'!$A$2:$A$78</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$77</f>
+              <f>'70531547'!$F$2:$F$78</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$77</f>
+              <f>'70531547'!$A$2:$A$78</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$77</f>
+              <f>'70531547'!$G$2:$G$78</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$77</f>
+              <f>'70531547'!$A$2:$A$78</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$77</f>
+              <f>'70531547'!$H$2:$H$78</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$77</f>
+              <f>'70531547'!$A$2:$A$78</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$77</f>
+              <f>'70531547'!$I$2:$I$78</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$77</f>
+              <f>'70531547'!$A$2:$A$78</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$77</f>
+              <f>'70531547'!$J$2:$J$78</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$77</f>
+              <f>'70531547'!$A$2:$A$78</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$77</f>
+              <f>'70531547'!$K$2:$K$78</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$77</f>
+              <f>'70531547'!$A$2:$A$78</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$77</f>
+              <f>'70531547'!$L$2:$L$78</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$77</f>
+              <f>'70531547'!$A$2:$A$78</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$77</f>
+              <f>'70531547'!$M$2:$M$78</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$77</f>
+              <f>'70531547'!$A$2:$A$78</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$77</f>
+              <f>'70531547'!$N$2:$N$78</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N77"/>
+  <dimension ref="A1:N78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4218,6 +4218,46 @@
         <v>963000</v>
       </c>
     </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2025-01-02 03:09</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>963000</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H78" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I78" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K78" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L78" t="n">
+        <v>1213230</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$78</f>
+              <f>'70531547'!$A$2:$A$79</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$78</f>
+              <f>'70531547'!$B$2:$B$79</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$78</f>
+              <f>'70531547'!$A$2:$A$79</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$78</f>
+              <f>'70531547'!$C$2:$C$79</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$78</f>
+              <f>'70531547'!$A$2:$A$79</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$78</f>
+              <f>'70531547'!$D$2:$D$79</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$78</f>
+              <f>'70531547'!$A$2:$A$79</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$78</f>
+              <f>'70531547'!$E$2:$E$79</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$78</f>
+              <f>'70531547'!$A$2:$A$79</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$78</f>
+              <f>'70531547'!$F$2:$F$79</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$78</f>
+              <f>'70531547'!$A$2:$A$79</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$78</f>
+              <f>'70531547'!$G$2:$G$79</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$78</f>
+              <f>'70531547'!$A$2:$A$79</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$78</f>
+              <f>'70531547'!$H$2:$H$79</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$78</f>
+              <f>'70531547'!$A$2:$A$79</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$78</f>
+              <f>'70531547'!$I$2:$I$79</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$78</f>
+              <f>'70531547'!$A$2:$A$79</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$78</f>
+              <f>'70531547'!$J$2:$J$79</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$78</f>
+              <f>'70531547'!$A$2:$A$79</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$78</f>
+              <f>'70531547'!$K$2:$K$79</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$78</f>
+              <f>'70531547'!$A$2:$A$79</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$78</f>
+              <f>'70531547'!$L$2:$L$79</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$78</f>
+              <f>'70531547'!$A$2:$A$79</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$78</f>
+              <f>'70531547'!$M$2:$M$79</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$78</f>
+              <f>'70531547'!$A$2:$A$79</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$78</f>
+              <f>'70531547'!$N$2:$N$79</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N78"/>
+  <dimension ref="A1:N79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4258,6 +4258,46 @@
         <v>1213230</v>
       </c>
     </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2025-01-02 03:23</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>963000</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G79" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H79" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I79" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J79" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K79" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L79" t="n">
+        <v>1213230</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$79</f>
+              <f>'70531547'!$A$2:$A$80</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$79</f>
+              <f>'70531547'!$B$2:$B$80</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$79</f>
+              <f>'70531547'!$A$2:$A$80</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$79</f>
+              <f>'70531547'!$C$2:$C$80</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$79</f>
+              <f>'70531547'!$A$2:$A$80</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$79</f>
+              <f>'70531547'!$D$2:$D$80</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$79</f>
+              <f>'70531547'!$A$2:$A$80</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$79</f>
+              <f>'70531547'!$E$2:$E$80</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$79</f>
+              <f>'70531547'!$A$2:$A$80</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$79</f>
+              <f>'70531547'!$F$2:$F$80</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$79</f>
+              <f>'70531547'!$A$2:$A$80</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$79</f>
+              <f>'70531547'!$G$2:$G$80</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$79</f>
+              <f>'70531547'!$A$2:$A$80</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$79</f>
+              <f>'70531547'!$H$2:$H$80</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$79</f>
+              <f>'70531547'!$A$2:$A$80</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$79</f>
+              <f>'70531547'!$I$2:$I$80</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$79</f>
+              <f>'70531547'!$A$2:$A$80</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$79</f>
+              <f>'70531547'!$J$2:$J$80</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$79</f>
+              <f>'70531547'!$A$2:$A$80</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$79</f>
+              <f>'70531547'!$K$2:$K$80</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$79</f>
+              <f>'70531547'!$A$2:$A$80</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$79</f>
+              <f>'70531547'!$L$2:$L$80</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$79</f>
+              <f>'70531547'!$A$2:$A$80</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$79</f>
+              <f>'70531547'!$M$2:$M$80</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$79</f>
+              <f>'70531547'!$A$2:$A$80</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$79</f>
+              <f>'70531547'!$N$2:$N$80</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N79"/>
+  <dimension ref="A1:N80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4298,6 +4298,46 @@
         <v>1213230</v>
       </c>
     </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2025-01-02 03:37</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G80" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H80" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I80" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K80" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L80" t="n">
+        <v>1213230</v>
+      </c>
+      <c r="N80" t="n">
+        <v>963000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$80</f>
+              <f>'70531547'!$A$2:$A$81</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$80</f>
+              <f>'70531547'!$B$2:$B$81</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$80</f>
+              <f>'70531547'!$A$2:$A$81</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$80</f>
+              <f>'70531547'!$C$2:$C$81</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$80</f>
+              <f>'70531547'!$A$2:$A$81</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$80</f>
+              <f>'70531547'!$D$2:$D$81</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$80</f>
+              <f>'70531547'!$A$2:$A$81</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$80</f>
+              <f>'70531547'!$E$2:$E$81</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$80</f>
+              <f>'70531547'!$A$2:$A$81</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$80</f>
+              <f>'70531547'!$F$2:$F$81</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$80</f>
+              <f>'70531547'!$A$2:$A$81</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$80</f>
+              <f>'70531547'!$G$2:$G$81</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$80</f>
+              <f>'70531547'!$A$2:$A$81</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$80</f>
+              <f>'70531547'!$H$2:$H$81</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$80</f>
+              <f>'70531547'!$A$2:$A$81</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$80</f>
+              <f>'70531547'!$I$2:$I$81</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$80</f>
+              <f>'70531547'!$A$2:$A$81</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$80</f>
+              <f>'70531547'!$J$2:$J$81</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$80</f>
+              <f>'70531547'!$A$2:$A$81</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$80</f>
+              <f>'70531547'!$K$2:$K$81</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$80</f>
+              <f>'70531547'!$A$2:$A$81</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$80</f>
+              <f>'70531547'!$L$2:$L$81</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$80</f>
+              <f>'70531547'!$A$2:$A$81</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$80</f>
+              <f>'70531547'!$M$2:$M$81</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$80</f>
+              <f>'70531547'!$A$2:$A$81</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$80</f>
+              <f>'70531547'!$N$2:$N$81</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N80"/>
+  <dimension ref="A1:N81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4338,6 +4338,46 @@
         <v>963000</v>
       </c>
     </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2025-01-02 03:45</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>963000</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G81" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H81" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I81" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K81" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L81" t="n">
+        <v>1213230</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$81</f>
+              <f>'70531547'!$A$2:$A$82</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$81</f>
+              <f>'70531547'!$B$2:$B$82</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$81</f>
+              <f>'70531547'!$A$2:$A$82</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$81</f>
+              <f>'70531547'!$C$2:$C$82</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$81</f>
+              <f>'70531547'!$A$2:$A$82</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$81</f>
+              <f>'70531547'!$D$2:$D$82</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$81</f>
+              <f>'70531547'!$A$2:$A$82</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$81</f>
+              <f>'70531547'!$E$2:$E$82</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$81</f>
+              <f>'70531547'!$A$2:$A$82</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$81</f>
+              <f>'70531547'!$F$2:$F$82</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$81</f>
+              <f>'70531547'!$A$2:$A$82</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$81</f>
+              <f>'70531547'!$G$2:$G$82</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$81</f>
+              <f>'70531547'!$A$2:$A$82</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$81</f>
+              <f>'70531547'!$H$2:$H$82</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$81</f>
+              <f>'70531547'!$A$2:$A$82</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$81</f>
+              <f>'70531547'!$I$2:$I$82</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$81</f>
+              <f>'70531547'!$A$2:$A$82</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$81</f>
+              <f>'70531547'!$J$2:$J$82</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$81</f>
+              <f>'70531547'!$A$2:$A$82</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$81</f>
+              <f>'70531547'!$K$2:$K$82</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$81</f>
+              <f>'70531547'!$A$2:$A$82</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$81</f>
+              <f>'70531547'!$L$2:$L$82</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$81</f>
+              <f>'70531547'!$A$2:$A$82</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$81</f>
+              <f>'70531547'!$M$2:$M$82</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$81</f>
+              <f>'70531547'!$A$2:$A$82</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$81</f>
+              <f>'70531547'!$N$2:$N$82</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N81"/>
+  <dimension ref="A1:N82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4378,6 +4378,46 @@
         <v>1213230</v>
       </c>
     </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025-01-02 03:54</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>963000</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F82" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G82" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H82" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I82" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K82" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L82" t="n">
+        <v>1213230</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$82</f>
+              <f>'70531547'!$A$2:$A$83</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$82</f>
+              <f>'70531547'!$B$2:$B$83</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$82</f>
+              <f>'70531547'!$A$2:$A$83</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$82</f>
+              <f>'70531547'!$C$2:$C$83</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$82</f>
+              <f>'70531547'!$A$2:$A$83</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$82</f>
+              <f>'70531547'!$D$2:$D$83</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$82</f>
+              <f>'70531547'!$A$2:$A$83</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$82</f>
+              <f>'70531547'!$E$2:$E$83</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$82</f>
+              <f>'70531547'!$A$2:$A$83</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$82</f>
+              <f>'70531547'!$F$2:$F$83</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$82</f>
+              <f>'70531547'!$A$2:$A$83</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$82</f>
+              <f>'70531547'!$G$2:$G$83</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$82</f>
+              <f>'70531547'!$A$2:$A$83</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$82</f>
+              <f>'70531547'!$H$2:$H$83</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$82</f>
+              <f>'70531547'!$A$2:$A$83</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$82</f>
+              <f>'70531547'!$I$2:$I$83</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$82</f>
+              <f>'70531547'!$A$2:$A$83</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$82</f>
+              <f>'70531547'!$J$2:$J$83</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$82</f>
+              <f>'70531547'!$A$2:$A$83</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$82</f>
+              <f>'70531547'!$K$2:$K$83</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$82</f>
+              <f>'70531547'!$A$2:$A$83</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$82</f>
+              <f>'70531547'!$L$2:$L$83</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$82</f>
+              <f>'70531547'!$A$2:$A$83</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$82</f>
+              <f>'70531547'!$M$2:$M$83</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$82</f>
+              <f>'70531547'!$A$2:$A$83</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$82</f>
+              <f>'70531547'!$N$2:$N$83</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N82"/>
+  <dimension ref="A1:N83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4418,6 +4418,46 @@
         <v>1213230</v>
       </c>
     </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2025-01-02 04:03</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>963000</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G83" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H83" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I83" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K83" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L83" t="n">
+        <v>1213230</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$83</f>
+              <f>'70531547'!$A$2:$A$84</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$83</f>
+              <f>'70531547'!$B$2:$B$84</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$83</f>
+              <f>'70531547'!$A$2:$A$84</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$83</f>
+              <f>'70531547'!$C$2:$C$84</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$83</f>
+              <f>'70531547'!$A$2:$A$84</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$83</f>
+              <f>'70531547'!$D$2:$D$84</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$83</f>
+              <f>'70531547'!$A$2:$A$84</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$83</f>
+              <f>'70531547'!$E$2:$E$84</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$83</f>
+              <f>'70531547'!$A$2:$A$84</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$83</f>
+              <f>'70531547'!$F$2:$F$84</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$83</f>
+              <f>'70531547'!$A$2:$A$84</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$83</f>
+              <f>'70531547'!$G$2:$G$84</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$83</f>
+              <f>'70531547'!$A$2:$A$84</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$83</f>
+              <f>'70531547'!$H$2:$H$84</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$83</f>
+              <f>'70531547'!$A$2:$A$84</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$83</f>
+              <f>'70531547'!$I$2:$I$84</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$83</f>
+              <f>'70531547'!$A$2:$A$84</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$83</f>
+              <f>'70531547'!$J$2:$J$84</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$83</f>
+              <f>'70531547'!$A$2:$A$84</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$83</f>
+              <f>'70531547'!$K$2:$K$84</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$83</f>
+              <f>'70531547'!$A$2:$A$84</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$83</f>
+              <f>'70531547'!$L$2:$L$84</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$83</f>
+              <f>'70531547'!$A$2:$A$84</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$83</f>
+              <f>'70531547'!$M$2:$M$84</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$83</f>
+              <f>'70531547'!$A$2:$A$84</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$83</f>
+              <f>'70531547'!$N$2:$N$84</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N83"/>
+  <dimension ref="A1:N84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4458,6 +4458,46 @@
         <v>1213230</v>
       </c>
     </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2025-01-02 04:13</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G84" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H84" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I84" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K84" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L84" t="n">
+        <v>1213230</v>
+      </c>
+      <c r="N84" t="n">
+        <v>963000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$84</f>
+              <f>'70531547'!$A$2:$A$85</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$84</f>
+              <f>'70531547'!$B$2:$B$85</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$84</f>
+              <f>'70531547'!$A$2:$A$85</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$84</f>
+              <f>'70531547'!$C$2:$C$85</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$84</f>
+              <f>'70531547'!$A$2:$A$85</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$84</f>
+              <f>'70531547'!$D$2:$D$85</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$84</f>
+              <f>'70531547'!$A$2:$A$85</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$84</f>
+              <f>'70531547'!$E$2:$E$85</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$84</f>
+              <f>'70531547'!$A$2:$A$85</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$84</f>
+              <f>'70531547'!$F$2:$F$85</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$84</f>
+              <f>'70531547'!$A$2:$A$85</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$84</f>
+              <f>'70531547'!$G$2:$G$85</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$84</f>
+              <f>'70531547'!$A$2:$A$85</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$84</f>
+              <f>'70531547'!$H$2:$H$85</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$84</f>
+              <f>'70531547'!$A$2:$A$85</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$84</f>
+              <f>'70531547'!$I$2:$I$85</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$84</f>
+              <f>'70531547'!$A$2:$A$85</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$84</f>
+              <f>'70531547'!$J$2:$J$85</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$84</f>
+              <f>'70531547'!$A$2:$A$85</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$84</f>
+              <f>'70531547'!$K$2:$K$85</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$84</f>
+              <f>'70531547'!$A$2:$A$85</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$84</f>
+              <f>'70531547'!$L$2:$L$85</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$84</f>
+              <f>'70531547'!$A$2:$A$85</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$84</f>
+              <f>'70531547'!$M$2:$M$85</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$84</f>
+              <f>'70531547'!$A$2:$A$85</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$84</f>
+              <f>'70531547'!$N$2:$N$85</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N84"/>
+  <dimension ref="A1:N85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4498,6 +4498,46 @@
         <v>963000</v>
       </c>
     </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2025-01-02 04:23</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H85" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I85" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K85" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L85" t="n">
+        <v>1213230</v>
+      </c>
+      <c r="N85" t="n">
+        <v>963000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$85</f>
+              <f>'70531547'!$A$2:$A$86</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$85</f>
+              <f>'70531547'!$B$2:$B$86</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$85</f>
+              <f>'70531547'!$A$2:$A$86</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$85</f>
+              <f>'70531547'!$C$2:$C$86</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$85</f>
+              <f>'70531547'!$A$2:$A$86</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$85</f>
+              <f>'70531547'!$D$2:$D$86</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$85</f>
+              <f>'70531547'!$A$2:$A$86</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$85</f>
+              <f>'70531547'!$E$2:$E$86</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$85</f>
+              <f>'70531547'!$A$2:$A$86</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$85</f>
+              <f>'70531547'!$F$2:$F$86</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$85</f>
+              <f>'70531547'!$A$2:$A$86</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$85</f>
+              <f>'70531547'!$G$2:$G$86</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$85</f>
+              <f>'70531547'!$A$2:$A$86</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$85</f>
+              <f>'70531547'!$H$2:$H$86</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$85</f>
+              <f>'70531547'!$A$2:$A$86</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$85</f>
+              <f>'70531547'!$I$2:$I$86</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$85</f>
+              <f>'70531547'!$A$2:$A$86</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$85</f>
+              <f>'70531547'!$J$2:$J$86</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$85</f>
+              <f>'70531547'!$A$2:$A$86</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$85</f>
+              <f>'70531547'!$K$2:$K$86</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$85</f>
+              <f>'70531547'!$A$2:$A$86</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$85</f>
+              <f>'70531547'!$L$2:$L$86</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$85</f>
+              <f>'70531547'!$A$2:$A$86</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$85</f>
+              <f>'70531547'!$M$2:$M$86</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$85</f>
+              <f>'70531547'!$A$2:$A$86</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$85</f>
+              <f>'70531547'!$N$2:$N$86</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N85"/>
+  <dimension ref="A1:N86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4538,6 +4538,46 @@
         <v>963000</v>
       </c>
     </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2025-01-02 04:31</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>963000</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H86" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I86" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K86" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L86" t="n">
+        <v>1213230</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$86</f>
+              <f>'70531547'!$A$2:$A$87</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$86</f>
+              <f>'70531547'!$B$2:$B$87</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$86</f>
+              <f>'70531547'!$A$2:$A$87</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$86</f>
+              <f>'70531547'!$C$2:$C$87</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$86</f>
+              <f>'70531547'!$A$2:$A$87</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$86</f>
+              <f>'70531547'!$D$2:$D$87</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$86</f>
+              <f>'70531547'!$A$2:$A$87</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$86</f>
+              <f>'70531547'!$E$2:$E$87</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$86</f>
+              <f>'70531547'!$A$2:$A$87</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$86</f>
+              <f>'70531547'!$F$2:$F$87</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$86</f>
+              <f>'70531547'!$A$2:$A$87</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$86</f>
+              <f>'70531547'!$G$2:$G$87</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$86</f>
+              <f>'70531547'!$A$2:$A$87</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$86</f>
+              <f>'70531547'!$H$2:$H$87</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$86</f>
+              <f>'70531547'!$A$2:$A$87</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$86</f>
+              <f>'70531547'!$I$2:$I$87</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$86</f>
+              <f>'70531547'!$A$2:$A$87</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$86</f>
+              <f>'70531547'!$J$2:$J$87</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$86</f>
+              <f>'70531547'!$A$2:$A$87</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$86</f>
+              <f>'70531547'!$K$2:$K$87</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$86</f>
+              <f>'70531547'!$A$2:$A$87</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$86</f>
+              <f>'70531547'!$L$2:$L$87</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$86</f>
+              <f>'70531547'!$A$2:$A$87</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$86</f>
+              <f>'70531547'!$M$2:$M$87</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$86</f>
+              <f>'70531547'!$A$2:$A$87</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$86</f>
+              <f>'70531547'!$N$2:$N$87</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N86"/>
+  <dimension ref="A1:N87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4578,6 +4578,46 @@
         <v>1213230</v>
       </c>
     </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2025-01-02 04:39</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G87" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H87" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I87" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J87" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K87" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L87" t="n">
+        <v>1213230</v>
+      </c>
+      <c r="N87" t="n">
+        <v>963000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$87</f>
+              <f>'70531547'!$A$2:$A$88</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$87</f>
+              <f>'70531547'!$B$2:$B$88</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$87</f>
+              <f>'70531547'!$A$2:$A$88</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$87</f>
+              <f>'70531547'!$C$2:$C$88</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$87</f>
+              <f>'70531547'!$A$2:$A$88</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$87</f>
+              <f>'70531547'!$D$2:$D$88</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$87</f>
+              <f>'70531547'!$A$2:$A$88</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$87</f>
+              <f>'70531547'!$E$2:$E$88</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$87</f>
+              <f>'70531547'!$A$2:$A$88</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$87</f>
+              <f>'70531547'!$F$2:$F$88</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$87</f>
+              <f>'70531547'!$A$2:$A$88</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$87</f>
+              <f>'70531547'!$G$2:$G$88</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$87</f>
+              <f>'70531547'!$A$2:$A$88</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$87</f>
+              <f>'70531547'!$H$2:$H$88</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$87</f>
+              <f>'70531547'!$A$2:$A$88</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$87</f>
+              <f>'70531547'!$I$2:$I$88</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$87</f>
+              <f>'70531547'!$A$2:$A$88</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$87</f>
+              <f>'70531547'!$J$2:$J$88</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$87</f>
+              <f>'70531547'!$A$2:$A$88</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$87</f>
+              <f>'70531547'!$K$2:$K$88</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$87</f>
+              <f>'70531547'!$A$2:$A$88</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$87</f>
+              <f>'70531547'!$L$2:$L$88</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$87</f>
+              <f>'70531547'!$A$2:$A$88</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$87</f>
+              <f>'70531547'!$M$2:$M$88</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$87</f>
+              <f>'70531547'!$A$2:$A$88</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$87</f>
+              <f>'70531547'!$N$2:$N$88</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N87"/>
+  <dimension ref="A1:N88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4618,6 +4618,46 @@
         <v>963000</v>
       </c>
     </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2025-01-02 04:49</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G88" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H88" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I88" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K88" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L88" t="n">
+        <v>1213230</v>
+      </c>
+      <c r="N88" t="n">
+        <v>963000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$88</f>
+              <f>'70531547'!$A$2:$A$89</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$88</f>
+              <f>'70531547'!$B$2:$B$89</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$88</f>
+              <f>'70531547'!$A$2:$A$89</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$88</f>
+              <f>'70531547'!$C$2:$C$89</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$88</f>
+              <f>'70531547'!$A$2:$A$89</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$88</f>
+              <f>'70531547'!$D$2:$D$89</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$88</f>
+              <f>'70531547'!$A$2:$A$89</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$88</f>
+              <f>'70531547'!$E$2:$E$89</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$88</f>
+              <f>'70531547'!$A$2:$A$89</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$88</f>
+              <f>'70531547'!$F$2:$F$89</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$88</f>
+              <f>'70531547'!$A$2:$A$89</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$88</f>
+              <f>'70531547'!$G$2:$G$89</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$88</f>
+              <f>'70531547'!$A$2:$A$89</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$88</f>
+              <f>'70531547'!$H$2:$H$89</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$88</f>
+              <f>'70531547'!$A$2:$A$89</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$88</f>
+              <f>'70531547'!$I$2:$I$89</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$88</f>
+              <f>'70531547'!$A$2:$A$89</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$88</f>
+              <f>'70531547'!$J$2:$J$89</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$88</f>
+              <f>'70531547'!$A$2:$A$89</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$88</f>
+              <f>'70531547'!$K$2:$K$89</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$88</f>
+              <f>'70531547'!$A$2:$A$89</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$88</f>
+              <f>'70531547'!$L$2:$L$89</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$88</f>
+              <f>'70531547'!$A$2:$A$89</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$88</f>
+              <f>'70531547'!$M$2:$M$89</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$88</f>
+              <f>'70531547'!$A$2:$A$89</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$88</f>
+              <f>'70531547'!$N$2:$N$89</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N88"/>
+  <dimension ref="A1:N89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4658,6 +4658,46 @@
         <v>963000</v>
       </c>
     </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2025-01-02 04:56</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G89" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H89" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I89" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K89" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L89" t="n">
+        <v>1213230</v>
+      </c>
+      <c r="N89" t="n">
+        <v>963000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$89</f>
+              <f>'70531547'!$A$2:$A$90</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$89</f>
+              <f>'70531547'!$B$2:$B$90</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$89</f>
+              <f>'70531547'!$A$2:$A$90</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$89</f>
+              <f>'70531547'!$C$2:$C$90</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$89</f>
+              <f>'70531547'!$A$2:$A$90</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$89</f>
+              <f>'70531547'!$D$2:$D$90</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$89</f>
+              <f>'70531547'!$A$2:$A$90</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$89</f>
+              <f>'70531547'!$E$2:$E$90</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$89</f>
+              <f>'70531547'!$A$2:$A$90</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$89</f>
+              <f>'70531547'!$F$2:$F$90</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$89</f>
+              <f>'70531547'!$A$2:$A$90</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$89</f>
+              <f>'70531547'!$G$2:$G$90</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$89</f>
+              <f>'70531547'!$A$2:$A$90</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$89</f>
+              <f>'70531547'!$H$2:$H$90</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$89</f>
+              <f>'70531547'!$A$2:$A$90</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$89</f>
+              <f>'70531547'!$I$2:$I$90</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$89</f>
+              <f>'70531547'!$A$2:$A$90</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$89</f>
+              <f>'70531547'!$J$2:$J$90</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$89</f>
+              <f>'70531547'!$A$2:$A$90</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$89</f>
+              <f>'70531547'!$K$2:$K$90</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$89</f>
+              <f>'70531547'!$A$2:$A$90</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$89</f>
+              <f>'70531547'!$L$2:$L$90</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$89</f>
+              <f>'70531547'!$A$2:$A$90</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$89</f>
+              <f>'70531547'!$M$2:$M$90</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$89</f>
+              <f>'70531547'!$A$2:$A$90</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$89</f>
+              <f>'70531547'!$N$2:$N$90</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N89"/>
+  <dimension ref="A1:N90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4698,6 +4698,46 @@
         <v>963000</v>
       </c>
     </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2025-01-02 05:06</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G90" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H90" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I90" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K90" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L90" t="n">
+        <v>1213230</v>
+      </c>
+      <c r="N90" t="n">
+        <v>963000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$90</f>
+              <f>'70531547'!$A$2:$A$91</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$90</f>
+              <f>'70531547'!$B$2:$B$91</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$90</f>
+              <f>'70531547'!$A$2:$A$91</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$90</f>
+              <f>'70531547'!$C$2:$C$91</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$90</f>
+              <f>'70531547'!$A$2:$A$91</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$90</f>
+              <f>'70531547'!$D$2:$D$91</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$90</f>
+              <f>'70531547'!$A$2:$A$91</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$90</f>
+              <f>'70531547'!$E$2:$E$91</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$90</f>
+              <f>'70531547'!$A$2:$A$91</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$90</f>
+              <f>'70531547'!$F$2:$F$91</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$90</f>
+              <f>'70531547'!$A$2:$A$91</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$90</f>
+              <f>'70531547'!$G$2:$G$91</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$90</f>
+              <f>'70531547'!$A$2:$A$91</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$90</f>
+              <f>'70531547'!$H$2:$H$91</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$90</f>
+              <f>'70531547'!$A$2:$A$91</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$90</f>
+              <f>'70531547'!$I$2:$I$91</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$90</f>
+              <f>'70531547'!$A$2:$A$91</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$90</f>
+              <f>'70531547'!$J$2:$J$91</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$90</f>
+              <f>'70531547'!$A$2:$A$91</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$90</f>
+              <f>'70531547'!$K$2:$K$91</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$90</f>
+              <f>'70531547'!$A$2:$A$91</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$90</f>
+              <f>'70531547'!$L$2:$L$91</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$90</f>
+              <f>'70531547'!$A$2:$A$91</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$90</f>
+              <f>'70531547'!$M$2:$M$91</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$90</f>
+              <f>'70531547'!$A$2:$A$91</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$90</f>
+              <f>'70531547'!$N$2:$N$91</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N90"/>
+  <dimension ref="A1:N91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4738,6 +4738,46 @@
         <v>963000</v>
       </c>
     </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2025-01-02 05:20</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>963000</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G91" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H91" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I91" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K91" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L91" t="n">
+        <v>1213230</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$91</f>
+              <f>'70531547'!$A$2:$A$92</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$91</f>
+              <f>'70531547'!$B$2:$B$92</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$91</f>
+              <f>'70531547'!$A$2:$A$92</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$91</f>
+              <f>'70531547'!$C$2:$C$92</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$91</f>
+              <f>'70531547'!$A$2:$A$92</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$91</f>
+              <f>'70531547'!$D$2:$D$92</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$91</f>
+              <f>'70531547'!$A$2:$A$92</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$91</f>
+              <f>'70531547'!$E$2:$E$92</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$91</f>
+              <f>'70531547'!$A$2:$A$92</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$91</f>
+              <f>'70531547'!$F$2:$F$92</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$91</f>
+              <f>'70531547'!$A$2:$A$92</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$91</f>
+              <f>'70531547'!$G$2:$G$92</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$91</f>
+              <f>'70531547'!$A$2:$A$92</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$91</f>
+              <f>'70531547'!$H$2:$H$92</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$91</f>
+              <f>'70531547'!$A$2:$A$92</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$91</f>
+              <f>'70531547'!$I$2:$I$92</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$91</f>
+              <f>'70531547'!$A$2:$A$92</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$91</f>
+              <f>'70531547'!$J$2:$J$92</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$91</f>
+              <f>'70531547'!$A$2:$A$92</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$91</f>
+              <f>'70531547'!$K$2:$K$92</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$91</f>
+              <f>'70531547'!$A$2:$A$92</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$91</f>
+              <f>'70531547'!$L$2:$L$92</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$91</f>
+              <f>'70531547'!$A$2:$A$92</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$91</f>
+              <f>'70531547'!$M$2:$M$92</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$91</f>
+              <f>'70531547'!$A$2:$A$92</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$91</f>
+              <f>'70531547'!$N$2:$N$92</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N91"/>
+  <dimension ref="A1:N92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4778,6 +4778,46 @@
         <v>1213230</v>
       </c>
     </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2025-01-02 05:29</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>963000</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G92" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H92" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I92" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K92" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L92" t="n">
+        <v>1213230</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$92</f>
+              <f>'70531547'!$A$2:$A$93</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$92</f>
+              <f>'70531547'!$B$2:$B$93</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$92</f>
+              <f>'70531547'!$A$2:$A$93</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$92</f>
+              <f>'70531547'!$C$2:$C$93</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$92</f>
+              <f>'70531547'!$A$2:$A$93</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$92</f>
+              <f>'70531547'!$D$2:$D$93</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$92</f>
+              <f>'70531547'!$A$2:$A$93</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$92</f>
+              <f>'70531547'!$E$2:$E$93</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$92</f>
+              <f>'70531547'!$A$2:$A$93</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$92</f>
+              <f>'70531547'!$F$2:$F$93</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$92</f>
+              <f>'70531547'!$A$2:$A$93</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$92</f>
+              <f>'70531547'!$G$2:$G$93</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$92</f>
+              <f>'70531547'!$A$2:$A$93</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$92</f>
+              <f>'70531547'!$H$2:$H$93</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$92</f>
+              <f>'70531547'!$A$2:$A$93</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$92</f>
+              <f>'70531547'!$I$2:$I$93</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$92</f>
+              <f>'70531547'!$A$2:$A$93</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$92</f>
+              <f>'70531547'!$J$2:$J$93</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$92</f>
+              <f>'70531547'!$A$2:$A$93</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$92</f>
+              <f>'70531547'!$K$2:$K$93</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$92</f>
+              <f>'70531547'!$A$2:$A$93</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$92</f>
+              <f>'70531547'!$L$2:$L$93</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$92</f>
+              <f>'70531547'!$A$2:$A$93</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$92</f>
+              <f>'70531547'!$M$2:$M$93</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$92</f>
+              <f>'70531547'!$A$2:$A$93</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$92</f>
+              <f>'70531547'!$N$2:$N$93</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N92"/>
+  <dimension ref="A1:N93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4818,6 +4818,46 @@
         <v>1213230</v>
       </c>
     </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2025-01-02 05:39</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>963000</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F93" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G93" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H93" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I93" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K93" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L93" t="n">
+        <v>1213230</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$93</f>
+              <f>'70531547'!$A$2:$A$94</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$93</f>
+              <f>'70531547'!$B$2:$B$94</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$93</f>
+              <f>'70531547'!$A$2:$A$94</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$93</f>
+              <f>'70531547'!$C$2:$C$94</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$93</f>
+              <f>'70531547'!$A$2:$A$94</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$93</f>
+              <f>'70531547'!$D$2:$D$94</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$93</f>
+              <f>'70531547'!$A$2:$A$94</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$93</f>
+              <f>'70531547'!$E$2:$E$94</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$93</f>
+              <f>'70531547'!$A$2:$A$94</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$93</f>
+              <f>'70531547'!$F$2:$F$94</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$93</f>
+              <f>'70531547'!$A$2:$A$94</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$93</f>
+              <f>'70531547'!$G$2:$G$94</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$93</f>
+              <f>'70531547'!$A$2:$A$94</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$93</f>
+              <f>'70531547'!$H$2:$H$94</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$93</f>
+              <f>'70531547'!$A$2:$A$94</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$93</f>
+              <f>'70531547'!$I$2:$I$94</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$93</f>
+              <f>'70531547'!$A$2:$A$94</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$93</f>
+              <f>'70531547'!$J$2:$J$94</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$93</f>
+              <f>'70531547'!$A$2:$A$94</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$93</f>
+              <f>'70531547'!$K$2:$K$94</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$93</f>
+              <f>'70531547'!$A$2:$A$94</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$93</f>
+              <f>'70531547'!$L$2:$L$94</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$93</f>
+              <f>'70531547'!$A$2:$A$94</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$93</f>
+              <f>'70531547'!$M$2:$M$94</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$93</f>
+              <f>'70531547'!$A$2:$A$94</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$93</f>
+              <f>'70531547'!$N$2:$N$94</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N93"/>
+  <dimension ref="A1:N94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4858,6 +4858,46 @@
         <v>1213230</v>
       </c>
     </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2025-01-02 05:47</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>963000</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G94" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H94" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I94" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K94" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L94" t="n">
+        <v>1213230</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$94</f>
+              <f>'70531547'!$A$2:$A$95</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$94</f>
+              <f>'70531547'!$B$2:$B$95</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$94</f>
+              <f>'70531547'!$A$2:$A$95</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$94</f>
+              <f>'70531547'!$C$2:$C$95</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$94</f>
+              <f>'70531547'!$A$2:$A$95</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$94</f>
+              <f>'70531547'!$D$2:$D$95</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$94</f>
+              <f>'70531547'!$A$2:$A$95</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$94</f>
+              <f>'70531547'!$E$2:$E$95</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$94</f>
+              <f>'70531547'!$A$2:$A$95</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$94</f>
+              <f>'70531547'!$F$2:$F$95</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$94</f>
+              <f>'70531547'!$A$2:$A$95</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$94</f>
+              <f>'70531547'!$G$2:$G$95</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$94</f>
+              <f>'70531547'!$A$2:$A$95</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$94</f>
+              <f>'70531547'!$H$2:$H$95</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$94</f>
+              <f>'70531547'!$A$2:$A$95</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$94</f>
+              <f>'70531547'!$I$2:$I$95</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$94</f>
+              <f>'70531547'!$A$2:$A$95</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$94</f>
+              <f>'70531547'!$J$2:$J$95</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$94</f>
+              <f>'70531547'!$A$2:$A$95</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$94</f>
+              <f>'70531547'!$K$2:$K$95</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$94</f>
+              <f>'70531547'!$A$2:$A$95</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$94</f>
+              <f>'70531547'!$L$2:$L$95</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$94</f>
+              <f>'70531547'!$A$2:$A$95</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$94</f>
+              <f>'70531547'!$M$2:$M$95</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$94</f>
+              <f>'70531547'!$A$2:$A$95</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$94</f>
+              <f>'70531547'!$N$2:$N$95</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N94"/>
+  <dimension ref="A1:N95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4898,6 +4898,46 @@
         <v>1213230</v>
       </c>
     </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2025-01-02 05:55</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D95" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G95" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H95" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I95" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K95" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L95" t="n">
+        <v>1213230</v>
+      </c>
+      <c r="N95" t="n">
+        <v>963000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$95</f>
+              <f>'70531547'!$A$2:$A$96</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$95</f>
+              <f>'70531547'!$B$2:$B$96</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$95</f>
+              <f>'70531547'!$A$2:$A$96</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$95</f>
+              <f>'70531547'!$C$2:$C$96</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$95</f>
+              <f>'70531547'!$A$2:$A$96</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$95</f>
+              <f>'70531547'!$D$2:$D$96</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$95</f>
+              <f>'70531547'!$A$2:$A$96</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$95</f>
+              <f>'70531547'!$E$2:$E$96</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$95</f>
+              <f>'70531547'!$A$2:$A$96</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$95</f>
+              <f>'70531547'!$F$2:$F$96</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$95</f>
+              <f>'70531547'!$A$2:$A$96</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$95</f>
+              <f>'70531547'!$G$2:$G$96</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$95</f>
+              <f>'70531547'!$A$2:$A$96</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$95</f>
+              <f>'70531547'!$H$2:$H$96</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$95</f>
+              <f>'70531547'!$A$2:$A$96</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$95</f>
+              <f>'70531547'!$I$2:$I$96</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$95</f>
+              <f>'70531547'!$A$2:$A$96</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$95</f>
+              <f>'70531547'!$J$2:$J$96</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$95</f>
+              <f>'70531547'!$A$2:$A$96</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$95</f>
+              <f>'70531547'!$K$2:$K$96</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$95</f>
+              <f>'70531547'!$A$2:$A$96</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$95</f>
+              <f>'70531547'!$L$2:$L$96</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$95</f>
+              <f>'70531547'!$A$2:$A$96</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$95</f>
+              <f>'70531547'!$M$2:$M$96</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$95</f>
+              <f>'70531547'!$A$2:$A$96</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$95</f>
+              <f>'70531547'!$N$2:$N$96</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N95"/>
+  <dimension ref="A1:N96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4938,6 +4938,46 @@
         <v>963000</v>
       </c>
     </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2025-01-02 06:05</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>963000</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G96" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H96" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I96" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K96" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L96" t="n">
+        <v>1213230</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$96</f>
+              <f>'70531547'!$A$2:$A$97</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$96</f>
+              <f>'70531547'!$B$2:$B$97</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$96</f>
+              <f>'70531547'!$A$2:$A$97</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$96</f>
+              <f>'70531547'!$C$2:$C$97</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$96</f>
+              <f>'70531547'!$A$2:$A$97</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$96</f>
+              <f>'70531547'!$D$2:$D$97</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$96</f>
+              <f>'70531547'!$A$2:$A$97</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$96</f>
+              <f>'70531547'!$E$2:$E$97</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$96</f>
+              <f>'70531547'!$A$2:$A$97</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$96</f>
+              <f>'70531547'!$F$2:$F$97</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$96</f>
+              <f>'70531547'!$A$2:$A$97</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$96</f>
+              <f>'70531547'!$G$2:$G$97</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$96</f>
+              <f>'70531547'!$A$2:$A$97</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$96</f>
+              <f>'70531547'!$H$2:$H$97</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$96</f>
+              <f>'70531547'!$A$2:$A$97</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$96</f>
+              <f>'70531547'!$I$2:$I$97</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$96</f>
+              <f>'70531547'!$A$2:$A$97</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$96</f>
+              <f>'70531547'!$J$2:$J$97</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$96</f>
+              <f>'70531547'!$A$2:$A$97</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$96</f>
+              <f>'70531547'!$K$2:$K$97</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$96</f>
+              <f>'70531547'!$A$2:$A$97</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$96</f>
+              <f>'70531547'!$L$2:$L$97</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$96</f>
+              <f>'70531547'!$A$2:$A$97</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$96</f>
+              <f>'70531547'!$M$2:$M$97</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$96</f>
+              <f>'70531547'!$A$2:$A$97</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$96</f>
+              <f>'70531547'!$N$2:$N$97</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N96"/>
+  <dimension ref="A1:N97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4978,6 +4978,46 @@
         <v>1213230</v>
       </c>
     </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2025-01-02 06:17</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D97" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G97" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H97" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I97" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K97" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L97" t="n">
+        <v>1213230</v>
+      </c>
+      <c r="N97" t="n">
+        <v>963000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$97</f>
+              <f>'70531547'!$A$2:$A$98</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$97</f>
+              <f>'70531547'!$B$2:$B$98</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$97</f>
+              <f>'70531547'!$A$2:$A$98</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$97</f>
+              <f>'70531547'!$C$2:$C$98</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$97</f>
+              <f>'70531547'!$A$2:$A$98</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$97</f>
+              <f>'70531547'!$D$2:$D$98</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$97</f>
+              <f>'70531547'!$A$2:$A$98</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$97</f>
+              <f>'70531547'!$E$2:$E$98</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$97</f>
+              <f>'70531547'!$A$2:$A$98</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$97</f>
+              <f>'70531547'!$F$2:$F$98</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$97</f>
+              <f>'70531547'!$A$2:$A$98</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$97</f>
+              <f>'70531547'!$G$2:$G$98</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$97</f>
+              <f>'70531547'!$A$2:$A$98</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$97</f>
+              <f>'70531547'!$H$2:$H$98</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$97</f>
+              <f>'70531547'!$A$2:$A$98</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$97</f>
+              <f>'70531547'!$I$2:$I$98</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$97</f>
+              <f>'70531547'!$A$2:$A$98</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$97</f>
+              <f>'70531547'!$J$2:$J$98</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$97</f>
+              <f>'70531547'!$A$2:$A$98</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$97</f>
+              <f>'70531547'!$K$2:$K$98</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$97</f>
+              <f>'70531547'!$A$2:$A$98</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$97</f>
+              <f>'70531547'!$L$2:$L$98</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$97</f>
+              <f>'70531547'!$A$2:$A$98</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$97</f>
+              <f>'70531547'!$M$2:$M$98</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$97</f>
+              <f>'70531547'!$A$2:$A$98</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$97</f>
+              <f>'70531547'!$N$2:$N$98</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N97"/>
+  <dimension ref="A1:N98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5018,6 +5018,46 @@
         <v>963000</v>
       </c>
     </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2025-01-02 06:27</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>963000</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D98" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G98" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H98" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I98" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K98" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L98" t="n">
+        <v>1213230</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$98</f>
+              <f>'70531547'!$A$2:$A$99</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$98</f>
+              <f>'70531547'!$B$2:$B$99</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$98</f>
+              <f>'70531547'!$A$2:$A$99</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$98</f>
+              <f>'70531547'!$C$2:$C$99</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$98</f>
+              <f>'70531547'!$A$2:$A$99</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$98</f>
+              <f>'70531547'!$D$2:$D$99</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$98</f>
+              <f>'70531547'!$A$2:$A$99</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$98</f>
+              <f>'70531547'!$E$2:$E$99</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$98</f>
+              <f>'70531547'!$A$2:$A$99</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$98</f>
+              <f>'70531547'!$F$2:$F$99</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$98</f>
+              <f>'70531547'!$A$2:$A$99</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$98</f>
+              <f>'70531547'!$G$2:$G$99</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$98</f>
+              <f>'70531547'!$A$2:$A$99</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$98</f>
+              <f>'70531547'!$H$2:$H$99</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$98</f>
+              <f>'70531547'!$A$2:$A$99</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$98</f>
+              <f>'70531547'!$I$2:$I$99</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$98</f>
+              <f>'70531547'!$A$2:$A$99</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$98</f>
+              <f>'70531547'!$J$2:$J$99</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$98</f>
+              <f>'70531547'!$A$2:$A$99</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$98</f>
+              <f>'70531547'!$K$2:$K$99</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$98</f>
+              <f>'70531547'!$A$2:$A$99</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$98</f>
+              <f>'70531547'!$L$2:$L$99</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$98</f>
+              <f>'70531547'!$A$2:$A$99</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$98</f>
+              <f>'70531547'!$M$2:$M$99</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$98</f>
+              <f>'70531547'!$A$2:$A$99</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$98</f>
+              <f>'70531547'!$N$2:$N$99</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N98"/>
+  <dimension ref="A1:N99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5058,6 +5058,46 @@
         <v>1213230</v>
       </c>
     </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2025-01-02 06:37</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D99" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E99" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G99" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H99" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I99" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K99" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L99" t="n">
+        <v>1213230</v>
+      </c>
+      <c r="N99" t="n">
+        <v>963000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$99</f>
+              <f>'70531547'!$A$2:$A$100</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$99</f>
+              <f>'70531547'!$B$2:$B$100</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$99</f>
+              <f>'70531547'!$A$2:$A$100</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$99</f>
+              <f>'70531547'!$C$2:$C$100</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$99</f>
+              <f>'70531547'!$A$2:$A$100</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$99</f>
+              <f>'70531547'!$D$2:$D$100</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$99</f>
+              <f>'70531547'!$A$2:$A$100</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$99</f>
+              <f>'70531547'!$E$2:$E$100</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$99</f>
+              <f>'70531547'!$A$2:$A$100</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$99</f>
+              <f>'70531547'!$F$2:$F$100</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$99</f>
+              <f>'70531547'!$A$2:$A$100</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$99</f>
+              <f>'70531547'!$G$2:$G$100</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$99</f>
+              <f>'70531547'!$A$2:$A$100</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$99</f>
+              <f>'70531547'!$H$2:$H$100</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$99</f>
+              <f>'70531547'!$A$2:$A$100</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$99</f>
+              <f>'70531547'!$I$2:$I$100</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$99</f>
+              <f>'70531547'!$A$2:$A$100</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$99</f>
+              <f>'70531547'!$J$2:$J$100</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$99</f>
+              <f>'70531547'!$A$2:$A$100</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$99</f>
+              <f>'70531547'!$K$2:$K$100</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$99</f>
+              <f>'70531547'!$A$2:$A$100</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$99</f>
+              <f>'70531547'!$L$2:$L$100</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$99</f>
+              <f>'70531547'!$A$2:$A$100</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$99</f>
+              <f>'70531547'!$M$2:$M$100</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$99</f>
+              <f>'70531547'!$A$2:$A$100</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$99</f>
+              <f>'70531547'!$N$2:$N$100</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N99"/>
+  <dimension ref="A1:N100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5098,6 +5098,46 @@
         <v>963000</v>
       </c>
     </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2025-01-02 06:45</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>963000</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D100" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F100" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G100" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H100" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I100" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K100" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L100" t="n">
+        <v>1213230</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$100</f>
+              <f>'70531547'!$A$2:$A$101</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$100</f>
+              <f>'70531547'!$B$2:$B$101</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$100</f>
+              <f>'70531547'!$A$2:$A$101</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$100</f>
+              <f>'70531547'!$C$2:$C$101</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$100</f>
+              <f>'70531547'!$A$2:$A$101</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$100</f>
+              <f>'70531547'!$D$2:$D$101</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$100</f>
+              <f>'70531547'!$A$2:$A$101</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$100</f>
+              <f>'70531547'!$E$2:$E$101</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$100</f>
+              <f>'70531547'!$A$2:$A$101</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$100</f>
+              <f>'70531547'!$F$2:$F$101</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$100</f>
+              <f>'70531547'!$A$2:$A$101</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$100</f>
+              <f>'70531547'!$G$2:$G$101</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$100</f>
+              <f>'70531547'!$A$2:$A$101</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$100</f>
+              <f>'70531547'!$H$2:$H$101</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$100</f>
+              <f>'70531547'!$A$2:$A$101</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$100</f>
+              <f>'70531547'!$I$2:$I$101</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$100</f>
+              <f>'70531547'!$A$2:$A$101</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$100</f>
+              <f>'70531547'!$J$2:$J$101</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$100</f>
+              <f>'70531547'!$A$2:$A$101</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$100</f>
+              <f>'70531547'!$K$2:$K$101</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$100</f>
+              <f>'70531547'!$A$2:$A$101</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$100</f>
+              <f>'70531547'!$L$2:$L$101</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$100</f>
+              <f>'70531547'!$A$2:$A$101</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$100</f>
+              <f>'70531547'!$M$2:$M$101</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$100</f>
+              <f>'70531547'!$A$2:$A$101</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$100</f>
+              <f>'70531547'!$N$2:$N$101</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N100"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5138,6 +5138,46 @@
         <v>1213230</v>
       </c>
     </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2025-01-02 06:53</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D101" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G101" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H101" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I101" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K101" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L101" t="n">
+        <v>1213230</v>
+      </c>
+      <c r="N101" t="n">
+        <v>963000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$101</f>
+              <f>'70531547'!$A$2:$A$102</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$101</f>
+              <f>'70531547'!$B$2:$B$102</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$101</f>
+              <f>'70531547'!$A$2:$A$102</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$101</f>
+              <f>'70531547'!$C$2:$C$102</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$101</f>
+              <f>'70531547'!$A$2:$A$102</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$101</f>
+              <f>'70531547'!$D$2:$D$102</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$101</f>
+              <f>'70531547'!$A$2:$A$102</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$101</f>
+              <f>'70531547'!$E$2:$E$102</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$101</f>
+              <f>'70531547'!$A$2:$A$102</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$101</f>
+              <f>'70531547'!$F$2:$F$102</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$101</f>
+              <f>'70531547'!$A$2:$A$102</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$101</f>
+              <f>'70531547'!$G$2:$G$102</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$101</f>
+              <f>'70531547'!$A$2:$A$102</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$101</f>
+              <f>'70531547'!$H$2:$H$102</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$101</f>
+              <f>'70531547'!$A$2:$A$102</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$101</f>
+              <f>'70531547'!$I$2:$I$102</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$101</f>
+              <f>'70531547'!$A$2:$A$102</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$101</f>
+              <f>'70531547'!$J$2:$J$102</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$101</f>
+              <f>'70531547'!$A$2:$A$102</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$101</f>
+              <f>'70531547'!$K$2:$K$102</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$101</f>
+              <f>'70531547'!$A$2:$A$102</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$101</f>
+              <f>'70531547'!$L$2:$L$102</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$101</f>
+              <f>'70531547'!$A$2:$A$102</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$101</f>
+              <f>'70531547'!$M$2:$M$102</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$101</f>
+              <f>'70531547'!$A$2:$A$102</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$101</f>
+              <f>'70531547'!$N$2:$N$102</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:N102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5178,6 +5178,46 @@
         <v>963000</v>
       </c>
     </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2025-01-02 07:02</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D102" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G102" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H102" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I102" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J102" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K102" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L102" t="n">
+        <v>1213230</v>
+      </c>
+      <c r="N102" t="n">
+        <v>963000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$102</f>
+              <f>'70531547'!$A$2:$A$103</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$102</f>
+              <f>'70531547'!$B$2:$B$103</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$102</f>
+              <f>'70531547'!$A$2:$A$103</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$102</f>
+              <f>'70531547'!$C$2:$C$103</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$102</f>
+              <f>'70531547'!$A$2:$A$103</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$102</f>
+              <f>'70531547'!$D$2:$D$103</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$102</f>
+              <f>'70531547'!$A$2:$A$103</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$102</f>
+              <f>'70531547'!$E$2:$E$103</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$102</f>
+              <f>'70531547'!$A$2:$A$103</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$102</f>
+              <f>'70531547'!$F$2:$F$103</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$102</f>
+              <f>'70531547'!$A$2:$A$103</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$102</f>
+              <f>'70531547'!$G$2:$G$103</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$102</f>
+              <f>'70531547'!$A$2:$A$103</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$102</f>
+              <f>'70531547'!$H$2:$H$103</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$102</f>
+              <f>'70531547'!$A$2:$A$103</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$102</f>
+              <f>'70531547'!$I$2:$I$103</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$102</f>
+              <f>'70531547'!$A$2:$A$103</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$102</f>
+              <f>'70531547'!$J$2:$J$103</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$102</f>
+              <f>'70531547'!$A$2:$A$103</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$102</f>
+              <f>'70531547'!$K$2:$K$103</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$102</f>
+              <f>'70531547'!$A$2:$A$103</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$102</f>
+              <f>'70531547'!$L$2:$L$103</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$102</f>
+              <f>'70531547'!$A$2:$A$103</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$102</f>
+              <f>'70531547'!$M$2:$M$103</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$102</f>
+              <f>'70531547'!$A$2:$A$103</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$102</f>
+              <f>'70531547'!$N$2:$N$103</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N102"/>
+  <dimension ref="A1:N103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5218,6 +5218,46 @@
         <v>963000</v>
       </c>
     </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2025-01-02 07:15</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D103" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E103" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F103" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G103" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H103" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I103" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J103" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K103" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L103" t="n">
+        <v>1213230</v>
+      </c>
+      <c r="N103" t="n">
+        <v>963000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$103</f>
+              <f>'70531547'!$A$2:$A$104</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$103</f>
+              <f>'70531547'!$B$2:$B$104</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$103</f>
+              <f>'70531547'!$A$2:$A$104</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$103</f>
+              <f>'70531547'!$C$2:$C$104</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$103</f>
+              <f>'70531547'!$A$2:$A$104</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$103</f>
+              <f>'70531547'!$D$2:$D$104</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$103</f>
+              <f>'70531547'!$A$2:$A$104</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$103</f>
+              <f>'70531547'!$E$2:$E$104</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$103</f>
+              <f>'70531547'!$A$2:$A$104</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$103</f>
+              <f>'70531547'!$F$2:$F$104</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$103</f>
+              <f>'70531547'!$A$2:$A$104</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$103</f>
+              <f>'70531547'!$G$2:$G$104</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$103</f>
+              <f>'70531547'!$A$2:$A$104</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$103</f>
+              <f>'70531547'!$H$2:$H$104</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$103</f>
+              <f>'70531547'!$A$2:$A$104</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$103</f>
+              <f>'70531547'!$I$2:$I$104</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$103</f>
+              <f>'70531547'!$A$2:$A$104</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$103</f>
+              <f>'70531547'!$J$2:$J$104</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$103</f>
+              <f>'70531547'!$A$2:$A$104</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$103</f>
+              <f>'70531547'!$K$2:$K$104</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$103</f>
+              <f>'70531547'!$A$2:$A$104</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$103</f>
+              <f>'70531547'!$L$2:$L$104</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$103</f>
+              <f>'70531547'!$A$2:$A$104</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$103</f>
+              <f>'70531547'!$M$2:$M$104</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$103</f>
+              <f>'70531547'!$A$2:$A$104</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$103</f>
+              <f>'70531547'!$N$2:$N$104</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N103"/>
+  <dimension ref="A1:N104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5258,6 +5258,46 @@
         <v>963000</v>
       </c>
     </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2025-01-02 07:27</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D104" t="n">
+        <v>1078980</v>
+      </c>
+      <c r="E104" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F104" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G104" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H104" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I104" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J104" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K104" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L104" t="n">
+        <v>1213230</v>
+      </c>
+      <c r="N104" t="n">
+        <v>963000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$104</f>
+              <f>'70531547'!$A$2:$A$105</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$104</f>
+              <f>'70531547'!$B$2:$B$105</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$104</f>
+              <f>'70531547'!$A$2:$A$105</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$104</f>
+              <f>'70531547'!$C$2:$C$105</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$104</f>
+              <f>'70531547'!$A$2:$A$105</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$104</f>
+              <f>'70531547'!$D$2:$D$105</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$104</f>
+              <f>'70531547'!$A$2:$A$105</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$104</f>
+              <f>'70531547'!$E$2:$E$105</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$104</f>
+              <f>'70531547'!$A$2:$A$105</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$104</f>
+              <f>'70531547'!$F$2:$F$105</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$104</f>
+              <f>'70531547'!$A$2:$A$105</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$104</f>
+              <f>'70531547'!$G$2:$G$105</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$104</f>
+              <f>'70531547'!$A$2:$A$105</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$104</f>
+              <f>'70531547'!$H$2:$H$105</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$104</f>
+              <f>'70531547'!$A$2:$A$105</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$104</f>
+              <f>'70531547'!$I$2:$I$105</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$104</f>
+              <f>'70531547'!$A$2:$A$105</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$104</f>
+              <f>'70531547'!$J$2:$J$105</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$104</f>
+              <f>'70531547'!$A$2:$A$105</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$104</f>
+              <f>'70531547'!$K$2:$K$105</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$104</f>
+              <f>'70531547'!$A$2:$A$105</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$104</f>
+              <f>'70531547'!$L$2:$L$105</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$104</f>
+              <f>'70531547'!$A$2:$A$105</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$104</f>
+              <f>'70531547'!$M$2:$M$105</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$104</f>
+              <f>'70531547'!$A$2:$A$105</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$104</f>
+              <f>'70531547'!$N$2:$N$105</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N104"/>
+  <dimension ref="A1:N105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5298,6 +5298,46 @@
         <v>963000</v>
       </c>
     </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2025-01-02 07:35</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D105" t="n">
+        <v>1078960</v>
+      </c>
+      <c r="E105" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G105" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H105" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I105" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J105" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K105" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L105" t="n">
+        <v>1213230</v>
+      </c>
+      <c r="N105" t="n">
+        <v>963000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$105</f>
+              <f>'70531547'!$A$2:$A$106</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$105</f>
+              <f>'70531547'!$B$2:$B$106</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$105</f>
+              <f>'70531547'!$A$2:$A$106</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$105</f>
+              <f>'70531547'!$C$2:$C$106</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$105</f>
+              <f>'70531547'!$A$2:$A$106</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$105</f>
+              <f>'70531547'!$D$2:$D$106</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$105</f>
+              <f>'70531547'!$A$2:$A$106</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$105</f>
+              <f>'70531547'!$E$2:$E$106</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$105</f>
+              <f>'70531547'!$A$2:$A$106</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$105</f>
+              <f>'70531547'!$F$2:$F$106</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$105</f>
+              <f>'70531547'!$A$2:$A$106</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$105</f>
+              <f>'70531547'!$G$2:$G$106</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$105</f>
+              <f>'70531547'!$A$2:$A$106</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$105</f>
+              <f>'70531547'!$H$2:$H$106</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$105</f>
+              <f>'70531547'!$A$2:$A$106</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$105</f>
+              <f>'70531547'!$I$2:$I$106</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$105</f>
+              <f>'70531547'!$A$2:$A$106</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$105</f>
+              <f>'70531547'!$J$2:$J$106</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$105</f>
+              <f>'70531547'!$A$2:$A$106</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$105</f>
+              <f>'70531547'!$K$2:$K$106</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$105</f>
+              <f>'70531547'!$A$2:$A$106</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$105</f>
+              <f>'70531547'!$L$2:$L$106</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$105</f>
+              <f>'70531547'!$A$2:$A$106</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$105</f>
+              <f>'70531547'!$M$2:$M$106</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$105</f>
+              <f>'70531547'!$A$2:$A$106</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$105</f>
+              <f>'70531547'!$N$2:$N$106</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N105"/>
+  <dimension ref="A1:N106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5338,6 +5338,46 @@
         <v>963000</v>
       </c>
     </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2025-01-02 07:44</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>963000</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D106" t="n">
+        <v>1078960</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G106" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H106" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I106" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J106" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K106" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L106" t="n">
+        <v>1213230</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$106</f>
+              <f>'70531547'!$A$2:$A$107</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$106</f>
+              <f>'70531547'!$B$2:$B$107</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$106</f>
+              <f>'70531547'!$A$2:$A$107</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$106</f>
+              <f>'70531547'!$C$2:$C$107</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$106</f>
+              <f>'70531547'!$A$2:$A$107</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$106</f>
+              <f>'70531547'!$D$2:$D$107</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$106</f>
+              <f>'70531547'!$A$2:$A$107</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$106</f>
+              <f>'70531547'!$E$2:$E$107</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$106</f>
+              <f>'70531547'!$A$2:$A$107</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$106</f>
+              <f>'70531547'!$F$2:$F$107</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$106</f>
+              <f>'70531547'!$A$2:$A$107</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$106</f>
+              <f>'70531547'!$G$2:$G$107</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$106</f>
+              <f>'70531547'!$A$2:$A$107</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$106</f>
+              <f>'70531547'!$H$2:$H$107</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$106</f>
+              <f>'70531547'!$A$2:$A$107</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$106</f>
+              <f>'70531547'!$I$2:$I$107</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$106</f>
+              <f>'70531547'!$A$2:$A$107</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$106</f>
+              <f>'70531547'!$J$2:$J$107</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$106</f>
+              <f>'70531547'!$A$2:$A$107</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$106</f>
+              <f>'70531547'!$K$2:$K$107</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$106</f>
+              <f>'70531547'!$A$2:$A$107</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$106</f>
+              <f>'70531547'!$L$2:$L$107</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$106</f>
+              <f>'70531547'!$A$2:$A$107</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$106</f>
+              <f>'70531547'!$M$2:$M$107</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$106</f>
+              <f>'70531547'!$A$2:$A$107</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$106</f>
+              <f>'70531547'!$N$2:$N$107</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N106"/>
+  <dimension ref="A1:N107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5378,6 +5378,46 @@
         <v>1213230</v>
       </c>
     </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2025-01-02 07:53</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>963000</v>
+      </c>
+      <c r="C107" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D107" t="n">
+        <v>1078960</v>
+      </c>
+      <c r="E107" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G107" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H107" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I107" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J107" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K107" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L107" t="n">
+        <v>1213230</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$107</f>
+              <f>'70531547'!$A$2:$A$108</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$107</f>
+              <f>'70531547'!$B$2:$B$108</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$107</f>
+              <f>'70531547'!$A$2:$A$108</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$107</f>
+              <f>'70531547'!$C$2:$C$108</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$107</f>
+              <f>'70531547'!$A$2:$A$108</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$107</f>
+              <f>'70531547'!$D$2:$D$108</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$107</f>
+              <f>'70531547'!$A$2:$A$108</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$107</f>
+              <f>'70531547'!$E$2:$E$108</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$107</f>
+              <f>'70531547'!$A$2:$A$108</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$107</f>
+              <f>'70531547'!$F$2:$F$108</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$107</f>
+              <f>'70531547'!$A$2:$A$108</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$107</f>
+              <f>'70531547'!$G$2:$G$108</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$107</f>
+              <f>'70531547'!$A$2:$A$108</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$107</f>
+              <f>'70531547'!$H$2:$H$108</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$107</f>
+              <f>'70531547'!$A$2:$A$108</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$107</f>
+              <f>'70531547'!$I$2:$I$108</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$107</f>
+              <f>'70531547'!$A$2:$A$108</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$107</f>
+              <f>'70531547'!$J$2:$J$108</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$107</f>
+              <f>'70531547'!$A$2:$A$108</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$107</f>
+              <f>'70531547'!$K$2:$K$108</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$107</f>
+              <f>'70531547'!$A$2:$A$108</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$107</f>
+              <f>'70531547'!$L$2:$L$108</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$107</f>
+              <f>'70531547'!$A$2:$A$108</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$107</f>
+              <f>'70531547'!$M$2:$M$108</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$107</f>
+              <f>'70531547'!$A$2:$A$108</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$107</f>
+              <f>'70531547'!$N$2:$N$108</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N107"/>
+  <dimension ref="A1:N108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5418,6 +5418,46 @@
         <v>1213230</v>
       </c>
     </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2025-01-02 08:09</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>963000</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D108" t="n">
+        <v>1078960</v>
+      </c>
+      <c r="E108" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F108" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G108" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H108" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I108" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J108" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K108" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L108" t="n">
+        <v>1213230</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$108</f>
+              <f>'70531547'!$A$2:$A$109</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$108</f>
+              <f>'70531547'!$B$2:$B$109</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$108</f>
+              <f>'70531547'!$A$2:$A$109</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$108</f>
+              <f>'70531547'!$C$2:$C$109</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$108</f>
+              <f>'70531547'!$A$2:$A$109</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$108</f>
+              <f>'70531547'!$D$2:$D$109</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$108</f>
+              <f>'70531547'!$A$2:$A$109</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$108</f>
+              <f>'70531547'!$E$2:$E$109</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$108</f>
+              <f>'70531547'!$A$2:$A$109</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$108</f>
+              <f>'70531547'!$F$2:$F$109</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$108</f>
+              <f>'70531547'!$A$2:$A$109</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$108</f>
+              <f>'70531547'!$G$2:$G$109</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$108</f>
+              <f>'70531547'!$A$2:$A$109</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$108</f>
+              <f>'70531547'!$H$2:$H$109</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$108</f>
+              <f>'70531547'!$A$2:$A$109</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$108</f>
+              <f>'70531547'!$I$2:$I$109</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$108</f>
+              <f>'70531547'!$A$2:$A$109</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$108</f>
+              <f>'70531547'!$J$2:$J$109</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$108</f>
+              <f>'70531547'!$A$2:$A$109</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$108</f>
+              <f>'70531547'!$K$2:$K$109</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$108</f>
+              <f>'70531547'!$A$2:$A$109</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$108</f>
+              <f>'70531547'!$L$2:$L$109</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$108</f>
+              <f>'70531547'!$A$2:$A$109</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$108</f>
+              <f>'70531547'!$M$2:$M$109</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$108</f>
+              <f>'70531547'!$A$2:$A$109</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$108</f>
+              <f>'70531547'!$N$2:$N$109</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N108"/>
+  <dimension ref="A1:N109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5458,6 +5458,46 @@
         <v>1213230</v>
       </c>
     </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2025-01-02 08:46</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>963000</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D109" t="n">
+        <v>1078960</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G109" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H109" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I109" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J109" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K109" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L109" t="n">
+        <v>1213230</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$109</f>
+              <f>'70531547'!$A$2:$A$110</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$109</f>
+              <f>'70531547'!$B$2:$B$110</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$109</f>
+              <f>'70531547'!$A$2:$A$110</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$109</f>
+              <f>'70531547'!$C$2:$C$110</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$109</f>
+              <f>'70531547'!$A$2:$A$110</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$109</f>
+              <f>'70531547'!$D$2:$D$110</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$109</f>
+              <f>'70531547'!$A$2:$A$110</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$109</f>
+              <f>'70531547'!$E$2:$E$110</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$109</f>
+              <f>'70531547'!$A$2:$A$110</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$109</f>
+              <f>'70531547'!$F$2:$F$110</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$109</f>
+              <f>'70531547'!$A$2:$A$110</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$109</f>
+              <f>'70531547'!$G$2:$G$110</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$109</f>
+              <f>'70531547'!$A$2:$A$110</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$109</f>
+              <f>'70531547'!$H$2:$H$110</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$109</f>
+              <f>'70531547'!$A$2:$A$110</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$109</f>
+              <f>'70531547'!$I$2:$I$110</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$109</f>
+              <f>'70531547'!$A$2:$A$110</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$109</f>
+              <f>'70531547'!$J$2:$J$110</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$109</f>
+              <f>'70531547'!$A$2:$A$110</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$109</f>
+              <f>'70531547'!$K$2:$K$110</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$109</f>
+              <f>'70531547'!$A$2:$A$110</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$109</f>
+              <f>'70531547'!$L$2:$L$110</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$109</f>
+              <f>'70531547'!$A$2:$A$110</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$109</f>
+              <f>'70531547'!$M$2:$M$110</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$109</f>
+              <f>'70531547'!$A$2:$A$110</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$109</f>
+              <f>'70531547'!$N$2:$N$110</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N109"/>
+  <dimension ref="A1:N110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5498,6 +5498,46 @@
         <v>1213230</v>
       </c>
     </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2025-01-02 09:18</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D110" t="n">
+        <v>1078960</v>
+      </c>
+      <c r="E110" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G110" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H110" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I110" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J110" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K110" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L110" t="n">
+        <v>1213230</v>
+      </c>
+      <c r="N110" t="n">
+        <v>963000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$110</f>
+              <f>'70531547'!$A$2:$A$111</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$110</f>
+              <f>'70531547'!$B$2:$B$111</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$110</f>
+              <f>'70531547'!$A$2:$A$111</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$110</f>
+              <f>'70531547'!$C$2:$C$111</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$110</f>
+              <f>'70531547'!$A$2:$A$111</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$110</f>
+              <f>'70531547'!$D$2:$D$111</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$110</f>
+              <f>'70531547'!$A$2:$A$111</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$110</f>
+              <f>'70531547'!$E$2:$E$111</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$110</f>
+              <f>'70531547'!$A$2:$A$111</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$110</f>
+              <f>'70531547'!$F$2:$F$111</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$110</f>
+              <f>'70531547'!$A$2:$A$111</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$110</f>
+              <f>'70531547'!$G$2:$G$111</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$110</f>
+              <f>'70531547'!$A$2:$A$111</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$110</f>
+              <f>'70531547'!$H$2:$H$111</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$110</f>
+              <f>'70531547'!$A$2:$A$111</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$110</f>
+              <f>'70531547'!$I$2:$I$111</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$110</f>
+              <f>'70531547'!$A$2:$A$111</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$110</f>
+              <f>'70531547'!$J$2:$J$111</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$110</f>
+              <f>'70531547'!$A$2:$A$111</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$110</f>
+              <f>'70531547'!$K$2:$K$111</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$110</f>
+              <f>'70531547'!$A$2:$A$111</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$110</f>
+              <f>'70531547'!$L$2:$L$111</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$110</f>
+              <f>'70531547'!$A$2:$A$111</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$110</f>
+              <f>'70531547'!$M$2:$M$111</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$110</f>
+              <f>'70531547'!$A$2:$A$111</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$110</f>
+              <f>'70531547'!$N$2:$N$111</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N110"/>
+  <dimension ref="A1:N111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5538,6 +5538,46 @@
         <v>963000</v>
       </c>
     </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2025-01-02 10:32</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>963000</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D111" t="n">
+        <v>1078960</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F111" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G111" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H111" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I111" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J111" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K111" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L111" t="n">
+        <v>1213230</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$111</f>
+              <f>'70531547'!$A$2:$A$112</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$111</f>
+              <f>'70531547'!$B$2:$B$112</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$111</f>
+              <f>'70531547'!$A$2:$A$112</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$111</f>
+              <f>'70531547'!$C$2:$C$112</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$111</f>
+              <f>'70531547'!$A$2:$A$112</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$111</f>
+              <f>'70531547'!$D$2:$D$112</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$111</f>
+              <f>'70531547'!$A$2:$A$112</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$111</f>
+              <f>'70531547'!$E$2:$E$112</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$111</f>
+              <f>'70531547'!$A$2:$A$112</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$111</f>
+              <f>'70531547'!$F$2:$F$112</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$111</f>
+              <f>'70531547'!$A$2:$A$112</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$111</f>
+              <f>'70531547'!$G$2:$G$112</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$111</f>
+              <f>'70531547'!$A$2:$A$112</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$111</f>
+              <f>'70531547'!$H$2:$H$112</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$111</f>
+              <f>'70531547'!$A$2:$A$112</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$111</f>
+              <f>'70531547'!$I$2:$I$112</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$111</f>
+              <f>'70531547'!$A$2:$A$112</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$111</f>
+              <f>'70531547'!$J$2:$J$112</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$111</f>
+              <f>'70531547'!$A$2:$A$112</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$111</f>
+              <f>'70531547'!$K$2:$K$112</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$111</f>
+              <f>'70531547'!$A$2:$A$112</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$111</f>
+              <f>'70531547'!$L$2:$L$112</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$111</f>
+              <f>'70531547'!$A$2:$A$112</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$111</f>
+              <f>'70531547'!$M$2:$M$112</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$111</f>
+              <f>'70531547'!$A$2:$A$112</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$111</f>
+              <f>'70531547'!$N$2:$N$112</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N111"/>
+  <dimension ref="A1:N112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5578,6 +5578,46 @@
         <v>1213230</v>
       </c>
     </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2025-01-02 11:27</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>963000</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D112" t="n">
+        <v>1078960</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G112" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H112" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I112" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J112" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K112" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L112" t="n">
+        <v>1213230</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$112</f>
+              <f>'70531547'!$A$2:$A$113</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$112</f>
+              <f>'70531547'!$B$2:$B$113</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$112</f>
+              <f>'70531547'!$A$2:$A$113</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$112</f>
+              <f>'70531547'!$C$2:$C$113</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$112</f>
+              <f>'70531547'!$A$2:$A$113</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$112</f>
+              <f>'70531547'!$D$2:$D$113</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$112</f>
+              <f>'70531547'!$A$2:$A$113</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$112</f>
+              <f>'70531547'!$E$2:$E$113</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$112</f>
+              <f>'70531547'!$A$2:$A$113</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$112</f>
+              <f>'70531547'!$F$2:$F$113</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$112</f>
+              <f>'70531547'!$A$2:$A$113</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$112</f>
+              <f>'70531547'!$G$2:$G$113</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$112</f>
+              <f>'70531547'!$A$2:$A$113</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$112</f>
+              <f>'70531547'!$H$2:$H$113</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$112</f>
+              <f>'70531547'!$A$2:$A$113</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$112</f>
+              <f>'70531547'!$I$2:$I$113</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$112</f>
+              <f>'70531547'!$A$2:$A$113</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$112</f>
+              <f>'70531547'!$J$2:$J$113</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$112</f>
+              <f>'70531547'!$A$2:$A$113</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$112</f>
+              <f>'70531547'!$K$2:$K$113</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$112</f>
+              <f>'70531547'!$A$2:$A$113</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$112</f>
+              <f>'70531547'!$L$2:$L$113</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$112</f>
+              <f>'70531547'!$A$2:$A$113</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$112</f>
+              <f>'70531547'!$M$2:$M$113</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$112</f>
+              <f>'70531547'!$A$2:$A$113</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$112</f>
+              <f>'70531547'!$N$2:$N$113</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N112"/>
+  <dimension ref="A1:N113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5618,6 +5618,46 @@
         <v>1213230</v>
       </c>
     </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2025-01-02 12:07</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D113" t="n">
+        <v>1078960</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F113" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G113" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H113" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I113" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J113" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K113" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L113" t="n">
+        <v>1213230</v>
+      </c>
+      <c r="N113" t="n">
+        <v>963000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$113</f>
+              <f>'70531547'!$A$2:$A$114</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$113</f>
+              <f>'70531547'!$B$2:$B$114</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$113</f>
+              <f>'70531547'!$A$2:$A$114</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$113</f>
+              <f>'70531547'!$C$2:$C$114</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$113</f>
+              <f>'70531547'!$A$2:$A$114</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$113</f>
+              <f>'70531547'!$D$2:$D$114</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$113</f>
+              <f>'70531547'!$A$2:$A$114</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$113</f>
+              <f>'70531547'!$E$2:$E$114</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$113</f>
+              <f>'70531547'!$A$2:$A$114</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$113</f>
+              <f>'70531547'!$F$2:$F$114</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$113</f>
+              <f>'70531547'!$A$2:$A$114</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$113</f>
+              <f>'70531547'!$G$2:$G$114</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$113</f>
+              <f>'70531547'!$A$2:$A$114</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$113</f>
+              <f>'70531547'!$H$2:$H$114</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$113</f>
+              <f>'70531547'!$A$2:$A$114</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$113</f>
+              <f>'70531547'!$I$2:$I$114</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$113</f>
+              <f>'70531547'!$A$2:$A$114</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$113</f>
+              <f>'70531547'!$J$2:$J$114</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$113</f>
+              <f>'70531547'!$A$2:$A$114</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$113</f>
+              <f>'70531547'!$K$2:$K$114</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$113</f>
+              <f>'70531547'!$A$2:$A$114</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$113</f>
+              <f>'70531547'!$L$2:$L$114</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$113</f>
+              <f>'70531547'!$A$2:$A$114</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$113</f>
+              <f>'70531547'!$M$2:$M$114</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$113</f>
+              <f>'70531547'!$A$2:$A$114</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$113</f>
+              <f>'70531547'!$N$2:$N$114</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N113"/>
+  <dimension ref="A1:N114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5658,6 +5658,46 @@
         <v>963000</v>
       </c>
     </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2025-01-02 13:05</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D114" t="n">
+        <v>1078960</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F114" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G114" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H114" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I114" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J114" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K114" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L114" t="n">
+        <v>1213230</v>
+      </c>
+      <c r="N114" t="n">
+        <v>963000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$114</f>
+              <f>'70531547'!$A$2:$A$115</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$114</f>
+              <f>'70531547'!$B$2:$B$115</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$114</f>
+              <f>'70531547'!$A$2:$A$115</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$114</f>
+              <f>'70531547'!$C$2:$C$115</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$114</f>
+              <f>'70531547'!$A$2:$A$115</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$114</f>
+              <f>'70531547'!$D$2:$D$115</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$114</f>
+              <f>'70531547'!$A$2:$A$115</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$114</f>
+              <f>'70531547'!$E$2:$E$115</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$114</f>
+              <f>'70531547'!$A$2:$A$115</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$114</f>
+              <f>'70531547'!$F$2:$F$115</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$114</f>
+              <f>'70531547'!$A$2:$A$115</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$114</f>
+              <f>'70531547'!$G$2:$G$115</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$114</f>
+              <f>'70531547'!$A$2:$A$115</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$114</f>
+              <f>'70531547'!$H$2:$H$115</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$114</f>
+              <f>'70531547'!$A$2:$A$115</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$114</f>
+              <f>'70531547'!$I$2:$I$115</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$114</f>
+              <f>'70531547'!$A$2:$A$115</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$114</f>
+              <f>'70531547'!$J$2:$J$115</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$114</f>
+              <f>'70531547'!$A$2:$A$115</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$114</f>
+              <f>'70531547'!$K$2:$K$115</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$114</f>
+              <f>'70531547'!$A$2:$A$115</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$114</f>
+              <f>'70531547'!$L$2:$L$115</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$114</f>
+              <f>'70531547'!$A$2:$A$115</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$114</f>
+              <f>'70531547'!$M$2:$M$115</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$114</f>
+              <f>'70531547'!$A$2:$A$115</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$114</f>
+              <f>'70531547'!$N$2:$N$115</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N114"/>
+  <dimension ref="A1:N115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5698,6 +5698,46 @@
         <v>963000</v>
       </c>
     </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2025-01-02 14:05</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D115" t="n">
+        <v>1078960</v>
+      </c>
+      <c r="E115" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G115" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H115" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I115" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J115" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K115" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L115" t="n">
+        <v>1213230</v>
+      </c>
+      <c r="N115" t="n">
+        <v>963000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$115</f>
+              <f>'70531547'!$A$2:$A$116</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$115</f>
+              <f>'70531547'!$B$2:$B$116</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$115</f>
+              <f>'70531547'!$A$2:$A$116</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$115</f>
+              <f>'70531547'!$C$2:$C$116</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$115</f>
+              <f>'70531547'!$A$2:$A$116</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$115</f>
+              <f>'70531547'!$D$2:$D$116</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$115</f>
+              <f>'70531547'!$A$2:$A$116</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$115</f>
+              <f>'70531547'!$E$2:$E$116</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$115</f>
+              <f>'70531547'!$A$2:$A$116</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$115</f>
+              <f>'70531547'!$F$2:$F$116</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$115</f>
+              <f>'70531547'!$A$2:$A$116</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$115</f>
+              <f>'70531547'!$G$2:$G$116</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$115</f>
+              <f>'70531547'!$A$2:$A$116</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$115</f>
+              <f>'70531547'!$H$2:$H$116</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$115</f>
+              <f>'70531547'!$A$2:$A$116</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$115</f>
+              <f>'70531547'!$I$2:$I$116</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$115</f>
+              <f>'70531547'!$A$2:$A$116</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$115</f>
+              <f>'70531547'!$J$2:$J$116</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$115</f>
+              <f>'70531547'!$A$2:$A$116</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$115</f>
+              <f>'70531547'!$K$2:$K$116</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$115</f>
+              <f>'70531547'!$A$2:$A$116</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$115</f>
+              <f>'70531547'!$L$2:$L$116</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$115</f>
+              <f>'70531547'!$A$2:$A$116</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$115</f>
+              <f>'70531547'!$M$2:$M$116</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$115</f>
+              <f>'70531547'!$A$2:$A$116</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$115</f>
+              <f>'70531547'!$N$2:$N$116</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N115"/>
+  <dimension ref="A1:N116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5738,6 +5738,46 @@
         <v>963000</v>
       </c>
     </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2025-01-02 15:06</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>963000</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D116" t="n">
+        <v>1078960</v>
+      </c>
+      <c r="E116" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I116" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J116" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K116" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L116" t="n">
+        <v>1151160</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$116</f>
+              <f>'70531547'!$A$2:$A$117</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$116</f>
+              <f>'70531547'!$B$2:$B$117</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$116</f>
+              <f>'70531547'!$A$2:$A$117</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$116</f>
+              <f>'70531547'!$C$2:$C$117</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$116</f>
+              <f>'70531547'!$A$2:$A$117</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$116</f>
+              <f>'70531547'!$D$2:$D$117</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$116</f>
+              <f>'70531547'!$A$2:$A$117</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$116</f>
+              <f>'70531547'!$E$2:$E$117</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$116</f>
+              <f>'70531547'!$A$2:$A$117</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$116</f>
+              <f>'70531547'!$F$2:$F$117</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$116</f>
+              <f>'70531547'!$A$2:$A$117</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$116</f>
+              <f>'70531547'!$G$2:$G$117</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$116</f>
+              <f>'70531547'!$A$2:$A$117</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$116</f>
+              <f>'70531547'!$H$2:$H$117</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$116</f>
+              <f>'70531547'!$A$2:$A$117</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$116</f>
+              <f>'70531547'!$I$2:$I$117</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$116</f>
+              <f>'70531547'!$A$2:$A$117</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$116</f>
+              <f>'70531547'!$J$2:$J$117</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$116</f>
+              <f>'70531547'!$A$2:$A$117</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$116</f>
+              <f>'70531547'!$K$2:$K$117</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$116</f>
+              <f>'70531547'!$A$2:$A$117</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$116</f>
+              <f>'70531547'!$L$2:$L$117</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$116</f>
+              <f>'70531547'!$A$2:$A$117</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$116</f>
+              <f>'70531547'!$M$2:$M$117</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$116</f>
+              <f>'70531547'!$A$2:$A$117</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$116</f>
+              <f>'70531547'!$N$2:$N$117</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5778,6 +5778,46 @@
         <v>1151160</v>
       </c>
     </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2025-01-02 16:06</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>963000</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D117" t="n">
+        <v>1078960</v>
+      </c>
+      <c r="E117" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="G117" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="H117" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I117" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J117" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K117" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L117" t="n">
+        <v>1151160</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$117</f>
+              <f>'70531547'!$A$2:$A$118</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$117</f>
+              <f>'70531547'!$B$2:$B$118</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$117</f>
+              <f>'70531547'!$A$2:$A$118</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$117</f>
+              <f>'70531547'!$C$2:$C$118</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$117</f>
+              <f>'70531547'!$A$2:$A$118</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$117</f>
+              <f>'70531547'!$D$2:$D$118</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$117</f>
+              <f>'70531547'!$A$2:$A$118</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$117</f>
+              <f>'70531547'!$E$2:$E$118</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$117</f>
+              <f>'70531547'!$A$2:$A$118</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$117</f>
+              <f>'70531547'!$F$2:$F$118</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$117</f>
+              <f>'70531547'!$A$2:$A$118</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$117</f>
+              <f>'70531547'!$G$2:$G$118</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$117</f>
+              <f>'70531547'!$A$2:$A$118</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$117</f>
+              <f>'70531547'!$H$2:$H$118</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$117</f>
+              <f>'70531547'!$A$2:$A$118</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$117</f>
+              <f>'70531547'!$I$2:$I$118</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$117</f>
+              <f>'70531547'!$A$2:$A$118</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$117</f>
+              <f>'70531547'!$J$2:$J$118</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$117</f>
+              <f>'70531547'!$A$2:$A$118</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$117</f>
+              <f>'70531547'!$K$2:$K$118</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$117</f>
+              <f>'70531547'!$A$2:$A$118</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$117</f>
+              <f>'70531547'!$L$2:$L$118</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$117</f>
+              <f>'70531547'!$A$2:$A$118</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$117</f>
+              <f>'70531547'!$M$2:$M$118</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,55 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$117</f>
+              <f>'70531547'!$A$2:$A$118</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$117</f>
+              <f>'70531547'!$N$2:$N$118</f>
+            </numRef>
+          </val>
+          <smooth val="1"/>
+        </ser>
+        <ser>
+          <idx val="13"/>
+          <order val="13"/>
+          <tx>
+            <strRef>
+              <f>'70531547'!O1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln w="25000">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="circle"/>
+            <size val="5"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'70531547'!$A$2:$A$118</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'70531547'!$O$2:$O$118</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1098,7 +1141,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:O118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1177,6 +1220,11 @@
           <t>파란컴</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>정스컴퓨터</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -5816,6 +5864,46 @@
       </c>
       <c r="L117" t="n">
         <v>1151160</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2025-01-02 17:06</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>963000</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D118" t="n">
+        <v>1078960</v>
+      </c>
+      <c r="E118" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1160470</v>
+      </c>
+      <c r="I118" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J118" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K118" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L118" t="n">
+        <v>1151160</v>
+      </c>
+      <c r="O118" t="n">
+        <v>1079000</v>
       </c>
     </row>
   </sheetData>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$118</f>
+              <f>'70531547'!$A$2:$A$119</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$118</f>
+              <f>'70531547'!$B$2:$B$119</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$118</f>
+              <f>'70531547'!$A$2:$A$119</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$118</f>
+              <f>'70531547'!$C$2:$C$119</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$118</f>
+              <f>'70531547'!$A$2:$A$119</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$118</f>
+              <f>'70531547'!$D$2:$D$119</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$118</f>
+              <f>'70531547'!$A$2:$A$119</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$118</f>
+              <f>'70531547'!$E$2:$E$119</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$118</f>
+              <f>'70531547'!$A$2:$A$119</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$118</f>
+              <f>'70531547'!$F$2:$F$119</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$118</f>
+              <f>'70531547'!$A$2:$A$119</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$118</f>
+              <f>'70531547'!$G$2:$G$119</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$118</f>
+              <f>'70531547'!$A$2:$A$119</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$118</f>
+              <f>'70531547'!$H$2:$H$119</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$118</f>
+              <f>'70531547'!$A$2:$A$119</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$118</f>
+              <f>'70531547'!$I$2:$I$119</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$118</f>
+              <f>'70531547'!$A$2:$A$119</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$118</f>
+              <f>'70531547'!$J$2:$J$119</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$118</f>
+              <f>'70531547'!$A$2:$A$119</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$118</f>
+              <f>'70531547'!$K$2:$K$119</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$118</f>
+              <f>'70531547'!$A$2:$A$119</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$118</f>
+              <f>'70531547'!$L$2:$L$119</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$118</f>
+              <f>'70531547'!$A$2:$A$119</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$118</f>
+              <f>'70531547'!$M$2:$M$119</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$118</f>
+              <f>'70531547'!$A$2:$A$119</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$118</f>
+              <f>'70531547'!$N$2:$N$119</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -750,12 +750,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$118</f>
+              <f>'70531547'!$A$2:$A$119</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$O$2:$O$118</f>
+              <f>'70531547'!$O$2:$O$119</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1141,7 +1141,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O118"/>
+  <dimension ref="A1:O119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5906,6 +5906,46 @@
         <v>1079000</v>
       </c>
     </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2025-01-02 18:05</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>963000</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D119" t="n">
+        <v>1078960</v>
+      </c>
+      <c r="E119" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="H119" t="n">
+        <v>1169350</v>
+      </c>
+      <c r="I119" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J119" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K119" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L119" t="n">
+        <v>1151160</v>
+      </c>
+      <c r="O119" t="n">
+        <v>1079000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$119</f>
+              <f>'70531547'!$A$2:$A$120</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$119</f>
+              <f>'70531547'!$B$2:$B$120</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$119</f>
+              <f>'70531547'!$A$2:$A$120</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$119</f>
+              <f>'70531547'!$C$2:$C$120</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$119</f>
+              <f>'70531547'!$A$2:$A$120</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$119</f>
+              <f>'70531547'!$D$2:$D$120</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$119</f>
+              <f>'70531547'!$A$2:$A$120</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$119</f>
+              <f>'70531547'!$E$2:$E$120</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$119</f>
+              <f>'70531547'!$A$2:$A$120</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$119</f>
+              <f>'70531547'!$F$2:$F$120</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$119</f>
+              <f>'70531547'!$A$2:$A$120</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$119</f>
+              <f>'70531547'!$G$2:$G$120</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$119</f>
+              <f>'70531547'!$A$2:$A$120</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$119</f>
+              <f>'70531547'!$H$2:$H$120</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$119</f>
+              <f>'70531547'!$A$2:$A$120</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$119</f>
+              <f>'70531547'!$I$2:$I$120</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$119</f>
+              <f>'70531547'!$A$2:$A$120</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$119</f>
+              <f>'70531547'!$J$2:$J$120</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$119</f>
+              <f>'70531547'!$A$2:$A$120</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$119</f>
+              <f>'70531547'!$K$2:$K$120</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$119</f>
+              <f>'70531547'!$A$2:$A$120</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$119</f>
+              <f>'70531547'!$L$2:$L$120</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$119</f>
+              <f>'70531547'!$A$2:$A$120</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$119</f>
+              <f>'70531547'!$M$2:$M$120</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$119</f>
+              <f>'70531547'!$A$2:$A$120</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$119</f>
+              <f>'70531547'!$N$2:$N$120</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -750,12 +750,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$119</f>
+              <f>'70531547'!$A$2:$A$120</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$O$2:$O$119</f>
+              <f>'70531547'!$O$2:$O$120</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1141,7 +1141,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O119"/>
+  <dimension ref="A1:O120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5946,6 +5946,46 @@
         <v>1079000</v>
       </c>
     </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2025-01-02 19:05</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>963000</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D120" t="n">
+        <v>1078960</v>
+      </c>
+      <c r="E120" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="H120" t="n">
+        <v>1174530</v>
+      </c>
+      <c r="I120" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="J120" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K120" t="n">
+        <v>1154983</v>
+      </c>
+      <c r="L120" t="n">
+        <v>1151160</v>
+      </c>
+      <c r="O120" t="n">
+        <v>1079000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$120</f>
+              <f>'70531547'!$A$2:$A$121</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$120</f>
+              <f>'70531547'!$B$2:$B$121</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$120</f>
+              <f>'70531547'!$A$2:$A$121</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$120</f>
+              <f>'70531547'!$C$2:$C$121</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$120</f>
+              <f>'70531547'!$A$2:$A$121</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$120</f>
+              <f>'70531547'!$D$2:$D$121</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$120</f>
+              <f>'70531547'!$A$2:$A$121</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$120</f>
+              <f>'70531547'!$E$2:$E$121</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$120</f>
+              <f>'70531547'!$A$2:$A$121</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$120</f>
+              <f>'70531547'!$F$2:$F$121</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$120</f>
+              <f>'70531547'!$A$2:$A$121</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$120</f>
+              <f>'70531547'!$G$2:$G$121</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$120</f>
+              <f>'70531547'!$A$2:$A$121</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$120</f>
+              <f>'70531547'!$H$2:$H$121</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$120</f>
+              <f>'70531547'!$A$2:$A$121</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$120</f>
+              <f>'70531547'!$I$2:$I$121</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$120</f>
+              <f>'70531547'!$A$2:$A$121</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$120</f>
+              <f>'70531547'!$J$2:$J$121</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$120</f>
+              <f>'70531547'!$A$2:$A$121</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$120</f>
+              <f>'70531547'!$K$2:$K$121</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$120</f>
+              <f>'70531547'!$A$2:$A$121</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$120</f>
+              <f>'70531547'!$L$2:$L$121</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$120</f>
+              <f>'70531547'!$A$2:$A$121</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$120</f>
+              <f>'70531547'!$M$2:$M$121</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$120</f>
+              <f>'70531547'!$A$2:$A$121</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$120</f>
+              <f>'70531547'!$N$2:$N$121</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -750,12 +750,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$120</f>
+              <f>'70531547'!$A$2:$A$121</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$O$2:$O$120</f>
+              <f>'70531547'!$O$2:$O$121</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1141,7 +1141,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O120"/>
+  <dimension ref="A1:O121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5986,6 +5986,46 @@
         <v>1079000</v>
       </c>
     </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2025-01-02 20:05</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>963000</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D121" t="n">
+        <v>1078960</v>
+      </c>
+      <c r="E121" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="H121" t="n">
+        <v>1174530</v>
+      </c>
+      <c r="I121" t="n">
+        <v>1176439</v>
+      </c>
+      <c r="J121" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K121" t="n">
+        <v>1176439</v>
+      </c>
+      <c r="L121" t="n">
+        <v>1151160</v>
+      </c>
+      <c r="O121" t="n">
+        <v>1079000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$121</f>
+              <f>'70531547'!$A$2:$A$122</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$121</f>
+              <f>'70531547'!$B$2:$B$122</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$121</f>
+              <f>'70531547'!$A$2:$A$122</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$121</f>
+              <f>'70531547'!$C$2:$C$122</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$121</f>
+              <f>'70531547'!$A$2:$A$122</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$121</f>
+              <f>'70531547'!$D$2:$D$122</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$121</f>
+              <f>'70531547'!$A$2:$A$122</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$121</f>
+              <f>'70531547'!$E$2:$E$122</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$121</f>
+              <f>'70531547'!$A$2:$A$122</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$121</f>
+              <f>'70531547'!$F$2:$F$122</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$121</f>
+              <f>'70531547'!$A$2:$A$122</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$121</f>
+              <f>'70531547'!$G$2:$G$122</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$121</f>
+              <f>'70531547'!$A$2:$A$122</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$121</f>
+              <f>'70531547'!$H$2:$H$122</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$121</f>
+              <f>'70531547'!$A$2:$A$122</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$121</f>
+              <f>'70531547'!$I$2:$I$122</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$121</f>
+              <f>'70531547'!$A$2:$A$122</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$121</f>
+              <f>'70531547'!$J$2:$J$122</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$121</f>
+              <f>'70531547'!$A$2:$A$122</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$121</f>
+              <f>'70531547'!$K$2:$K$122</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$121</f>
+              <f>'70531547'!$A$2:$A$122</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$121</f>
+              <f>'70531547'!$L$2:$L$122</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$121</f>
+              <f>'70531547'!$A$2:$A$122</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$121</f>
+              <f>'70531547'!$M$2:$M$122</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$121</f>
+              <f>'70531547'!$A$2:$A$122</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$121</f>
+              <f>'70531547'!$N$2:$N$122</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -750,12 +750,55 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$121</f>
+              <f>'70531547'!$A$2:$A$122</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$O$2:$O$121</f>
+              <f>'70531547'!$O$2:$O$122</f>
+            </numRef>
+          </val>
+          <smooth val="1"/>
+        </ser>
+        <ser>
+          <idx val="14"/>
+          <order val="14"/>
+          <tx>
+            <strRef>
+              <f>'70531547'!P1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln w="25000">
+              <a:solidFill>
+                <a:srgbClr val="FF00FF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="circle"/>
+            <size val="5"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF00FF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF00FF"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'70531547'!$A$2:$A$122</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'70531547'!$P$2:$P$122</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1141,7 +1184,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O121"/>
+  <dimension ref="A1:P122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1225,6 +1268,11 @@
           <t>정스컴퓨터</t>
         </is>
       </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>디스컴</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -6024,6 +6072,46 @@
       </c>
       <c r="O121" t="n">
         <v>1079000</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2025-01-02 21:07</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D122" t="n">
+        <v>1078960</v>
+      </c>
+      <c r="E122" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="H122" t="n">
+        <v>1174530</v>
+      </c>
+      <c r="I122" t="n">
+        <v>1176439</v>
+      </c>
+      <c r="J122" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K122" t="n">
+        <v>1176439</v>
+      </c>
+      <c r="L122" t="n">
+        <v>1151160</v>
+      </c>
+      <c r="O122" t="n">
+        <v>1079000</v>
+      </c>
+      <c r="P122" t="n">
+        <v>963000</v>
       </c>
     </row>
   </sheetData>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$122</f>
+              <f>'70531547'!$A$2:$A$123</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$122</f>
+              <f>'70531547'!$B$2:$B$123</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$122</f>
+              <f>'70531547'!$A$2:$A$123</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$122</f>
+              <f>'70531547'!$C$2:$C$123</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$122</f>
+              <f>'70531547'!$A$2:$A$123</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$122</f>
+              <f>'70531547'!$D$2:$D$123</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$122</f>
+              <f>'70531547'!$A$2:$A$123</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$122</f>
+              <f>'70531547'!$E$2:$E$123</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$122</f>
+              <f>'70531547'!$A$2:$A$123</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$122</f>
+              <f>'70531547'!$F$2:$F$123</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$122</f>
+              <f>'70531547'!$A$2:$A$123</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$122</f>
+              <f>'70531547'!$G$2:$G$123</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$122</f>
+              <f>'70531547'!$A$2:$A$123</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$122</f>
+              <f>'70531547'!$H$2:$H$123</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$122</f>
+              <f>'70531547'!$A$2:$A$123</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$122</f>
+              <f>'70531547'!$I$2:$I$123</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$122</f>
+              <f>'70531547'!$A$2:$A$123</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$122</f>
+              <f>'70531547'!$J$2:$J$123</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$122</f>
+              <f>'70531547'!$A$2:$A$123</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$122</f>
+              <f>'70531547'!$K$2:$K$123</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$122</f>
+              <f>'70531547'!$A$2:$A$123</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$122</f>
+              <f>'70531547'!$L$2:$L$123</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$122</f>
+              <f>'70531547'!$A$2:$A$123</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$122</f>
+              <f>'70531547'!$M$2:$M$123</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$122</f>
+              <f>'70531547'!$A$2:$A$123</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$122</f>
+              <f>'70531547'!$N$2:$N$123</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -750,12 +750,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$122</f>
+              <f>'70531547'!$A$2:$A$123</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$O$2:$O$122</f>
+              <f>'70531547'!$O$2:$O$123</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -793,12 +793,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$122</f>
+              <f>'70531547'!$A$2:$A$123</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$P$2:$P$122</f>
+              <f>'70531547'!$P$2:$P$123</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1184,7 +1184,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P122"/>
+  <dimension ref="A1:P123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6114,6 +6114,46 @@
         <v>963000</v>
       </c>
     </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2025-01-02 22:09</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>963000</v>
+      </c>
+      <c r="C123" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D123" t="n">
+        <v>1078960</v>
+      </c>
+      <c r="E123" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="H123" t="n">
+        <v>1174530</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1176439</v>
+      </c>
+      <c r="J123" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K123" t="n">
+        <v>1176439</v>
+      </c>
+      <c r="L123" t="n">
+        <v>1151160</v>
+      </c>
+      <c r="O123" t="n">
+        <v>1079000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$123</f>
+              <f>'70531547'!$A$2:$A$124</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$123</f>
+              <f>'70531547'!$B$2:$B$124</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$123</f>
+              <f>'70531547'!$A$2:$A$124</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$123</f>
+              <f>'70531547'!$C$2:$C$124</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$123</f>
+              <f>'70531547'!$A$2:$A$124</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$123</f>
+              <f>'70531547'!$D$2:$D$124</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$123</f>
+              <f>'70531547'!$A$2:$A$124</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$123</f>
+              <f>'70531547'!$E$2:$E$124</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$123</f>
+              <f>'70531547'!$A$2:$A$124</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$123</f>
+              <f>'70531547'!$F$2:$F$124</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$123</f>
+              <f>'70531547'!$A$2:$A$124</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$123</f>
+              <f>'70531547'!$G$2:$G$124</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$123</f>
+              <f>'70531547'!$A$2:$A$124</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$123</f>
+              <f>'70531547'!$H$2:$H$124</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$123</f>
+              <f>'70531547'!$A$2:$A$124</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$123</f>
+              <f>'70531547'!$I$2:$I$124</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$123</f>
+              <f>'70531547'!$A$2:$A$124</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$123</f>
+              <f>'70531547'!$J$2:$J$124</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$123</f>
+              <f>'70531547'!$A$2:$A$124</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$123</f>
+              <f>'70531547'!$K$2:$K$124</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$123</f>
+              <f>'70531547'!$A$2:$A$124</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$123</f>
+              <f>'70531547'!$L$2:$L$124</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$123</f>
+              <f>'70531547'!$A$2:$A$124</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$123</f>
+              <f>'70531547'!$M$2:$M$124</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$123</f>
+              <f>'70531547'!$A$2:$A$124</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$123</f>
+              <f>'70531547'!$N$2:$N$124</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -750,12 +750,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$123</f>
+              <f>'70531547'!$A$2:$A$124</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$O$2:$O$123</f>
+              <f>'70531547'!$O$2:$O$124</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -793,12 +793,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$123</f>
+              <f>'70531547'!$A$2:$A$124</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$P$2:$P$123</f>
+              <f>'70531547'!$P$2:$P$124</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1184,7 +1184,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P123"/>
+  <dimension ref="A1:P124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6154,6 +6154,46 @@
         <v>1079000</v>
       </c>
     </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2025-01-02 23:05</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>963000</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1078960</v>
+      </c>
+      <c r="E124" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="H124" t="n">
+        <v>1174530</v>
+      </c>
+      <c r="I124" t="n">
+        <v>1176439</v>
+      </c>
+      <c r="J124" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K124" t="n">
+        <v>1176439</v>
+      </c>
+      <c r="L124" t="n">
+        <v>1151160</v>
+      </c>
+      <c r="O124" t="n">
+        <v>1079000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$124</f>
+              <f>'70531547'!$A$2:$A$125</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$124</f>
+              <f>'70531547'!$B$2:$B$125</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$124</f>
+              <f>'70531547'!$A$2:$A$125</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$124</f>
+              <f>'70531547'!$C$2:$C$125</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$124</f>
+              <f>'70531547'!$A$2:$A$125</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$124</f>
+              <f>'70531547'!$D$2:$D$125</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$124</f>
+              <f>'70531547'!$A$2:$A$125</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$124</f>
+              <f>'70531547'!$E$2:$E$125</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$124</f>
+              <f>'70531547'!$A$2:$A$125</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$124</f>
+              <f>'70531547'!$F$2:$F$125</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$124</f>
+              <f>'70531547'!$A$2:$A$125</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$124</f>
+              <f>'70531547'!$G$2:$G$125</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$124</f>
+              <f>'70531547'!$A$2:$A$125</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$124</f>
+              <f>'70531547'!$H$2:$H$125</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$124</f>
+              <f>'70531547'!$A$2:$A$125</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$124</f>
+              <f>'70531547'!$I$2:$I$125</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$124</f>
+              <f>'70531547'!$A$2:$A$125</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$124</f>
+              <f>'70531547'!$J$2:$J$125</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$124</f>
+              <f>'70531547'!$A$2:$A$125</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$124</f>
+              <f>'70531547'!$K$2:$K$125</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$124</f>
+              <f>'70531547'!$A$2:$A$125</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$124</f>
+              <f>'70531547'!$L$2:$L$125</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$124</f>
+              <f>'70531547'!$A$2:$A$125</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$124</f>
+              <f>'70531547'!$M$2:$M$125</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$124</f>
+              <f>'70531547'!$A$2:$A$125</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$124</f>
+              <f>'70531547'!$N$2:$N$125</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -750,12 +750,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$124</f>
+              <f>'70531547'!$A$2:$A$125</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$O$2:$O$124</f>
+              <f>'70531547'!$O$2:$O$125</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -793,12 +793,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$124</f>
+              <f>'70531547'!$A$2:$A$125</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$P$2:$P$124</f>
+              <f>'70531547'!$P$2:$P$125</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1184,7 +1184,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P124"/>
+  <dimension ref="A1:P125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6194,6 +6194,46 @@
         <v>1079000</v>
       </c>
     </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2025-01-03 00:05</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>963000</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D125" t="n">
+        <v>1078960</v>
+      </c>
+      <c r="E125" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="H125" t="n">
+        <v>1174530</v>
+      </c>
+      <c r="I125" t="n">
+        <v>1176439</v>
+      </c>
+      <c r="J125" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K125" t="n">
+        <v>1176439</v>
+      </c>
+      <c r="L125" t="n">
+        <v>1151160</v>
+      </c>
+      <c r="O125" t="n">
+        <v>1079000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$125</f>
+              <f>'70531547'!$A$2:$A$126</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$125</f>
+              <f>'70531547'!$B$2:$B$126</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$125</f>
+              <f>'70531547'!$A$2:$A$126</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$125</f>
+              <f>'70531547'!$C$2:$C$126</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$125</f>
+              <f>'70531547'!$A$2:$A$126</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$125</f>
+              <f>'70531547'!$D$2:$D$126</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$125</f>
+              <f>'70531547'!$A$2:$A$126</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$125</f>
+              <f>'70531547'!$E$2:$E$126</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$125</f>
+              <f>'70531547'!$A$2:$A$126</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$125</f>
+              <f>'70531547'!$F$2:$F$126</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$125</f>
+              <f>'70531547'!$A$2:$A$126</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$125</f>
+              <f>'70531547'!$G$2:$G$126</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$125</f>
+              <f>'70531547'!$A$2:$A$126</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$125</f>
+              <f>'70531547'!$H$2:$H$126</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$125</f>
+              <f>'70531547'!$A$2:$A$126</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$125</f>
+              <f>'70531547'!$I$2:$I$126</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$125</f>
+              <f>'70531547'!$A$2:$A$126</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$125</f>
+              <f>'70531547'!$J$2:$J$126</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$125</f>
+              <f>'70531547'!$A$2:$A$126</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$125</f>
+              <f>'70531547'!$K$2:$K$126</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$125</f>
+              <f>'70531547'!$A$2:$A$126</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$125</f>
+              <f>'70531547'!$L$2:$L$126</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$125</f>
+              <f>'70531547'!$A$2:$A$126</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$125</f>
+              <f>'70531547'!$M$2:$M$126</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$125</f>
+              <f>'70531547'!$A$2:$A$126</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$125</f>
+              <f>'70531547'!$N$2:$N$126</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -750,12 +750,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$125</f>
+              <f>'70531547'!$A$2:$A$126</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$O$2:$O$125</f>
+              <f>'70531547'!$O$2:$O$126</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -793,12 +793,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$125</f>
+              <f>'70531547'!$A$2:$A$126</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$P$2:$P$125</f>
+              <f>'70531547'!$P$2:$P$126</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1184,7 +1184,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P125"/>
+  <dimension ref="A1:P126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6234,6 +6234,46 @@
         <v>1079000</v>
       </c>
     </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2025-01-03 01:05</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>963000</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1078960</v>
+      </c>
+      <c r="E126" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="H126" t="n">
+        <v>1174530</v>
+      </c>
+      <c r="I126" t="n">
+        <v>1176439</v>
+      </c>
+      <c r="J126" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K126" t="n">
+        <v>1176439</v>
+      </c>
+      <c r="L126" t="n">
+        <v>1151160</v>
+      </c>
+      <c r="O126" t="n">
+        <v>1079000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$126</f>
+              <f>'70531547'!$A$2:$A$127</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$126</f>
+              <f>'70531547'!$B$2:$B$127</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$126</f>
+              <f>'70531547'!$A$2:$A$127</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$126</f>
+              <f>'70531547'!$C$2:$C$127</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$126</f>
+              <f>'70531547'!$A$2:$A$127</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$126</f>
+              <f>'70531547'!$D$2:$D$127</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$126</f>
+              <f>'70531547'!$A$2:$A$127</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$126</f>
+              <f>'70531547'!$E$2:$E$127</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$126</f>
+              <f>'70531547'!$A$2:$A$127</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$126</f>
+              <f>'70531547'!$F$2:$F$127</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$126</f>
+              <f>'70531547'!$A$2:$A$127</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$126</f>
+              <f>'70531547'!$G$2:$G$127</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$126</f>
+              <f>'70531547'!$A$2:$A$127</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$126</f>
+              <f>'70531547'!$H$2:$H$127</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$126</f>
+              <f>'70531547'!$A$2:$A$127</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$126</f>
+              <f>'70531547'!$I$2:$I$127</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$126</f>
+              <f>'70531547'!$A$2:$A$127</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$126</f>
+              <f>'70531547'!$J$2:$J$127</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$126</f>
+              <f>'70531547'!$A$2:$A$127</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$126</f>
+              <f>'70531547'!$K$2:$K$127</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$126</f>
+              <f>'70531547'!$A$2:$A$127</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$126</f>
+              <f>'70531547'!$L$2:$L$127</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$126</f>
+              <f>'70531547'!$A$2:$A$127</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$126</f>
+              <f>'70531547'!$M$2:$M$127</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$126</f>
+              <f>'70531547'!$A$2:$A$127</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$126</f>
+              <f>'70531547'!$N$2:$N$127</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -750,12 +750,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$126</f>
+              <f>'70531547'!$A$2:$A$127</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$O$2:$O$126</f>
+              <f>'70531547'!$O$2:$O$127</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -793,12 +793,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$126</f>
+              <f>'70531547'!$A$2:$A$127</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$P$2:$P$126</f>
+              <f>'70531547'!$P$2:$P$127</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1184,7 +1184,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P126"/>
+  <dimension ref="A1:P127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6274,6 +6274,46 @@
         <v>1079000</v>
       </c>
     </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2025-01-03 02:04</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D127" t="n">
+        <v>1078960</v>
+      </c>
+      <c r="E127" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="H127" t="n">
+        <v>1174530</v>
+      </c>
+      <c r="I127" t="n">
+        <v>1176439</v>
+      </c>
+      <c r="J127" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K127" t="n">
+        <v>1176439</v>
+      </c>
+      <c r="L127" t="n">
+        <v>1151160</v>
+      </c>
+      <c r="O127" t="n">
+        <v>1079000</v>
+      </c>
+      <c r="P127" t="n">
+        <v>963000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$127</f>
+              <f>'70531547'!$A$2:$A$128</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$127</f>
+              <f>'70531547'!$B$2:$B$128</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$127</f>
+              <f>'70531547'!$A$2:$A$128</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$127</f>
+              <f>'70531547'!$C$2:$C$128</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$127</f>
+              <f>'70531547'!$A$2:$A$128</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$127</f>
+              <f>'70531547'!$D$2:$D$128</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$127</f>
+              <f>'70531547'!$A$2:$A$128</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$127</f>
+              <f>'70531547'!$E$2:$E$128</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$127</f>
+              <f>'70531547'!$A$2:$A$128</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$127</f>
+              <f>'70531547'!$F$2:$F$128</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$127</f>
+              <f>'70531547'!$A$2:$A$128</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$127</f>
+              <f>'70531547'!$G$2:$G$128</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$127</f>
+              <f>'70531547'!$A$2:$A$128</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$127</f>
+              <f>'70531547'!$H$2:$H$128</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$127</f>
+              <f>'70531547'!$A$2:$A$128</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$127</f>
+              <f>'70531547'!$I$2:$I$128</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$127</f>
+              <f>'70531547'!$A$2:$A$128</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$127</f>
+              <f>'70531547'!$J$2:$J$128</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$127</f>
+              <f>'70531547'!$A$2:$A$128</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$127</f>
+              <f>'70531547'!$K$2:$K$128</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$127</f>
+              <f>'70531547'!$A$2:$A$128</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$127</f>
+              <f>'70531547'!$L$2:$L$128</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$127</f>
+              <f>'70531547'!$A$2:$A$128</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$127</f>
+              <f>'70531547'!$M$2:$M$128</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$127</f>
+              <f>'70531547'!$A$2:$A$128</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$127</f>
+              <f>'70531547'!$N$2:$N$128</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -750,12 +750,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$127</f>
+              <f>'70531547'!$A$2:$A$128</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$O$2:$O$127</f>
+              <f>'70531547'!$O$2:$O$128</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -793,12 +793,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$127</f>
+              <f>'70531547'!$A$2:$A$128</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$P$2:$P$127</f>
+              <f>'70531547'!$P$2:$P$128</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1184,7 +1184,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P127"/>
+  <dimension ref="A1:P128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6314,6 +6314,46 @@
         <v>963000</v>
       </c>
     </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2025-01-03 03:06</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D128" t="n">
+        <v>1078960</v>
+      </c>
+      <c r="E128" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="H128" t="n">
+        <v>1174530</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1176439</v>
+      </c>
+      <c r="J128" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K128" t="n">
+        <v>1176439</v>
+      </c>
+      <c r="L128" t="n">
+        <v>1151160</v>
+      </c>
+      <c r="O128" t="n">
+        <v>1079000</v>
+      </c>
+      <c r="P128" t="n">
+        <v>963000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$128</f>
+              <f>'70531547'!$A$2:$A$129</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$128</f>
+              <f>'70531547'!$B$2:$B$129</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$128</f>
+              <f>'70531547'!$A$2:$A$129</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$128</f>
+              <f>'70531547'!$C$2:$C$129</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$128</f>
+              <f>'70531547'!$A$2:$A$129</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$128</f>
+              <f>'70531547'!$D$2:$D$129</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$128</f>
+              <f>'70531547'!$A$2:$A$129</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$128</f>
+              <f>'70531547'!$E$2:$E$129</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$128</f>
+              <f>'70531547'!$A$2:$A$129</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$128</f>
+              <f>'70531547'!$F$2:$F$129</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$128</f>
+              <f>'70531547'!$A$2:$A$129</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$128</f>
+              <f>'70531547'!$G$2:$G$129</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$128</f>
+              <f>'70531547'!$A$2:$A$129</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$128</f>
+              <f>'70531547'!$H$2:$H$129</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$128</f>
+              <f>'70531547'!$A$2:$A$129</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$128</f>
+              <f>'70531547'!$I$2:$I$129</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$128</f>
+              <f>'70531547'!$A$2:$A$129</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$128</f>
+              <f>'70531547'!$J$2:$J$129</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$128</f>
+              <f>'70531547'!$A$2:$A$129</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$128</f>
+              <f>'70531547'!$K$2:$K$129</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$128</f>
+              <f>'70531547'!$A$2:$A$129</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$128</f>
+              <f>'70531547'!$L$2:$L$129</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$128</f>
+              <f>'70531547'!$A$2:$A$129</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$128</f>
+              <f>'70531547'!$M$2:$M$129</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$128</f>
+              <f>'70531547'!$A$2:$A$129</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$128</f>
+              <f>'70531547'!$N$2:$N$129</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -750,12 +750,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$128</f>
+              <f>'70531547'!$A$2:$A$129</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$O$2:$O$128</f>
+              <f>'70531547'!$O$2:$O$129</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -793,12 +793,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$128</f>
+              <f>'70531547'!$A$2:$A$129</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$P$2:$P$128</f>
+              <f>'70531547'!$P$2:$P$129</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1184,7 +1184,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P128"/>
+  <dimension ref="A1:P129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6354,6 +6354,46 @@
         <v>963000</v>
       </c>
     </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2025-01-03 04:04</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>963000</v>
+      </c>
+      <c r="C129" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D129" t="n">
+        <v>1078960</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1078970</v>
+      </c>
+      <c r="H129" t="n">
+        <v>1174530</v>
+      </c>
+      <c r="I129" t="n">
+        <v>1176439</v>
+      </c>
+      <c r="J129" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K129" t="n">
+        <v>1176439</v>
+      </c>
+      <c r="L129" t="n">
+        <v>1151160</v>
+      </c>
+      <c r="O129" t="n">
+        <v>1079000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$129</f>
+              <f>'70531547'!$A$2:$A$130</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$129</f>
+              <f>'70531547'!$B$2:$B$130</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$129</f>
+              <f>'70531547'!$A$2:$A$130</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$129</f>
+              <f>'70531547'!$C$2:$C$130</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$129</f>
+              <f>'70531547'!$A$2:$A$130</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$129</f>
+              <f>'70531547'!$D$2:$D$130</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$129</f>
+              <f>'70531547'!$A$2:$A$130</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$129</f>
+              <f>'70531547'!$E$2:$E$130</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$129</f>
+              <f>'70531547'!$A$2:$A$130</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$129</f>
+              <f>'70531547'!$F$2:$F$130</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$129</f>
+              <f>'70531547'!$A$2:$A$130</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$129</f>
+              <f>'70531547'!$G$2:$G$130</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$129</f>
+              <f>'70531547'!$A$2:$A$130</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$129</f>
+              <f>'70531547'!$H$2:$H$130</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$129</f>
+              <f>'70531547'!$A$2:$A$130</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$129</f>
+              <f>'70531547'!$I$2:$I$130</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$129</f>
+              <f>'70531547'!$A$2:$A$130</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$129</f>
+              <f>'70531547'!$J$2:$J$130</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$129</f>
+              <f>'70531547'!$A$2:$A$130</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$129</f>
+              <f>'70531547'!$K$2:$K$130</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$129</f>
+              <f>'70531547'!$A$2:$A$130</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$129</f>
+              <f>'70531547'!$L$2:$L$130</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$129</f>
+              <f>'70531547'!$A$2:$A$130</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$129</f>
+              <f>'70531547'!$M$2:$M$130</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$129</f>
+              <f>'70531547'!$A$2:$A$130</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$129</f>
+              <f>'70531547'!$N$2:$N$130</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -750,12 +750,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$129</f>
+              <f>'70531547'!$A$2:$A$130</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$O$2:$O$129</f>
+              <f>'70531547'!$O$2:$O$130</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -793,12 +793,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$129</f>
+              <f>'70531547'!$A$2:$A$130</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$P$2:$P$129</f>
+              <f>'70531547'!$P$2:$P$130</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1184,7 +1184,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P129"/>
+  <dimension ref="A1:P130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6394,6 +6394,46 @@
         <v>1079000</v>
       </c>
     </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2025-01-03 05:05</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>963000</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D130" t="n">
+        <v>1078960</v>
+      </c>
+      <c r="E130" t="n">
+        <v>1078950</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1078950</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1174530</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1176439</v>
+      </c>
+      <c r="J130" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K130" t="n">
+        <v>1176439</v>
+      </c>
+      <c r="L130" t="n">
+        <v>1151160</v>
+      </c>
+      <c r="O130" t="n">
+        <v>1079000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$130</f>
+              <f>'70531547'!$A$2:$A$131</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$130</f>
+              <f>'70531547'!$B$2:$B$131</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$130</f>
+              <f>'70531547'!$A$2:$A$131</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$130</f>
+              <f>'70531547'!$C$2:$C$131</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$130</f>
+              <f>'70531547'!$A$2:$A$131</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$130</f>
+              <f>'70531547'!$D$2:$D$131</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$130</f>
+              <f>'70531547'!$A$2:$A$131</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$130</f>
+              <f>'70531547'!$E$2:$E$131</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$130</f>
+              <f>'70531547'!$A$2:$A$131</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$130</f>
+              <f>'70531547'!$F$2:$F$131</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$130</f>
+              <f>'70531547'!$A$2:$A$131</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$130</f>
+              <f>'70531547'!$G$2:$G$131</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$130</f>
+              <f>'70531547'!$A$2:$A$131</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$130</f>
+              <f>'70531547'!$H$2:$H$131</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$130</f>
+              <f>'70531547'!$A$2:$A$131</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$130</f>
+              <f>'70531547'!$I$2:$I$131</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$130</f>
+              <f>'70531547'!$A$2:$A$131</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$130</f>
+              <f>'70531547'!$J$2:$J$131</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$130</f>
+              <f>'70531547'!$A$2:$A$131</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$130</f>
+              <f>'70531547'!$K$2:$K$131</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$130</f>
+              <f>'70531547'!$A$2:$A$131</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$130</f>
+              <f>'70531547'!$L$2:$L$131</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$130</f>
+              <f>'70531547'!$A$2:$A$131</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$130</f>
+              <f>'70531547'!$M$2:$M$131</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$130</f>
+              <f>'70531547'!$A$2:$A$131</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$130</f>
+              <f>'70531547'!$N$2:$N$131</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -750,12 +750,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$130</f>
+              <f>'70531547'!$A$2:$A$131</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$O$2:$O$130</f>
+              <f>'70531547'!$O$2:$O$131</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -793,12 +793,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$130</f>
+              <f>'70531547'!$A$2:$A$131</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$P$2:$P$130</f>
+              <f>'70531547'!$P$2:$P$131</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1184,7 +1184,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P130"/>
+  <dimension ref="A1:P131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6434,6 +6434,46 @@
         <v>1079000</v>
       </c>
     </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2025-01-03 06:05</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D131" t="n">
+        <v>1078960</v>
+      </c>
+      <c r="E131" t="n">
+        <v>1078950</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1078950</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1174530</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1176439</v>
+      </c>
+      <c r="J131" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K131" t="n">
+        <v>1176439</v>
+      </c>
+      <c r="L131" t="n">
+        <v>1151160</v>
+      </c>
+      <c r="O131" t="n">
+        <v>1079000</v>
+      </c>
+      <c r="P131" t="n">
+        <v>963000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$131</f>
+              <f>'70531547'!$A$2:$A$132</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$131</f>
+              <f>'70531547'!$B$2:$B$132</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$131</f>
+              <f>'70531547'!$A$2:$A$132</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$131</f>
+              <f>'70531547'!$C$2:$C$132</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$131</f>
+              <f>'70531547'!$A$2:$A$132</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$131</f>
+              <f>'70531547'!$D$2:$D$132</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$131</f>
+              <f>'70531547'!$A$2:$A$132</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$131</f>
+              <f>'70531547'!$E$2:$E$132</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$131</f>
+              <f>'70531547'!$A$2:$A$132</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$131</f>
+              <f>'70531547'!$F$2:$F$132</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$131</f>
+              <f>'70531547'!$A$2:$A$132</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$131</f>
+              <f>'70531547'!$G$2:$G$132</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$131</f>
+              <f>'70531547'!$A$2:$A$132</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$131</f>
+              <f>'70531547'!$H$2:$H$132</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$131</f>
+              <f>'70531547'!$A$2:$A$132</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$131</f>
+              <f>'70531547'!$I$2:$I$132</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$131</f>
+              <f>'70531547'!$A$2:$A$132</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$131</f>
+              <f>'70531547'!$J$2:$J$132</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$131</f>
+              <f>'70531547'!$A$2:$A$132</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$131</f>
+              <f>'70531547'!$K$2:$K$132</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$131</f>
+              <f>'70531547'!$A$2:$A$132</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$131</f>
+              <f>'70531547'!$L$2:$L$132</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$131</f>
+              <f>'70531547'!$A$2:$A$132</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$131</f>
+              <f>'70531547'!$M$2:$M$132</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$131</f>
+              <f>'70531547'!$A$2:$A$132</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$131</f>
+              <f>'70531547'!$N$2:$N$132</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -750,12 +750,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$131</f>
+              <f>'70531547'!$A$2:$A$132</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$O$2:$O$131</f>
+              <f>'70531547'!$O$2:$O$132</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -793,12 +793,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$131</f>
+              <f>'70531547'!$A$2:$A$132</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$P$2:$P$131</f>
+              <f>'70531547'!$P$2:$P$132</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1184,7 +1184,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P131"/>
+  <dimension ref="A1:P132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6474,6 +6474,46 @@
         <v>963000</v>
       </c>
     </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2025-01-03 07:05</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>963000</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1078960</v>
+      </c>
+      <c r="E132" t="n">
+        <v>1078950</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1078950</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1174530</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1176439</v>
+      </c>
+      <c r="J132" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K132" t="n">
+        <v>1176439</v>
+      </c>
+      <c r="L132" t="n">
+        <v>1151160</v>
+      </c>
+      <c r="O132" t="n">
+        <v>1079000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$132</f>
+              <f>'70531547'!$A$2:$A$133</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$132</f>
+              <f>'70531547'!$B$2:$B$133</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$132</f>
+              <f>'70531547'!$A$2:$A$133</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$132</f>
+              <f>'70531547'!$C$2:$C$133</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$132</f>
+              <f>'70531547'!$A$2:$A$133</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$132</f>
+              <f>'70531547'!$D$2:$D$133</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$132</f>
+              <f>'70531547'!$A$2:$A$133</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$132</f>
+              <f>'70531547'!$E$2:$E$133</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$132</f>
+              <f>'70531547'!$A$2:$A$133</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$132</f>
+              <f>'70531547'!$F$2:$F$133</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$132</f>
+              <f>'70531547'!$A$2:$A$133</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$132</f>
+              <f>'70531547'!$G$2:$G$133</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$132</f>
+              <f>'70531547'!$A$2:$A$133</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$132</f>
+              <f>'70531547'!$H$2:$H$133</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$132</f>
+              <f>'70531547'!$A$2:$A$133</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$132</f>
+              <f>'70531547'!$I$2:$I$133</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$132</f>
+              <f>'70531547'!$A$2:$A$133</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$132</f>
+              <f>'70531547'!$J$2:$J$133</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$132</f>
+              <f>'70531547'!$A$2:$A$133</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$132</f>
+              <f>'70531547'!$K$2:$K$133</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$132</f>
+              <f>'70531547'!$A$2:$A$133</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$132</f>
+              <f>'70531547'!$L$2:$L$133</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$132</f>
+              <f>'70531547'!$A$2:$A$133</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$132</f>
+              <f>'70531547'!$M$2:$M$133</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$132</f>
+              <f>'70531547'!$A$2:$A$133</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$132</f>
+              <f>'70531547'!$N$2:$N$133</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -750,12 +750,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$132</f>
+              <f>'70531547'!$A$2:$A$133</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$O$2:$O$132</f>
+              <f>'70531547'!$O$2:$O$133</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -793,12 +793,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$132</f>
+              <f>'70531547'!$A$2:$A$133</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$P$2:$P$132</f>
+              <f>'70531547'!$P$2:$P$133</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1184,7 +1184,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P132"/>
+  <dimension ref="A1:P133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6514,6 +6514,46 @@
         <v>1079000</v>
       </c>
     </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2025-01-03 08:05</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1078960</v>
+      </c>
+      <c r="E133" t="n">
+        <v>1078950</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1078950</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1174530</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1176439</v>
+      </c>
+      <c r="J133" t="n">
+        <v>1184460</v>
+      </c>
+      <c r="K133" t="n">
+        <v>1176439</v>
+      </c>
+      <c r="L133" t="n">
+        <v>1151160</v>
+      </c>
+      <c r="O133" t="n">
+        <v>1079000</v>
+      </c>
+      <c r="P133" t="n">
+        <v>963000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$133</f>
+              <f>'70531547'!$A$2:$A$134</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$133</f>
+              <f>'70531547'!$B$2:$B$134</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$133</f>
+              <f>'70531547'!$A$2:$A$134</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$133</f>
+              <f>'70531547'!$C$2:$C$134</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$133</f>
+              <f>'70531547'!$A$2:$A$134</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$133</f>
+              <f>'70531547'!$D$2:$D$134</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$133</f>
+              <f>'70531547'!$A$2:$A$134</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$133</f>
+              <f>'70531547'!$E$2:$E$134</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$133</f>
+              <f>'70531547'!$A$2:$A$134</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$133</f>
+              <f>'70531547'!$F$2:$F$134</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$133</f>
+              <f>'70531547'!$A$2:$A$134</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$133</f>
+              <f>'70531547'!$G$2:$G$134</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$133</f>
+              <f>'70531547'!$A$2:$A$134</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$133</f>
+              <f>'70531547'!$H$2:$H$134</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$133</f>
+              <f>'70531547'!$A$2:$A$134</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$133</f>
+              <f>'70531547'!$I$2:$I$134</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$133</f>
+              <f>'70531547'!$A$2:$A$134</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$133</f>
+              <f>'70531547'!$J$2:$J$134</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$133</f>
+              <f>'70531547'!$A$2:$A$134</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$133</f>
+              <f>'70531547'!$K$2:$K$134</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$133</f>
+              <f>'70531547'!$A$2:$A$134</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$133</f>
+              <f>'70531547'!$L$2:$L$134</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$133</f>
+              <f>'70531547'!$A$2:$A$134</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$133</f>
+              <f>'70531547'!$M$2:$M$134</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$133</f>
+              <f>'70531547'!$A$2:$A$134</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$133</f>
+              <f>'70531547'!$N$2:$N$134</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -750,12 +750,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$133</f>
+              <f>'70531547'!$A$2:$A$134</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$O$2:$O$133</f>
+              <f>'70531547'!$O$2:$O$134</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -793,12 +793,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$133</f>
+              <f>'70531547'!$A$2:$A$134</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$P$2:$P$133</f>
+              <f>'70531547'!$P$2:$P$134</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1184,7 +1184,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P133"/>
+  <dimension ref="A1:P134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6554,6 +6554,46 @@
         <v>963000</v>
       </c>
     </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2025-01-03 09:17</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D134" t="n">
+        <v>1078960</v>
+      </c>
+      <c r="E134" t="n">
+        <v>1078950</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1078950</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1174530</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1176439</v>
+      </c>
+      <c r="J134" t="n">
+        <v>1206090</v>
+      </c>
+      <c r="K134" t="n">
+        <v>1176439</v>
+      </c>
+      <c r="L134" t="n">
+        <v>1151160</v>
+      </c>
+      <c r="O134" t="n">
+        <v>1079000</v>
+      </c>
+      <c r="P134" t="n">
+        <v>963000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$134</f>
+              <f>'70531547'!$A$2:$A$135</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$134</f>
+              <f>'70531547'!$B$2:$B$135</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$134</f>
+              <f>'70531547'!$A$2:$A$135</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$134</f>
+              <f>'70531547'!$C$2:$C$135</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$134</f>
+              <f>'70531547'!$A$2:$A$135</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$134</f>
+              <f>'70531547'!$D$2:$D$135</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$134</f>
+              <f>'70531547'!$A$2:$A$135</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$134</f>
+              <f>'70531547'!$E$2:$E$135</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$134</f>
+              <f>'70531547'!$A$2:$A$135</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$134</f>
+              <f>'70531547'!$F$2:$F$135</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$134</f>
+              <f>'70531547'!$A$2:$A$135</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$134</f>
+              <f>'70531547'!$G$2:$G$135</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$134</f>
+              <f>'70531547'!$A$2:$A$135</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$134</f>
+              <f>'70531547'!$H$2:$H$135</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$134</f>
+              <f>'70531547'!$A$2:$A$135</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$134</f>
+              <f>'70531547'!$I$2:$I$135</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$134</f>
+              <f>'70531547'!$A$2:$A$135</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$134</f>
+              <f>'70531547'!$J$2:$J$135</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$134</f>
+              <f>'70531547'!$A$2:$A$135</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$134</f>
+              <f>'70531547'!$K$2:$K$135</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$134</f>
+              <f>'70531547'!$A$2:$A$135</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$134</f>
+              <f>'70531547'!$L$2:$L$135</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$134</f>
+              <f>'70531547'!$A$2:$A$135</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$134</f>
+              <f>'70531547'!$M$2:$M$135</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$134</f>
+              <f>'70531547'!$A$2:$A$135</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$134</f>
+              <f>'70531547'!$N$2:$N$135</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -750,12 +750,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$134</f>
+              <f>'70531547'!$A$2:$A$135</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$O$2:$O$134</f>
+              <f>'70531547'!$O$2:$O$135</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -793,12 +793,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$134</f>
+              <f>'70531547'!$A$2:$A$135</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$P$2:$P$134</f>
+              <f>'70531547'!$P$2:$P$135</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1184,7 +1184,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P134"/>
+  <dimension ref="A1:P135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6594,6 +6594,46 @@
         <v>963000</v>
       </c>
     </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2025-01-03 10:32</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D135" t="n">
+        <v>1160640</v>
+      </c>
+      <c r="E135" t="n">
+        <v>1078950</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1078950</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1174530</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1176439</v>
+      </c>
+      <c r="J135" t="n">
+        <v>1206090</v>
+      </c>
+      <c r="K135" t="n">
+        <v>1176439</v>
+      </c>
+      <c r="L135" t="n">
+        <v>1161920</v>
+      </c>
+      <c r="O135" t="n">
+        <v>1079000</v>
+      </c>
+      <c r="P135" t="n">
+        <v>963000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$135</f>
+              <f>'70531547'!$A$2:$A$136</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$135</f>
+              <f>'70531547'!$B$2:$B$136</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$135</f>
+              <f>'70531547'!$A$2:$A$136</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$135</f>
+              <f>'70531547'!$C$2:$C$136</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$135</f>
+              <f>'70531547'!$A$2:$A$136</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$135</f>
+              <f>'70531547'!$D$2:$D$136</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$135</f>
+              <f>'70531547'!$A$2:$A$136</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$135</f>
+              <f>'70531547'!$E$2:$E$136</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$135</f>
+              <f>'70531547'!$A$2:$A$136</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$135</f>
+              <f>'70531547'!$F$2:$F$136</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$135</f>
+              <f>'70531547'!$A$2:$A$136</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$135</f>
+              <f>'70531547'!$G$2:$G$136</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$135</f>
+              <f>'70531547'!$A$2:$A$136</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$135</f>
+              <f>'70531547'!$H$2:$H$136</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$135</f>
+              <f>'70531547'!$A$2:$A$136</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$135</f>
+              <f>'70531547'!$I$2:$I$136</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$135</f>
+              <f>'70531547'!$A$2:$A$136</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$135</f>
+              <f>'70531547'!$J$2:$J$136</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$135</f>
+              <f>'70531547'!$A$2:$A$136</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$135</f>
+              <f>'70531547'!$K$2:$K$136</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$135</f>
+              <f>'70531547'!$A$2:$A$136</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$135</f>
+              <f>'70531547'!$L$2:$L$136</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$135</f>
+              <f>'70531547'!$A$2:$A$136</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$135</f>
+              <f>'70531547'!$M$2:$M$136</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$135</f>
+              <f>'70531547'!$A$2:$A$136</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$135</f>
+              <f>'70531547'!$N$2:$N$136</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -750,12 +750,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$135</f>
+              <f>'70531547'!$A$2:$A$136</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$O$2:$O$135</f>
+              <f>'70531547'!$O$2:$O$136</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -793,12 +793,55 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$135</f>
+              <f>'70531547'!$A$2:$A$136</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$P$2:$P$135</f>
+              <f>'70531547'!$P$2:$P$136</f>
+            </numRef>
+          </val>
+          <smooth val="1"/>
+        </ser>
+        <ser>
+          <idx val="15"/>
+          <order val="15"/>
+          <tx>
+            <strRef>
+              <f>'70531547'!Q1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln w="25000">
+              <a:solidFill>
+                <a:srgbClr val="00FFFF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="circle"/>
+            <size val="5"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="00FFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="00FFFF"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'70531547'!$A$2:$A$136</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'70531547'!$Q$2:$Q$136</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1184,7 +1227,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P135"/>
+  <dimension ref="A1:Q136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1273,6 +1316,11 @@
           <t>디스컴</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>컴나무</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -6632,6 +6680,46 @@
       </c>
       <c r="P135" t="n">
         <v>963000</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2025-01-03 11:27</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D136" t="n">
+        <v>1078960</v>
+      </c>
+      <c r="E136" t="n">
+        <v>1078950</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1078950</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1184000</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1176439</v>
+      </c>
+      <c r="J136" t="n">
+        <v>1206090</v>
+      </c>
+      <c r="K136" t="n">
+        <v>1176439</v>
+      </c>
+      <c r="L136" t="n">
+        <v>1161920</v>
+      </c>
+      <c r="O136" t="n">
+        <v>1079000</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>1040000</v>
       </c>
     </row>
   </sheetData>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$136</f>
+              <f>'70531547'!$A$2:$A$137</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$136</f>
+              <f>'70531547'!$B$2:$B$137</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$136</f>
+              <f>'70531547'!$A$2:$A$137</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$136</f>
+              <f>'70531547'!$C$2:$C$137</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$136</f>
+              <f>'70531547'!$A$2:$A$137</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$136</f>
+              <f>'70531547'!$D$2:$D$137</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$136</f>
+              <f>'70531547'!$A$2:$A$137</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$136</f>
+              <f>'70531547'!$E$2:$E$137</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$136</f>
+              <f>'70531547'!$A$2:$A$137</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$136</f>
+              <f>'70531547'!$F$2:$F$137</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$136</f>
+              <f>'70531547'!$A$2:$A$137</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$136</f>
+              <f>'70531547'!$G$2:$G$137</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$136</f>
+              <f>'70531547'!$A$2:$A$137</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$136</f>
+              <f>'70531547'!$H$2:$H$137</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$136</f>
+              <f>'70531547'!$A$2:$A$137</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$136</f>
+              <f>'70531547'!$I$2:$I$137</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$136</f>
+              <f>'70531547'!$A$2:$A$137</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$136</f>
+              <f>'70531547'!$J$2:$J$137</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$136</f>
+              <f>'70531547'!$A$2:$A$137</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$136</f>
+              <f>'70531547'!$K$2:$K$137</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$136</f>
+              <f>'70531547'!$A$2:$A$137</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$136</f>
+              <f>'70531547'!$L$2:$L$137</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$136</f>
+              <f>'70531547'!$A$2:$A$137</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$136</f>
+              <f>'70531547'!$M$2:$M$137</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$136</f>
+              <f>'70531547'!$A$2:$A$137</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$136</f>
+              <f>'70531547'!$N$2:$N$137</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -750,12 +750,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$136</f>
+              <f>'70531547'!$A$2:$A$137</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$O$2:$O$136</f>
+              <f>'70531547'!$O$2:$O$137</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -793,12 +793,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$136</f>
+              <f>'70531547'!$A$2:$A$137</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$P$2:$P$136</f>
+              <f>'70531547'!$P$2:$P$137</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -836,12 +836,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$136</f>
+              <f>'70531547'!$A$2:$A$137</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$Q$2:$Q$136</f>
+              <f>'70531547'!$Q$2:$Q$137</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1227,7 +1227,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q136"/>
+  <dimension ref="A1:Q137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6722,6 +6722,46 @@
         <v>1040000</v>
       </c>
     </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2025-01-03 12:08</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D137" t="n">
+        <v>1078960</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1078950</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1078950</v>
+      </c>
+      <c r="H137" t="n">
+        <v>1184000</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1176439</v>
+      </c>
+      <c r="J137" t="n">
+        <v>1206090</v>
+      </c>
+      <c r="K137" t="n">
+        <v>1176439</v>
+      </c>
+      <c r="L137" t="n">
+        <v>1161920</v>
+      </c>
+      <c r="M137" t="n">
+        <v>990000</v>
+      </c>
+      <c r="O137" t="n">
+        <v>1079000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$137</f>
+              <f>'70531547'!$A$2:$A$138</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$137</f>
+              <f>'70531547'!$B$2:$B$138</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$137</f>
+              <f>'70531547'!$A$2:$A$138</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$137</f>
+              <f>'70531547'!$C$2:$C$138</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$137</f>
+              <f>'70531547'!$A$2:$A$138</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$137</f>
+              <f>'70531547'!$D$2:$D$138</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$137</f>
+              <f>'70531547'!$A$2:$A$138</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$137</f>
+              <f>'70531547'!$E$2:$E$138</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$137</f>
+              <f>'70531547'!$A$2:$A$138</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$137</f>
+              <f>'70531547'!$F$2:$F$138</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$137</f>
+              <f>'70531547'!$A$2:$A$138</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$137</f>
+              <f>'70531547'!$G$2:$G$138</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$137</f>
+              <f>'70531547'!$A$2:$A$138</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$137</f>
+              <f>'70531547'!$H$2:$H$138</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$137</f>
+              <f>'70531547'!$A$2:$A$138</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$137</f>
+              <f>'70531547'!$I$2:$I$138</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$137</f>
+              <f>'70531547'!$A$2:$A$138</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$137</f>
+              <f>'70531547'!$J$2:$J$138</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$137</f>
+              <f>'70531547'!$A$2:$A$138</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$137</f>
+              <f>'70531547'!$K$2:$K$138</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$137</f>
+              <f>'70531547'!$A$2:$A$138</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$137</f>
+              <f>'70531547'!$L$2:$L$138</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$137</f>
+              <f>'70531547'!$A$2:$A$138</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$137</f>
+              <f>'70531547'!$M$2:$M$138</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$137</f>
+              <f>'70531547'!$A$2:$A$138</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$137</f>
+              <f>'70531547'!$N$2:$N$138</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -750,12 +750,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$137</f>
+              <f>'70531547'!$A$2:$A$138</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$O$2:$O$137</f>
+              <f>'70531547'!$O$2:$O$138</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -793,12 +793,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$137</f>
+              <f>'70531547'!$A$2:$A$138</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$P$2:$P$137</f>
+              <f>'70531547'!$P$2:$P$138</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -836,12 +836,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$137</f>
+              <f>'70531547'!$A$2:$A$138</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$Q$2:$Q$137</f>
+              <f>'70531547'!$Q$2:$Q$138</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1227,7 +1227,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q137"/>
+  <dimension ref="A1:Q138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6762,6 +6762,46 @@
         <v>1079000</v>
       </c>
     </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2025-01-03 13:06</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D138" t="n">
+        <v>1160640</v>
+      </c>
+      <c r="E138" t="n">
+        <v>1078950</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1078950</v>
+      </c>
+      <c r="H138" t="n">
+        <v>1185720</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1176439</v>
+      </c>
+      <c r="J138" t="n">
+        <v>1206090</v>
+      </c>
+      <c r="K138" t="n">
+        <v>1176439</v>
+      </c>
+      <c r="L138" t="n">
+        <v>1161920</v>
+      </c>
+      <c r="M138" t="n">
+        <v>990000</v>
+      </c>
+      <c r="O138" t="n">
+        <v>1079000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$138</f>
+              <f>'70531547'!$A$2:$A$139</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$138</f>
+              <f>'70531547'!$B$2:$B$139</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$138</f>
+              <f>'70531547'!$A$2:$A$139</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$138</f>
+              <f>'70531547'!$C$2:$C$139</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$138</f>
+              <f>'70531547'!$A$2:$A$139</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$138</f>
+              <f>'70531547'!$D$2:$D$139</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$138</f>
+              <f>'70531547'!$A$2:$A$139</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$138</f>
+              <f>'70531547'!$E$2:$E$139</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$138</f>
+              <f>'70531547'!$A$2:$A$139</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$138</f>
+              <f>'70531547'!$F$2:$F$139</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$138</f>
+              <f>'70531547'!$A$2:$A$139</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$138</f>
+              <f>'70531547'!$G$2:$G$139</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$138</f>
+              <f>'70531547'!$A$2:$A$139</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$138</f>
+              <f>'70531547'!$H$2:$H$139</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$138</f>
+              <f>'70531547'!$A$2:$A$139</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$138</f>
+              <f>'70531547'!$I$2:$I$139</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$138</f>
+              <f>'70531547'!$A$2:$A$139</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$138</f>
+              <f>'70531547'!$J$2:$J$139</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$138</f>
+              <f>'70531547'!$A$2:$A$139</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$138</f>
+              <f>'70531547'!$K$2:$K$139</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$138</f>
+              <f>'70531547'!$A$2:$A$139</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$138</f>
+              <f>'70531547'!$L$2:$L$139</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$138</f>
+              <f>'70531547'!$A$2:$A$139</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$138</f>
+              <f>'70531547'!$M$2:$M$139</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$138</f>
+              <f>'70531547'!$A$2:$A$139</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$138</f>
+              <f>'70531547'!$N$2:$N$139</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -750,12 +750,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$138</f>
+              <f>'70531547'!$A$2:$A$139</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$O$2:$O$138</f>
+              <f>'70531547'!$O$2:$O$139</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -793,12 +793,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$138</f>
+              <f>'70531547'!$A$2:$A$139</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$P$2:$P$138</f>
+              <f>'70531547'!$P$2:$P$139</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -836,12 +836,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$138</f>
+              <f>'70531547'!$A$2:$A$139</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$Q$2:$Q$138</f>
+              <f>'70531547'!$Q$2:$Q$139</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1227,7 +1227,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q138"/>
+  <dimension ref="A1:Q139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6802,6 +6802,46 @@
         <v>1079000</v>
       </c>
     </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2025-01-03 14:05</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D139" t="n">
+        <v>1078960</v>
+      </c>
+      <c r="E139" t="n">
+        <v>1078950</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1078950</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1185720</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1176439</v>
+      </c>
+      <c r="J139" t="n">
+        <v>1206090</v>
+      </c>
+      <c r="K139" t="n">
+        <v>1176439</v>
+      </c>
+      <c r="L139" t="n">
+        <v>1161920</v>
+      </c>
+      <c r="O139" t="n">
+        <v>1079000</v>
+      </c>
+      <c r="P139" t="n">
+        <v>990000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$139</f>
+              <f>'70531547'!$A$2:$A$140</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$139</f>
+              <f>'70531547'!$B$2:$B$140</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$139</f>
+              <f>'70531547'!$A$2:$A$140</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$139</f>
+              <f>'70531547'!$C$2:$C$140</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$139</f>
+              <f>'70531547'!$A$2:$A$140</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$139</f>
+              <f>'70531547'!$D$2:$D$140</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$139</f>
+              <f>'70531547'!$A$2:$A$140</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$139</f>
+              <f>'70531547'!$E$2:$E$140</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$139</f>
+              <f>'70531547'!$A$2:$A$140</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$139</f>
+              <f>'70531547'!$F$2:$F$140</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$139</f>
+              <f>'70531547'!$A$2:$A$140</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$139</f>
+              <f>'70531547'!$G$2:$G$140</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$139</f>
+              <f>'70531547'!$A$2:$A$140</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$139</f>
+              <f>'70531547'!$H$2:$H$140</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$139</f>
+              <f>'70531547'!$A$2:$A$140</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$139</f>
+              <f>'70531547'!$I$2:$I$140</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$139</f>
+              <f>'70531547'!$A$2:$A$140</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$139</f>
+              <f>'70531547'!$J$2:$J$140</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$139</f>
+              <f>'70531547'!$A$2:$A$140</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$139</f>
+              <f>'70531547'!$K$2:$K$140</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$139</f>
+              <f>'70531547'!$A$2:$A$140</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$139</f>
+              <f>'70531547'!$L$2:$L$140</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$139</f>
+              <f>'70531547'!$A$2:$A$140</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$139</f>
+              <f>'70531547'!$M$2:$M$140</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$139</f>
+              <f>'70531547'!$A$2:$A$140</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$139</f>
+              <f>'70531547'!$N$2:$N$140</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -750,12 +750,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$139</f>
+              <f>'70531547'!$A$2:$A$140</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$O$2:$O$139</f>
+              <f>'70531547'!$O$2:$O$140</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -793,12 +793,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$139</f>
+              <f>'70531547'!$A$2:$A$140</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$P$2:$P$139</f>
+              <f>'70531547'!$P$2:$P$140</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -836,12 +836,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$139</f>
+              <f>'70531547'!$A$2:$A$140</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$Q$2:$Q$139</f>
+              <f>'70531547'!$Q$2:$Q$140</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1227,7 +1227,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q139"/>
+  <dimension ref="A1:Q140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6842,6 +6842,46 @@
         <v>990000</v>
       </c>
     </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>2025-01-03 15:06</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D140" t="n">
+        <v>1161600</v>
+      </c>
+      <c r="E140" t="n">
+        <v>1078950</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1078950</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1185720</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1176439</v>
+      </c>
+      <c r="J140" t="n">
+        <v>1206090</v>
+      </c>
+      <c r="K140" t="n">
+        <v>1176439</v>
+      </c>
+      <c r="L140" t="n">
+        <v>1161920</v>
+      </c>
+      <c r="O140" t="n">
+        <v>1079000</v>
+      </c>
+      <c r="P140" t="n">
+        <v>990000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/danawa_lowest_prices_70531547.xlsx
+++ b/danawa_lowest_prices_70531547.xlsx
@@ -191,12 +191,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$140</f>
+              <f>'70531547'!$A$2:$A$141</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$B$2:$B$140</f>
+              <f>'70531547'!$B$2:$B$141</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -234,12 +234,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$140</f>
+              <f>'70531547'!$A$2:$A$141</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$C$2:$C$140</f>
+              <f>'70531547'!$C$2:$C$141</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -277,12 +277,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$140</f>
+              <f>'70531547'!$A$2:$A$141</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$D$2:$D$140</f>
+              <f>'70531547'!$D$2:$D$141</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -320,12 +320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$140</f>
+              <f>'70531547'!$A$2:$A$141</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$E$2:$E$140</f>
+              <f>'70531547'!$E$2:$E$141</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -363,12 +363,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$140</f>
+              <f>'70531547'!$A$2:$A$141</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$F$2:$F$140</f>
+              <f>'70531547'!$F$2:$F$141</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -406,12 +406,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$140</f>
+              <f>'70531547'!$A$2:$A$141</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$G$2:$G$140</f>
+              <f>'70531547'!$G$2:$G$141</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -449,12 +449,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$140</f>
+              <f>'70531547'!$A$2:$A$141</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$H$2:$H$140</f>
+              <f>'70531547'!$H$2:$H$141</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -492,12 +492,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$140</f>
+              <f>'70531547'!$A$2:$A$141</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$I$2:$I$140</f>
+              <f>'70531547'!$I$2:$I$141</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$140</f>
+              <f>'70531547'!$A$2:$A$141</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$J$2:$J$140</f>
+              <f>'70531547'!$J$2:$J$141</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -578,12 +578,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$140</f>
+              <f>'70531547'!$A$2:$A$141</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$K$2:$K$140</f>
+              <f>'70531547'!$K$2:$K$141</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -621,12 +621,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$140</f>
+              <f>'70531547'!$A$2:$A$141</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$L$2:$L$140</f>
+              <f>'70531547'!$L$2:$L$141</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -664,12 +664,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$140</f>
+              <f>'70531547'!$A$2:$A$141</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$M$2:$M$140</f>
+              <f>'70531547'!$M$2:$M$141</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -707,12 +707,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$140</f>
+              <f>'70531547'!$A$2:$A$141</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$N$2:$N$140</f>
+              <f>'70531547'!$N$2:$N$141</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -750,12 +750,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$140</f>
+              <f>'70531547'!$A$2:$A$141</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$O$2:$O$140</f>
+              <f>'70531547'!$O$2:$O$141</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -793,12 +793,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$140</f>
+              <f>'70531547'!$A$2:$A$141</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$P$2:$P$140</f>
+              <f>'70531547'!$P$2:$P$141</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -836,12 +836,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'70531547'!$A$2:$A$140</f>
+              <f>'70531547'!$A$2:$A$141</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'70531547'!$Q$2:$Q$140</f>
+              <f>'70531547'!$Q$2:$Q$141</f>
             </numRef>
           </val>
           <smooth val="1"/>
@@ -1227,7 +1227,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q140"/>
+  <dimension ref="A1:Q141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6882,6 +6882,46 @@
         <v>990000</v>
       </c>
     </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>2025-01-03 16:05</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>1078900</v>
+      </c>
+      <c r="D141" t="n">
+        <v>1161600</v>
+      </c>
+      <c r="E141" t="n">
+        <v>1078950</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1078950</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1191830</v>
+      </c>
+      <c r="I141" t="n">
+        <v>1176439</v>
+      </c>
+      <c r="J141" t="n">
+        <v>1206090</v>
+      </c>
+      <c r="K141" t="n">
+        <v>1176439</v>
+      </c>
+      <c r="L141" t="n">
+        <v>1161920</v>
+      </c>
+      <c r="M141" t="n">
+        <v>990000</v>
+      </c>
+      <c r="O141" t="n">
+        <v>1079000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
